--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2304</x:v>
+        <x:v>2308</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>1307</x:v>
@@ -516,7 +516,7 @@
         <x:v>1097</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>5039</x:v>
+        <x:v>5043</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,7 +556,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2498</x:v>
+        <x:v>2502</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>1395</x:v>
@@ -574,7 +574,7 @@
         <x:v>1191</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>5431</x:v>
+        <x:v>5435</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -675,7 +675,7 @@
         <x:v>368</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>11</x:v>
@@ -690,7 +690,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>695</x:v>
+        <x:v>696</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -733,7 +733,7 @@
         <x:v>494</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>17</x:v>
@@ -748,7 +748,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1010</x:v>
+        <x:v>1011</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2444</x:v>
+        <x:v>2446</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>433</x:v>
@@ -774,10 +774,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>454</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>3598</x:v>
+        <x:v>3602</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>2471</x:v>
+        <x:v>2473</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>435</x:v>
@@ -832,10 +832,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>463</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>3640</x:v>
+        <x:v>3644</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2308</x:v>
+        <x:v>2311</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>1307</x:v>
@@ -516,7 +516,7 @@
         <x:v>1097</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>5043</x:v>
+        <x:v>5046</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>88</x:v>
@@ -542,10 +542,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,7 +556,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2502</x:v>
+        <x:v>2506</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>1395</x:v>
@@ -571,10 +571,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>1191</x:v>
+        <x:v>1192</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>5435</x:v>
+        <x:v>5440</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -687,10 +687,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>696</x:v>
+        <x:v>697</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -704,7 +704,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>6</x:v>
@@ -719,7 +719,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -733,7 +733,7 @@
         <x:v>494</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>17</x:v>
@@ -745,10 +745,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1011</x:v>
+        <x:v>1013</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2446</x:v>
+        <x:v>2449</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>433</x:v>
@@ -774,10 +774,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>3602</x:v>
+        <x:v>3606</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>2473</x:v>
+        <x:v>2476</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>435</x:v>
@@ -832,10 +832,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>3644</x:v>
+        <x:v>3648</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>528</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>621</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>33</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1294</x:v>
+        <x:v>1295</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>555</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>35</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>1345</x:v>
+        <x:v>1346</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2311</x:v>
+        <x:v>2315</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>1307</x:v>
@@ -513,10 +513,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>1097</x:v>
+        <x:v>1099</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>5046</x:v>
+        <x:v>5052</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -530,7 +530,7 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>4</x:v>
@@ -545,7 +545,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2506</x:v>
+        <x:v>2510</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>1395</x:v>
+        <x:v>1396</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>65</x:v>
@@ -571,10 +571,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>1192</x:v>
+        <x:v>1194</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>5440</x:v>
+        <x:v>5447</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>221</x:v>
@@ -690,7 +690,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -704,7 +704,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>6</x:v>
@@ -719,7 +719,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>17</x:v>
@@ -748,7 +748,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1013</x:v>
+        <x:v>1015</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,13 +759,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2449</x:v>
+        <x:v>2452</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>433</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>125</x:v>
@@ -774,10 +774,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>3606</x:v>
+        <x:v>3611</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,13 +817,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>2476</x:v>
+        <x:v>2479</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>435</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>128</x:v>
@@ -832,10 +832,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>3648</x:v>
+        <x:v>3653</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -977,10 +977,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>573</x:v>
+        <x:v>574</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,7 +1020,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>622</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1295</x:v>
+        <x:v>1296</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,7 +1078,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>555</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>641</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>1346</x:v>
+        <x:v>1347</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2315</x:v>
+        <x:v>2324</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>1307</x:v>
@@ -513,10 +513,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>1099</x:v>
+        <x:v>1101</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>5052</x:v>
+        <x:v>5063</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>89</x:v>
@@ -545,7 +545,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,7 +556,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2510</x:v>
+        <x:v>2520</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>1396</x:v>
@@ -571,10 +571,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>1194</x:v>
+        <x:v>1196</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>5447</x:v>
+        <x:v>5459</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>11</x:v>
@@ -690,7 +690,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>698</x:v>
+        <x:v>704</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,7 +701,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>152</x:v>
@@ -719,7 +719,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>495</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>17</x:v>
@@ -748,7 +748,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1015</x:v>
+        <x:v>1022</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,13 +759,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2452</x:v>
+        <x:v>2458</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>433</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>125</x:v>
@@ -774,10 +774,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>3611</x:v>
+        <x:v>3619</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,13 +817,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>2479</x:v>
+        <x:v>2485</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>435</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>128</x:v>
@@ -832,10 +832,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>3653</x:v>
+        <x:v>3661</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>529</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>622</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>33</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1296</x:v>
+        <x:v>1299</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>556</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>641</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>35</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>1347</x:v>
+        <x:v>1350</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2324</x:v>
+        <x:v>2327</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>1307</x:v>
+        <x:v>1309</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>61</x:v>
@@ -516,7 +516,7 @@
         <x:v>1101</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>5063</x:v>
+        <x:v>5068</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2520</x:v>
+        <x:v>2523</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>1396</x:v>
+        <x:v>1398</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>65</x:v>
@@ -574,7 +574,7 @@
         <x:v>1196</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>5459</x:v>
+        <x:v>5464</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -759,13 +759,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2458</x:v>
+        <x:v>2460</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>433</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>125</x:v>
@@ -777,7 +777,7 @@
         <x:v>459</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>3619</x:v>
+        <x:v>3622</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,13 +817,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>2485</x:v>
+        <x:v>2487</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>435</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>128</x:v>
@@ -835,7 +835,7 @@
         <x:v>468</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>3661</x:v>
+        <x:v>3664</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>46</x:v>
@@ -951,7 +951,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>445</x:v>
+        <x:v>444</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>352</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>52</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>574</x:v>
+        <x:v>573</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,10 +1020,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>33</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1299</x:v>
+        <x:v>1301</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>556</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>644</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>35</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>1350</x:v>
+        <x:v>1352</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -513,10 +513,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>1101</x:v>
+        <x:v>1102</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>5068</x:v>
+        <x:v>5069</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -571,10 +571,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>1196</x:v>
+        <x:v>1197</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>5464</x:v>
+        <x:v>5465</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2460</x:v>
+        <x:v>2464</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>138</x:v>
@@ -777,7 +777,7 @@
         <x:v>459</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>3622</x:v>
+        <x:v>3627</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,7 +788,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>2</x:v>
@@ -806,7 +806,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>2487</x:v>
+        <x:v>2492</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>138</x:v>
@@ -835,7 +835,7 @@
         <x:v>468</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>3664</x:v>
+        <x:v>3670</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>530</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>33</x:v>
@@ -1035,10 +1035,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1301</x:v>
+        <x:v>1303</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>557</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>35</x:v>
@@ -1093,10 +1093,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>1352</x:v>
+        <x:v>1354</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -501,7 +501,7 @@
         <x:v>2327</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>1309</x:v>
+        <x:v>1310</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>61</x:v>
@@ -516,7 +516,7 @@
         <x:v>1102</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>5069</x:v>
+        <x:v>5070</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>2523</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>1398</x:v>
+        <x:v>1399</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>65</x:v>
@@ -574,7 +574,7 @@
         <x:v>1197</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>5465</x:v>
+        <x:v>5466</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -681,7 +681,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>0</x:v>
@@ -690,7 +690,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>704</x:v>
+        <x:v>705</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -704,7 +704,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>6</x:v>
@@ -719,7 +719,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -733,13 +733,13 @@
         <x:v>501</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>0</x:v>
@@ -748,7 +748,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1022</x:v>
+        <x:v>1024</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -762,7 +762,7 @@
         <x:v>2464</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>138</x:v>
@@ -777,7 +777,7 @@
         <x:v>459</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>3627</x:v>
+        <x:v>3628</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>2492</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>138</x:v>
@@ -835,7 +835,7 @@
         <x:v>468</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>3670</x:v>
+        <x:v>3671</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1020,7 +1020,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>627</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1303</x:v>
+        <x:v>1304</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,7 +1078,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>557</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>646</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>1354</x:v>
+        <x:v>1355</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,16 +498,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2327</x:v>
+        <x:v>2334</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>1310</x:v>
+        <x:v>1312</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>61</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>9</x:v>
@@ -516,7 +516,7 @@
         <x:v>1102</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>5070</x:v>
+        <x:v>5080</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,16 +556,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2523</x:v>
+        <x:v>2530</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>1399</x:v>
+        <x:v>1401</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>65</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>9</x:v>
@@ -574,7 +574,7 @@
         <x:v>1197</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>5466</x:v>
+        <x:v>5476</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -675,7 +675,7 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>11</x:v>
@@ -690,7 +690,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -733,7 +733,7 @@
         <x:v>501</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>17</x:v>
@@ -748,7 +748,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1024</x:v>
+        <x:v>1025</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2464</x:v>
+        <x:v>2465</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>435</x:v>
@@ -768,16 +768,16 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>3628</x:v>
+        <x:v>3631</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>2492</x:v>
+        <x:v>2493</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>437</x:v>
@@ -826,16 +826,16 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>3671</x:v>
+        <x:v>3674</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>46</x:v>
@@ -951,7 +951,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>52</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>573</x:v>
+        <x:v>574</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,7 +1020,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>627</x:v>
@@ -1029,7 +1029,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>1</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1304</x:v>
+        <x:v>1306</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,7 +1078,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>558</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>646</x:v>
@@ -1087,7 +1087,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>1</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>1355</x:v>
+        <x:v>1357</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>2334</x:v>
+        <x:v>3105</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>1312</x:v>
+        <x:v>1774</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>1102</x:v>
+        <x:v>1507</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>5080</x:v>
+        <x:v>6831</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,25 +527,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>396</x:v>
+        <x:v>508</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2530</x:v>
+        <x:v>3363</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>1401</x:v>
+        <x:v>1883</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>274</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>1197</x:v>
+        <x:v>1624</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>5476</x:v>
+        <x:v>7339</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -585,10 +585,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>1</x:v>
@@ -600,10 +600,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -614,10 +614,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>0</x:v>
@@ -629,10 +629,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -643,10 +643,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>1</x:v>
@@ -658,10 +658,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,25 +672,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>374</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>706</x:v>
+        <x:v>984</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,25 +701,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>451</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,25 +730,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>501</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>376</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1025</x:v>
+        <x:v>1435</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,25 +759,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>2465</x:v>
+        <x:v>3285</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>3631</x:v>
+        <x:v>4851</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,7 +788,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>2</x:v>
@@ -797,16 +797,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>2493</x:v>
+        <x:v>3323</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>437</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>469</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>3674</x:v>
+        <x:v>4906</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -846,10 +846,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>0</x:v>
@@ -864,7 +864,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -904,10 +904,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>0</x:v>
@@ -922,7 +922,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -933,25 +933,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>445</x:v>
+        <x:v>582</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,25 +962,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,25 +991,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>352</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>574</x:v>
+        <x:v>756</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,25 +1020,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>532</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>627</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1306</x:v>
+        <x:v>1675</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1049,10 +1049,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>2</x:v>
@@ -1064,10 +1064,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,25 +1078,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>559</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>838</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>1357</x:v>
+        <x:v>1750</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3105</x:v>
+        <x:v>3119</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>1774</x:v>
+        <x:v>1781</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>85</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>1507</x:v>
+        <x:v>1510</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>6831</x:v>
+        <x:v>6856</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>3363</x:v>
+        <x:v>3377</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>1883</x:v>
+        <x:v>1890</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>92</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>1624</x:v>
+        <x:v>1627</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>7339</x:v>
+        <x:v>7364</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>525</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>311</x:v>
@@ -690,7 +690,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>984</x:v>
+        <x:v>987</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>703</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>523</x:v>
@@ -748,7 +748,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1435</x:v>
+        <x:v>1438</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,25 +759,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3285</x:v>
+        <x:v>3298</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>587</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>185</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>621</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>4851</x:v>
+        <x:v>4868</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -791,7 +791,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>0</x:v>
@@ -806,7 +806,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>3323</x:v>
+        <x:v>3336</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>589</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>185</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>631</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>4906</x:v>
+        <x:v>4924</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>59</x:v>
@@ -951,7 +951,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>69</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>756</x:v>
+        <x:v>757</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,10 +1020,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>679</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>809</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>42</x:v>
@@ -1035,10 +1035,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1675</x:v>
+        <x:v>1682</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>715</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>838</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>44</x:v>
@@ -1093,10 +1093,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>1750</x:v>
+        <x:v>1757</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -501,7 +501,7 @@
         <x:v>3119</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>1781</x:v>
+        <x:v>1782</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>85</x:v>
@@ -513,10 +513,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>1510</x:v>
+        <x:v>1511</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>6856</x:v>
+        <x:v>6858</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>3377</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>1890</x:v>
+        <x:v>1891</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>92</x:v>
@@ -571,10 +571,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>1627</x:v>
+        <x:v>1628</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>7364</x:v>
+        <x:v>7366</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -675,7 +675,7 @@
         <x:v>528</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>15</x:v>
@@ -690,7 +690,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>987</x:v>
+        <x:v>988</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -733,7 +733,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>523</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>21</x:v>
@@ -748,7 +748,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1438</x:v>
+        <x:v>1439</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3298</x:v>
+        <x:v>3302</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>588</x:v>
@@ -777,7 +777,7 @@
         <x:v>623</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>4868</x:v>
+        <x:v>4872</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>3336</x:v>
+        <x:v>3340</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>591</x:v>
@@ -835,7 +835,7 @@
         <x:v>633</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>4924</x:v>
+        <x:v>4928</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1020,10 +1020,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>682</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>815</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>42</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1682</x:v>
+        <x:v>1686</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1052,7 +1052,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>2</x:v>
@@ -1067,7 +1067,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>718</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>844</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>44</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>1757</x:v>
+        <x:v>1760</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3119</x:v>
+        <x:v>3124</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>1782</x:v>
+        <x:v>1783</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>85</x:v>
@@ -516,7 +516,7 @@
         <x:v>1511</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>6858</x:v>
+        <x:v>6864</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>3377</x:v>
+        <x:v>3382</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>1891</x:v>
+        <x:v>1892</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>92</x:v>
@@ -574,7 +574,7 @@
         <x:v>1628</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>7366</x:v>
+        <x:v>7372</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>528</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>312</x:v>
@@ -690,7 +690,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>988</x:v>
+        <x:v>993</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>706</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>524</x:v>
@@ -748,7 +748,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1439</x:v>
+        <x:v>1444</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3302</x:v>
+        <x:v>3305</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>588</x:v>
@@ -774,10 +774,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>4872</x:v>
+        <x:v>4876</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>3340</x:v>
+        <x:v>3343</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>591</x:v>
@@ -832,10 +832,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>4928</x:v>
+        <x:v>4932</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3124</x:v>
+        <x:v>3126</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>1783</x:v>
+        <x:v>1784</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>85</x:v>
@@ -513,10 +513,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>1511</x:v>
+        <x:v>1512</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>6864</x:v>
+        <x:v>6868</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>109</x:v>
@@ -545,7 +545,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>3382</x:v>
+        <x:v>3385</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>1892</x:v>
+        <x:v>1893</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>92</x:v>
@@ -571,10 +571,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>1628</x:v>
+        <x:v>1629</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>7372</x:v>
+        <x:v>7377</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>533</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>15</x:v>
@@ -690,7 +690,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>993</x:v>
+        <x:v>996</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>711</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>21</x:v>
@@ -748,7 +748,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1444</x:v>
+        <x:v>1447</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,13 +759,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3305</x:v>
+        <x:v>3308</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>588</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>164</x:v>
@@ -774,10 +774,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>624</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>4876</x:v>
+        <x:v>4884</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,13 +817,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>3343</x:v>
+        <x:v>3346</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>591</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>168</x:v>
@@ -832,10 +832,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>634</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>4932</x:v>
+        <x:v>4940</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1020,10 +1020,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>817</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>42</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1686</x:v>
+        <x:v>1692</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>720</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>845</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>44</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>1760</x:v>
+        <x:v>1766</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -513,10 +513,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>1512</x:v>
+        <x:v>1514</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>6868</x:v>
+        <x:v>6870</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -571,10 +571,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>1629</x:v>
+        <x:v>1631</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>7377</x:v>
+        <x:v>7379</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3308</x:v>
+        <x:v>3312</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>589</x:v>
@@ -774,10 +774,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>4884</x:v>
+        <x:v>4889</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>3346</x:v>
+        <x:v>3350</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>592</x:v>
@@ -832,10 +832,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>637</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>4940</x:v>
+        <x:v>4945</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>688</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>819</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>42</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1692</x:v>
+        <x:v>1694</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>724</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>847</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>44</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>1766</x:v>
+        <x:v>1768</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>583</x:v>
+        <x:v>584</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>757</x:v>
+        <x:v>758</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,16 +498,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3126</x:v>
+        <x:v>3128</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>1784</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>10</x:v>
@@ -516,7 +516,7 @@
         <x:v>1514</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>6870</x:v>
+        <x:v>6874</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -530,7 +530,7 @@
         <x:v>259</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>7</x:v>
@@ -545,7 +545,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>509</x:v>
+        <x:v>504</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,16 +556,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>3385</x:v>
+        <x:v>3387</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>1893</x:v>
+        <x:v>1888</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>10</x:v>
@@ -574,7 +574,7 @@
         <x:v>1631</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>7379</x:v>
+        <x:v>7378</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -675,7 +675,7 @@
         <x:v>535</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>15</x:v>
@@ -690,7 +690,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>996</x:v>
+        <x:v>997</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -733,7 +733,7 @@
         <x:v>713</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>21</x:v>
@@ -748,7 +748,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1447</x:v>
+        <x:v>1448</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3312</x:v>
+        <x:v>3314</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>589</x:v>
@@ -768,16 +768,16 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>628</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>4889</x:v>
+        <x:v>4891</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>3350</x:v>
+        <x:v>3352</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>592</x:v>
@@ -826,16 +826,16 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>638</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>4945</x:v>
+        <x:v>4947</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1020,13 +1020,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>688</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>821</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>73</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1694</x:v>
+        <x:v>1696</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,13 +1078,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>724</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>849</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>73</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>1768</x:v>
+        <x:v>1770</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3128</x:v>
+        <x:v>3131</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>1784</x:v>
+        <x:v>1790</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>86</x:v>
@@ -513,10 +513,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>1514</x:v>
+        <x:v>1513</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>6874</x:v>
+        <x:v>6882</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -530,7 +530,7 @@
         <x:v>259</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>7</x:v>
@@ -545,7 +545,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>509</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>3387</x:v>
+        <x:v>3390</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>1888</x:v>
+        <x:v>1899</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>93</x:v>
@@ -571,10 +571,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>1631</x:v>
+        <x:v>1630</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>7378</x:v>
+        <x:v>7391</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>15</x:v>
@@ -687,10 +687,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>997</x:v>
+        <x:v>1001</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -704,7 +704,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>6</x:v>
@@ -716,10 +716,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>526</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>21</x:v>
@@ -748,7 +748,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1448</x:v>
+        <x:v>1453</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3314</x:v>
+        <x:v>3319</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>589</x:v>
@@ -774,10 +774,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>4891</x:v>
+        <x:v>4897</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>3352</x:v>
+        <x:v>3357</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>592</x:v>
@@ -832,10 +832,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>637</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>4947</x:v>
+        <x:v>4953</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1020,10 +1020,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>689</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>821</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>43</x:v>
@@ -1035,10 +1035,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1696</x:v>
+        <x:v>1698</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>725</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>849</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>45</x:v>
@@ -1093,10 +1093,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>1770</x:v>
+        <x:v>1772</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3131</x:v>
+        <x:v>3136</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>1790</x:v>
@@ -507,16 +507,16 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>352</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>1513</x:v>
+        <x:v>1514</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>6882</x:v>
+        <x:v>6890</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,7 +556,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>3390</x:v>
+        <x:v>3395</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>1899</x:v>
@@ -565,16 +565,16 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>1630</x:v>
+        <x:v>1631</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>7391</x:v>
+        <x:v>7399</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>536</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>15</x:v>
@@ -690,7 +690,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1001</x:v>
+        <x:v>1003</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -704,7 +704,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>6</x:v>
@@ -716,10 +716,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>452</x:v>
+        <x:v>455</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>714</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>530</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>21</x:v>
@@ -745,10 +745,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1453</x:v>
+        <x:v>1458</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3319</x:v>
+        <x:v>3323</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>589</x:v>
@@ -774,10 +774,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>4897</x:v>
+        <x:v>4902</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>3357</x:v>
+        <x:v>3361</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>592</x:v>
@@ -832,10 +832,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>4953</x:v>
+        <x:v>4958</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>584</x:v>
+        <x:v>585</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>758</x:v>
+        <x:v>759</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3136</x:v>
+        <x:v>3158</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>1790</x:v>
+        <x:v>1794</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>1514</x:v>
+        <x:v>1517</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>6890</x:v>
+        <x:v>6922</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>3395</x:v>
+        <x:v>3417</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>1899</x:v>
+        <x:v>1903</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>1631</x:v>
+        <x:v>1634</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>7399</x:v>
+        <x:v>7431</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -585,7 +585,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>17</x:v>
@@ -603,7 +603,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -643,7 +643,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>48</x:v>
@@ -661,7 +661,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -675,7 +675,7 @@
         <x:v>537</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>15</x:v>
@@ -687,10 +687,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1003</x:v>
+        <x:v>1005</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -733,7 +733,7 @@
         <x:v>715</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>21</x:v>
@@ -745,10 +745,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1458</x:v>
+        <x:v>1460</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3323</x:v>
+        <x:v>3329</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>589</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>186</x:v>
@@ -774,10 +774,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>629</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>4902</x:v>
+        <x:v>4913</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>3361</x:v>
+        <x:v>3367</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>592</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>186</x:v>
@@ -832,10 +832,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>639</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>4958</x:v>
+        <x:v>4969</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>59</x:v>
@@ -951,7 +951,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,7 +962,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>10</x:v>
@@ -980,7 +980,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>487</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>69</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>759</x:v>
+        <x:v>761</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1029,16 +1029,16 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1698</x:v>
+        <x:v>1700</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1087,16 +1087,16 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>1772</x:v>
+        <x:v>1774</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3158</x:v>
+        <x:v>3174</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>1794</x:v>
+        <x:v>1800</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>87</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>1517</x:v>
+        <x:v>1523</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>6922</x:v>
+        <x:v>6951</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>109</x:v>
@@ -536,7 +536,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>0</x:v>
@@ -545,7 +545,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>509</x:v>
+        <x:v>513</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>3417</x:v>
+        <x:v>3436</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>1903</x:v>
+        <x:v>1909</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>94</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>1634</x:v>
+        <x:v>1640</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>7431</x:v>
+        <x:v>7464</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>537</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>15</x:v>
@@ -687,10 +687,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1005</x:v>
+        <x:v>1011</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,7 +701,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>216</x:v>
@@ -716,10 +716,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>455</x:v>
+        <x:v>458</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>715</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>21</x:v>
@@ -745,10 +745,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1460</x:v>
+        <x:v>1469</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3329</x:v>
+        <x:v>3351</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>590</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>186</x:v>
@@ -774,10 +774,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>633</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>4913</x:v>
+        <x:v>4940</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>3367</x:v>
+        <x:v>3389</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>593</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>186</x:v>
@@ -832,10 +832,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>643</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>4969</x:v>
+        <x:v>4996</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>59</x:v>
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>586</x:v>
+        <x:v>603</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -977,10 +977,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>489</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>69</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>761</x:v>
+        <x:v>782</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>692</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>822</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>43</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1700</x:v>
+        <x:v>1699</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1064,10 +1064,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>728</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>850</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>45</x:v>
@@ -1093,7 +1093,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
         <x:v>1774</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>3174</x:v>
+        <x:v>4041</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>1800</x:v>
+        <x:v>2227</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>1523</x:v>
+        <x:v>2337</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>6951</x:v>
+        <x:v>9193</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,25 +527,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>513</x:v>
+        <x:v>662</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>3436</x:v>
+        <x:v>4378</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>1909</x:v>
+        <x:v>2369</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>375</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>1640</x:v>
+        <x:v>2487</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>7464</x:v>
+        <x:v>9855</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -588,7 +588,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>1</x:v>
@@ -600,10 +600,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -614,10 +614,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>0</x:v>
@@ -629,10 +629,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -643,10 +643,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>1</x:v>
@@ -658,10 +658,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,25 +672,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>540</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1011</x:v>
+        <x:v>1357</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,25 +701,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>458</x:v>
+        <x:v>594</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,25 +730,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>720</x:v>
+        <x:v>966</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1469</x:v>
+        <x:v>1951</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,25 +759,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3351</x:v>
+        <x:v>4191</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>592</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>636</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>4940</x:v>
+        <x:v>6232</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,25 +788,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>3389</x:v>
+        <x:v>4238</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>595</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>4996</x:v>
+        <x:v>6302</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -846,16 +846,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>0</x:v>
@@ -864,7 +864,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -904,16 +904,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>0</x:v>
@@ -922,7 +922,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -933,25 +933,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>374</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>603</x:v>
+        <x:v>761</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,25 +962,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,25 +991,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>492</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>782</x:v>
+        <x:v>992</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,25 +1020,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>692</x:v>
+        <x:v>842</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>821</x:v>
+        <x:v>953</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>1699</x:v>
+        <x:v>2023</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1049,10 +1049,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>2</x:v>
@@ -1064,10 +1064,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,25 +1078,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>728</x:v>
+        <x:v>884</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>849</x:v>
+        <x:v>991</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>1774</x:v>
+        <x:v>2115</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4041</x:v>
+        <x:v>4058</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2227</x:v>
+        <x:v>2238</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>453</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2337</x:v>
+        <x:v>2341</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>9193</x:v>
+        <x:v>9227</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,10 +527,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>8</x:v>
@@ -545,7 +545,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>662</x:v>
+        <x:v>664</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>4378</x:v>
+        <x:v>4396</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2369</x:v>
+        <x:v>2381</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>478</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2487</x:v>
+        <x:v>2491</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>9855</x:v>
+        <x:v>9891</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>731</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>409</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>18</x:v>
@@ -687,10 +687,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1357</x:v>
+        <x:v>1364</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,16 +701,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>0</x:v>
@@ -719,7 +719,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>594</x:v>
+        <x:v>603</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,25 +730,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>966</x:v>
+        <x:v>977</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>693</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1951</x:v>
+        <x:v>1967</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>4191</x:v>
+        <x:v>4201</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>237</x:v>
@@ -777,7 +777,7 @@
         <x:v>807</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>6232</x:v>
+        <x:v>6243</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,7 +788,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>5</x:v>
@@ -806,7 +806,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>4238</x:v>
+        <x:v>4249</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>777</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>237</x:v>
@@ -835,7 +835,7 @@
         <x:v>819</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>6302</x:v>
+        <x:v>6314</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,10 +933,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>11</x:v>
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>761</x:v>
+        <x:v>772</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -977,10 +977,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,10 +991,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>606</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>13</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>992</x:v>
+        <x:v>1014</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,13 +1020,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>842</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>953</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>90</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2023</x:v>
+        <x:v>2030</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1049,7 +1049,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>38</x:v>
@@ -1067,7 +1067,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,13 +1078,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>884</x:v>
+        <x:v>888</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>991</x:v>
+        <x:v>995</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>90</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2115</x:v>
+        <x:v>2124</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4058</x:v>
+        <x:v>4065</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>2238</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>456</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2341</x:v>
+        <x:v>2342</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>9227</x:v>
+        <x:v>9238</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,10 +527,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>338</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>8</x:v>
@@ -542,10 +542,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>664</x:v>
+        <x:v>670</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>4396</x:v>
+        <x:v>4405</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2381</x:v>
+        <x:v>2383</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>481</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2491</x:v>
+        <x:v>2494</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>9891</x:v>
+        <x:v>9908</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>735</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>411</x:v>
@@ -690,7 +690,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1364</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,7 +701,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>242</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>285</x:v>
@@ -719,7 +719,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>603</x:v>
+        <x:v>605</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>977</x:v>
+        <x:v>982</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>696</x:v>
@@ -748,7 +748,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1967</x:v>
+        <x:v>1972</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>4201</x:v>
+        <x:v>4209</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>773</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>237</x:v>
@@ -774,10 +774,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>807</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>6243</x:v>
+        <x:v>6255</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,7 +788,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>5</x:v>
@@ -806,7 +806,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>4249</x:v>
+        <x:v>4258</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>778</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>237</x:v>
@@ -832,10 +832,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>819</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>6314</x:v>
+        <x:v>6327</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>90</x:v>
@@ -951,7 +951,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>102</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>270</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1014</x:v>
+        <x:v>1015</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,10 +1020,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>844</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>957</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>56</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2030</x:v>
+        <x:v>2032</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>888</x:v>
+        <x:v>889</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>995</x:v>
+        <x:v>996</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>58</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2124</x:v>
+        <x:v>2126</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -501,7 +501,7 @@
         <x:v>4065</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2238</x:v>
+        <x:v>2239</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>122</x:v>
@@ -513,10 +513,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2342</x:v>
+        <x:v>2344</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>9238</x:v>
+        <x:v>9241</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -559,7 +559,7 @@
         <x:v>4405</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2383</x:v>
+        <x:v>2384</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>130</x:v>
@@ -571,10 +571,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2494</x:v>
+        <x:v>2496</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>9908</x:v>
+        <x:v>9911</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>738</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>18</x:v>
@@ -690,7 +690,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1367</x:v>
+        <x:v>1371</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,10 +701,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>7</x:v>
@@ -716,10 +716,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>605</x:v>
+        <x:v>608</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>982</x:v>
+        <x:v>986</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>696</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>25</x:v>
@@ -745,10 +745,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1972</x:v>
+        <x:v>1979</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -762,7 +762,7 @@
         <x:v>4209</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>774</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>237</x:v>
@@ -777,7 +777,7 @@
         <x:v>810</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>6255</x:v>
+        <x:v>6254</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -820,7 +820,7 @@
         <x:v>4258</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>779</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>237</x:v>
@@ -835,7 +835,7 @@
         <x:v>822</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>6327</x:v>
+        <x:v>6326</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>90</x:v>
@@ -951,7 +951,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>773</x:v>
+        <x:v>774</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>608</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>102</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>270</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1015</x:v>
+        <x:v>1016</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>845</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>958</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>56</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2032</x:v>
+        <x:v>2035</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>889</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>996</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>58</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2126</x:v>
+        <x:v>2129</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4065</x:v>
+        <x:v>4067</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2239</x:v>
+        <x:v>2240</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>122</x:v>
@@ -513,10 +513,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2344</x:v>
+        <x:v>2345</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>9241</x:v>
+        <x:v>9245</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>145</x:v>
@@ -545,7 +545,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>4405</x:v>
+        <x:v>4408</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2384</x:v>
+        <x:v>2385</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>130</x:v>
@@ -571,10 +571,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2496</x:v>
+        <x:v>2497</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>9911</x:v>
+        <x:v>9916</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>741</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>412</x:v>
@@ -690,7 +690,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1371</x:v>
+        <x:v>1373</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>986</x:v>
+        <x:v>988</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>698</x:v>
@@ -748,7 +748,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1979</x:v>
+        <x:v>1981</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>4209</x:v>
+        <x:v>4211</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>773</x:v>
@@ -774,10 +774,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>810</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>6254</x:v>
+        <x:v>6257</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>4258</x:v>
+        <x:v>4260</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>778</x:v>
@@ -832,10 +832,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>822</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>6326</x:v>
+        <x:v>6329</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>845</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>961</x:v>
+        <x:v>964</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>56</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2035</x:v>
+        <x:v>2038</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>889</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>999</x:v>
+        <x:v>1002</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>58</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2129</x:v>
+        <x:v>2132</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4067</x:v>
+        <x:v>4069</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>2240</x:v>
@@ -513,10 +513,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2345</x:v>
+        <x:v>2346</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>9245</x:v>
+        <x:v>9248</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,7 +556,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>4408</x:v>
+        <x:v>4410</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>2385</x:v>
@@ -571,10 +571,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2497</x:v>
+        <x:v>2498</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>9916</x:v>
+        <x:v>9919</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>743</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>412</x:v>
@@ -690,7 +690,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1373</x:v>
+        <x:v>1375</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>988</x:v>
+        <x:v>990</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>698</x:v>
@@ -748,7 +748,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1981</x:v>
+        <x:v>1983</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,13 +759,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>4211</x:v>
+        <x:v>4212</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>773</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>214</x:v>
@@ -774,10 +774,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>811</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>6257</x:v>
+        <x:v>6261</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,13 +817,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>4260</x:v>
+        <x:v>4261</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>778</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>219</x:v>
@@ -832,10 +832,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>823</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>6329</x:v>
+        <x:v>6333</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -846,7 +846,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>14</x:v>
@@ -864,7 +864,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -904,7 +904,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>14</x:v>
@@ -922,7 +922,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1020,7 +1020,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>845</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>964</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2038</x:v>
+        <x:v>2039</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,7 +1078,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>889</x:v>
+        <x:v>890</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1002</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2132</x:v>
+        <x:v>2133</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4069</x:v>
+        <x:v>4072</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2240</x:v>
+        <x:v>2242</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>122</x:v>
@@ -516,7 +516,7 @@
         <x:v>2346</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>9248</x:v>
+        <x:v>9253</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>341</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>145</x:v>
@@ -545,7 +545,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>671</x:v>
+        <x:v>675</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>4410</x:v>
+        <x:v>4417</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2385</x:v>
+        <x:v>2387</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>130</x:v>
@@ -574,7 +574,7 @@
         <x:v>2498</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>9919</x:v>
+        <x:v>9928</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -704,7 +704,7 @@
         <x:v>245</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>286</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>7</x:v>
@@ -719,7 +719,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>608</x:v>
+        <x:v>610</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -733,7 +733,7 @@
         <x:v>990</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>698</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>25</x:v>
@@ -748,7 +748,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1983</x:v>
+        <x:v>1985</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>4212</x:v>
+        <x:v>4215</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>774</x:v>
@@ -777,7 +777,7 @@
         <x:v>812</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>6261</x:v>
+        <x:v>6264</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,7 +788,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>5</x:v>
@@ -806,7 +806,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>4261</x:v>
+        <x:v>4263</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>779</x:v>
@@ -835,7 +835,7 @@
         <x:v>824</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>6333</x:v>
+        <x:v>6335</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,13 +498,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4072</x:v>
+        <x:v>4074</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>2242</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>458</x:v>
@@ -516,7 +516,7 @@
         <x:v>2346</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>9253</x:v>
+        <x:v>9254</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,13 +556,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>4417</x:v>
+        <x:v>4419</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>2387</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
         <x:v>483</x:v>
@@ -574,7 +574,7 @@
         <x:v>2498</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>9928</x:v>
+        <x:v>9929</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>4215</x:v>
+        <x:v>4216</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>774</x:v>
@@ -777,7 +777,7 @@
         <x:v>812</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>6264</x:v>
+        <x:v>6265</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>4263</x:v>
+        <x:v>4264</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>779</x:v>
@@ -835,7 +835,7 @@
         <x:v>824</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>6335</x:v>
+        <x:v>6336</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>90</x:v>
@@ -951,7 +951,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>774</x:v>
+        <x:v>775</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>609</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>102</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>270</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1016</x:v>
+        <x:v>1017</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4074</x:v>
+        <x:v>4075</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>2242</x:v>
@@ -513,10 +513,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2346</x:v>
+        <x:v>2350</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>9254</x:v>
+        <x:v>9259</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,7 +556,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>4419</x:v>
+        <x:v>4420</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>2387</x:v>
@@ -571,10 +571,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2498</x:v>
+        <x:v>2502</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>9929</x:v>
+        <x:v>9934</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -585,7 +585,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>25</x:v>
@@ -603,7 +603,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -643,7 +643,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>61</x:v>
@@ -661,7 +661,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -675,7 +675,7 @@
         <x:v>745</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>18</x:v>
@@ -690,7 +690,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1375</x:v>
+        <x:v>1376</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -733,7 +733,7 @@
         <x:v>990</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>25</x:v>
@@ -748,7 +748,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1985</x:v>
+        <x:v>1986</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -762,10 +762,10 @@
         <x:v>4216</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>774</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>214</x:v>
@@ -777,7 +777,7 @@
         <x:v>812</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>6265</x:v>
+        <x:v>6267</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -820,10 +820,10 @@
         <x:v>4264</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>779</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>219</x:v>
@@ -835,7 +835,7 @@
         <x:v>824</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>6336</x:v>
+        <x:v>6338</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>846</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>964</x:v>
+        <x:v>965</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>56</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2039</x:v>
+        <x:v>2040</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>890</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1002</x:v>
+        <x:v>1003</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>58</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2133</x:v>
+        <x:v>2134</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4075</x:v>
+        <x:v>4084</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2242</x:v>
+        <x:v>2245</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>121</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>458</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2350</x:v>
+        <x:v>2352</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>9259</x:v>
+        <x:v>9275</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,10 +527,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>345</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>8</x:v>
@@ -545,7 +545,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>675</x:v>
+        <x:v>678</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>4420</x:v>
+        <x:v>4431</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2387</x:v>
+        <x:v>2391</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>129</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>483</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2502</x:v>
+        <x:v>2504</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>9934</x:v>
+        <x:v>9953</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>745</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>18</x:v>
@@ -690,7 +690,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1376</x:v>
+        <x:v>1385</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,7 +701,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>245</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>288</x:v>
@@ -719,7 +719,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>610</x:v>
+        <x:v>621</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>990</x:v>
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>701</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>25</x:v>
@@ -748,7 +748,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>1986</x:v>
+        <x:v>2006</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>4216</x:v>
+        <x:v>4228</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>775</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>239</x:v>
@@ -774,10 +774,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>812</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>6267</x:v>
+        <x:v>6284</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -797,7 +797,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>1</x:v>
@@ -806,7 +806,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>4264</x:v>
+        <x:v>4276</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>780</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>239</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>824</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>6338</x:v>
+        <x:v>6356</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -846,7 +846,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>14</x:v>
@@ -864,7 +864,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -904,7 +904,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>14</x:v>
@@ -922,7 +922,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>90</x:v>
@@ -951,7 +951,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>775</x:v>
+        <x:v>776</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,7 +962,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>12</x:v>
@@ -980,7 +980,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>242</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>610</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>102</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>270</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1017</x:v>
+        <x:v>1021</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,7 +1020,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>846</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>965</x:v>
@@ -1029,7 +1029,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>1</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2040</x:v>
+        <x:v>2048</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1052,7 +1052,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>2</x:v>
@@ -1067,7 +1067,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,16 +1078,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>890</x:v>
+        <x:v>893</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1003</x:v>
+        <x:v>1004</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>58</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>1</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2134</x:v>
+        <x:v>2143</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4084</x:v>
+        <x:v>4908</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2245</x:v>
+        <x:v>2640</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2352</x:v>
+        <x:v>2808</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>9275</x:v>
+        <x:v>11059</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,25 +527,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>678</x:v>
+        <x:v>767</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>4431</x:v>
+        <x:v>5310</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2391</x:v>
+        <x:v>2807</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>485</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2504</x:v>
+        <x:v>2967</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>9953</x:v>
+        <x:v>11826</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -585,10 +585,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>1</x:v>
@@ -600,10 +600,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -614,16 +614,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>0</x:v>
@@ -632,7 +632,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -643,25 +643,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,25 +672,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>750</x:v>
+        <x:v>915</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>417</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1385</x:v>
+        <x:v>1708</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,25 +701,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>256</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>621</x:v>
+        <x:v>671</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,25 +730,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1006</x:v>
+        <x:v>1191</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>705</x:v>
+        <x:v>833</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2006</x:v>
+        <x:v>2379</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,25 +759,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>4228</x:v>
+        <x:v>5101</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>777</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>239</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>815</x:v>
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>6284</x:v>
+        <x:v>7616</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,25 +788,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>4276</x:v>
+        <x:v>5160</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>782</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>239</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>827</x:v>
+        <x:v>1028</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>6356</x:v>
+        <x:v>7711</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -846,10 +846,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>0</x:v>
@@ -864,7 +864,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -904,10 +904,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>0</x:v>
@@ -922,7 +922,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -933,25 +933,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>461</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>776</x:v>
+        <x:v>972</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,25 +962,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>245</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,25 +991,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>614</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>270</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1021</x:v>
+        <x:v>1272</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,25 +1020,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>849</x:v>
+        <x:v>978</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>965</x:v>
+        <x:v>1112</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2048</x:v>
+        <x:v>2375</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1049,10 +1049,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>2</x:v>
@@ -1064,10 +1064,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,25 +1078,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>893</x:v>
+        <x:v>1036</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1004</x:v>
+        <x:v>1153</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2143</x:v>
+        <x:v>2487</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4908</x:v>
+        <x:v>4917</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2640</x:v>
+        <x:v>2641</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>151</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>539</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2808</x:v>
+        <x:v>2810</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>11059</x:v>
+        <x:v>11072</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>402</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>167</x:v>
@@ -542,10 +542,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>770</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>5310</x:v>
+        <x:v>5321</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2807</x:v>
+        <x:v>2808</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>161</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>568</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2967</x:v>
+        <x:v>2970</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>11826</x:v>
+        <x:v>11842</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>915</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>521</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>21</x:v>
@@ -687,7 +687,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
         <x:v>1708</x:v>
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1191</x:v>
+        <x:v>1188</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>833</x:v>
+        <x:v>835</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>28</x:v>
@@ -745,7 +745,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
         <x:v>2379</x:v>
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>5101</x:v>
+        <x:v>5112</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>934</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>295</x:v>
@@ -774,10 +774,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1007</x:v>
+        <x:v>1008</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>7616</x:v>
+        <x:v>7629</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>5160</x:v>
+        <x:v>5171</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>940</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>295</x:v>
@@ -832,10 +832,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1028</x:v>
+        <x:v>1029</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>7711</x:v>
+        <x:v>7724</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>589</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>115</x:v>
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>239</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>972</x:v>
+        <x:v>976</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>778</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>132</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1272</x:v>
+        <x:v>1276</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,10 +1020,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>978</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1112</x:v>
+        <x:v>1115</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>65</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2375</x:v>
+        <x:v>2380</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1036</x:v>
+        <x:v>1038</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1153</x:v>
+        <x:v>1156</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>67</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2487</x:v>
+        <x:v>2492</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4917</x:v>
+        <x:v>4924</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>2641</x:v>
@@ -513,10 +513,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2810</x:v>
+        <x:v>2811</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>11072</x:v>
+        <x:v>11080</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,7 +556,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>5321</x:v>
+        <x:v>5328</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>2808</x:v>
@@ -571,10 +571,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2970</x:v>
+        <x:v>2971</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>11842</x:v>
+        <x:v>11850</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>912</x:v>
+        <x:v>914</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>523</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>21</x:v>
@@ -690,7 +690,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1708</x:v>
+        <x:v>1711</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1188</x:v>
+        <x:v>1190</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>835</x:v>
+        <x:v>836</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>28</x:v>
@@ -748,7 +748,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2379</x:v>
+        <x:v>2382</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,16 +759,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>5112</x:v>
+        <x:v>5116</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>935</x:v>
+        <x:v>936</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>295</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>16</x:v>
@@ -777,7 +777,7 @@
         <x:v>1008</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>7629</x:v>
+        <x:v>7635</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,16 +817,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>5171</x:v>
+        <x:v>5175</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>941</x:v>
+        <x:v>942</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>295</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>17</x:v>
@@ -835,7 +835,7 @@
         <x:v>1029</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>7724</x:v>
+        <x:v>7730</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,10 +933,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>591</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>13</x:v>
@@ -951,7 +951,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>976</x:v>
+        <x:v>983</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,7 +962,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>17</x:v>
@@ -980,7 +980,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>300</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,10 +991,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>780</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>15</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1276</x:v>
+        <x:v>1286</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,10 +1020,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>980</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1115</x:v>
+        <x:v>1117</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>65</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2380</x:v>
+        <x:v>2385</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1038</x:v>
+        <x:v>1041</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1156</x:v>
+        <x:v>1158</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>67</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2492</x:v>
+        <x:v>2497</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4924</x:v>
+        <x:v>4935</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2641</x:v>
+        <x:v>2644</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>151</x:v>
@@ -513,10 +513,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2811</x:v>
+        <x:v>2813</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>11080</x:v>
+        <x:v>11096</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>5328</x:v>
+        <x:v>5339</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2808</x:v>
+        <x:v>2811</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>161</x:v>
@@ -571,10 +571,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2971</x:v>
+        <x:v>2973</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>11850</x:v>
+        <x:v>11866</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -600,10 +600,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -629,10 +629,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -658,10 +658,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>914</x:v>
+        <x:v>916</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>21</x:v>
@@ -687,10 +687,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1711</x:v>
+        <x:v>1715</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -704,7 +704,7 @@
         <x:v>276</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>7</x:v>
@@ -719,7 +719,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>671</x:v>
+        <x:v>673</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1190</x:v>
+        <x:v>1192</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>836</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>28</x:v>
@@ -745,10 +745,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2382</x:v>
+        <x:v>2388</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>5116</x:v>
+        <x:v>5119</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>936</x:v>
@@ -774,10 +774,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1008</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>7635</x:v>
+        <x:v>7640</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>5175</x:v>
+        <x:v>5178</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>942</x:v>
@@ -832,10 +832,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1029</x:v>
+        <x:v>1031</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>7730</x:v>
+        <x:v>7735</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>597</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>116</x:v>
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>983</x:v>
+        <x:v>987</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>789</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>133</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1286</x:v>
+        <x:v>1290</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,10 +1020,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>983</x:v>
+        <x:v>984</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1117</x:v>
+        <x:v>1120</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>65</x:v>
@@ -1035,10 +1035,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2385</x:v>
+        <x:v>2391</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1041</x:v>
+        <x:v>1042</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1158</x:v>
+        <x:v>1161</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>67</x:v>
@@ -1093,10 +1093,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2497</x:v>
+        <x:v>2503</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4935</x:v>
+        <x:v>4940</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2644</x:v>
+        <x:v>2648</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>151</x:v>
@@ -516,7 +516,7 @@
         <x:v>2813</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>11096</x:v>
+        <x:v>11105</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -530,7 +530,7 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>10</x:v>
@@ -545,7 +545,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>770</x:v>
+        <x:v>769</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>5339</x:v>
+        <x:v>5344</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2811</x:v>
+        <x:v>2814</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>161</x:v>
@@ -574,7 +574,7 @@
         <x:v>2973</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>11866</x:v>
+        <x:v>11874</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -600,10 +600,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -614,10 +614,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>0</x:v>
@@ -632,7 +632,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -643,10 +643,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>1</x:v>
@@ -658,10 +658,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -701,7 +701,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>314</x:v>
@@ -719,7 +719,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1192</x:v>
+        <x:v>1193</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>839</x:v>
@@ -748,7 +748,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2388</x:v>
+        <x:v>2389</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>5119</x:v>
+        <x:v>5122</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>936</x:v>
@@ -777,7 +777,7 @@
         <x:v>1010</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>7640</x:v>
+        <x:v>7643</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>5178</x:v>
+        <x:v>5181</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>942</x:v>
@@ -835,7 +835,7 @@
         <x:v>1031</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>7735</x:v>
+        <x:v>7738</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1020,7 +1020,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>984</x:v>
+        <x:v>985</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>1120</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2391</x:v>
+        <x:v>2392</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,7 +1078,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1042</x:v>
+        <x:v>1043</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1161</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2503</x:v>
+        <x:v>2504</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,13 +498,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4940</x:v>
+        <x:v>4941</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2648</x:v>
+        <x:v>2653</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>540</x:v>
@@ -513,10 +513,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2813</x:v>
+        <x:v>2816</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>11105</x:v>
+        <x:v>11115</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,13 +556,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>5344</x:v>
+        <x:v>5345</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2814</x:v>
+        <x:v>2819</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
         <x:v>569</x:v>
@@ -571,10 +571,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2973</x:v>
+        <x:v>2976</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>11874</x:v>
+        <x:v>11884</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>916</x:v>
+        <x:v>919</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>21</x:v>
@@ -690,7 +690,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1715</x:v>
+        <x:v>1719</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -704,7 +704,7 @@
         <x:v>277</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>7</x:v>
@@ -719,7 +719,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>674</x:v>
+        <x:v>677</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1193</x:v>
+        <x:v>1196</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>839</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>28</x:v>
@@ -748,7 +748,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2389</x:v>
+        <x:v>2396</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>5122</x:v>
+        <x:v>5130</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>936</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>295</x:v>
@@ -777,7 +777,7 @@
         <x:v>1010</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>7643</x:v>
+        <x:v>7654</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>5181</x:v>
+        <x:v>5189</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>942</x:v>
+        <x:v>945</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>295</x:v>
@@ -835,7 +835,7 @@
         <x:v>1031</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>7738</x:v>
+        <x:v>7749</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>600</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>116</x:v>
@@ -951,7 +951,7 @@
         <x:v>242</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>987</x:v>
+        <x:v>988</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,7 +962,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>17</x:v>
@@ -977,10 +977,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>303</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>792</x:v>
+        <x:v>795</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>133</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1290</x:v>
+        <x:v>1294</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1049,7 +1049,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>41</x:v>
@@ -1067,7 +1067,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,7 +1078,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1043</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1161</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2504</x:v>
+        <x:v>2508</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4941</x:v>
+        <x:v>4954</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2653</x:v>
+        <x:v>2656</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>152</x:v>
@@ -513,10 +513,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2816</x:v>
+        <x:v>2817</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>11115</x:v>
+        <x:v>11132</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>5345</x:v>
+        <x:v>5358</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2819</x:v>
+        <x:v>2822</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>162</x:v>
@@ -571,10 +571,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2976</x:v>
+        <x:v>2977</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>11884</x:v>
+        <x:v>11901</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>919</x:v>
+        <x:v>921</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>21</x:v>
@@ -690,7 +690,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1719</x:v>
+        <x:v>1722</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1196</x:v>
+        <x:v>1198</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>843</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>28</x:v>
@@ -748,7 +748,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2396</x:v>
+        <x:v>2399</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,13 +759,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>5130</x:v>
+        <x:v>5133</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>939</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>264</x:v>
@@ -774,10 +774,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1010</x:v>
+        <x:v>1013</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>7654</x:v>
+        <x:v>7662</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,13 +817,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>5189</x:v>
+        <x:v>5192</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>945</x:v>
+        <x:v>946</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>272</x:v>
@@ -832,10 +832,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1031</x:v>
+        <x:v>1034</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>7749</x:v>
+        <x:v>7757</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -846,7 +846,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>16</x:v>
@@ -864,7 +864,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -904,7 +904,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>16</x:v>
@@ -922,7 +922,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1049,7 +1049,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>41</x:v>
@@ -1067,7 +1067,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,7 +1078,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1047</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1161</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2508</x:v>
+        <x:v>2510</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4954</x:v>
+        <x:v>4957</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2656</x:v>
+        <x:v>2659</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>152</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>540</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2817</x:v>
+        <x:v>2818</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>11132</x:v>
+        <x:v>11140</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>5358</x:v>
+        <x:v>5361</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2822</x:v>
+        <x:v>2825</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>162</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>569</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2977</x:v>
+        <x:v>2978</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>11901</x:v>
+        <x:v>11909</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>921</x:v>
+        <x:v>919</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>527</x:v>
@@ -681,7 +681,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>1</x:v>
@@ -690,7 +690,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1722</x:v>
+        <x:v>1719</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1198</x:v>
+        <x:v>1196</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>844</x:v>
@@ -739,7 +739,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>1</x:v>
@@ -748,7 +748,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2399</x:v>
+        <x:v>2396</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>5133</x:v>
+        <x:v>5139</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>940</x:v>
@@ -777,7 +777,7 @@
         <x:v>1013</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>7662</x:v>
+        <x:v>7668</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>5192</x:v>
+        <x:v>5198</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>946</x:v>
@@ -835,7 +835,7 @@
         <x:v>1034</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>7757</x:v>
+        <x:v>7763</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -849,7 +849,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>0</x:v>
@@ -864,7 +864,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -907,7 +907,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>0</x:v>
@@ -922,7 +922,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1023,10 +1023,10 @@
         <x:v>985</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1120</x:v>
+        <x:v>1121</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>120</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2392</x:v>
+        <x:v>2394</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1081,10 +1081,10 @@
         <x:v>1049</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1161</x:v>
+        <x:v>1162</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>120</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2510</x:v>
+        <x:v>2512</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4957</x:v>
+        <x:v>4958</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>2659</x:v>
@@ -516,7 +516,7 @@
         <x:v>2818</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>11140</x:v>
+        <x:v>11141</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,7 +556,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>5361</x:v>
+        <x:v>5362</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>2825</x:v>
@@ -574,7 +574,7 @@
         <x:v>2978</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>11909</x:v>
+        <x:v>11910</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -675,7 +675,7 @@
         <x:v>919</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>527</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>21</x:v>
@@ -690,7 +690,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1719</x:v>
+        <x:v>1718</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -733,7 +733,7 @@
         <x:v>1196</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>844</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>28</x:v>
@@ -748,7 +748,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2396</x:v>
+        <x:v>2395</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>5139</x:v>
+        <x:v>5143</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>940</x:v>
@@ -774,10 +774,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1013</x:v>
+        <x:v>1014</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>7668</x:v>
+        <x:v>7673</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>5198</x:v>
+        <x:v>5202</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>946</x:v>
@@ -832,10 +832,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1034</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>7763</x:v>
+        <x:v>7768</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4958</x:v>
+        <x:v>4961</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2659</x:v>
+        <x:v>2661</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>152</x:v>
@@ -513,10 +513,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2818</x:v>
+        <x:v>2819</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>11141</x:v>
+        <x:v>11147</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>5362</x:v>
+        <x:v>5365</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2825</x:v>
+        <x:v>2827</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>162</x:v>
@@ -571,10 +571,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2978</x:v>
+        <x:v>2979</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>11910</x:v>
+        <x:v>11916</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -588,7 +588,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>1</x:v>
@@ -603,7 +603,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -646,7 +646,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>1</x:v>
@@ -661,7 +661,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>919</x:v>
+        <x:v>920</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>21</x:v>
@@ -690,7 +690,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1718</x:v>
+        <x:v>1720</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,7 +701,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>317</x:v>
@@ -719,7 +719,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>677</x:v>
+        <x:v>679</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1196</x:v>
+        <x:v>1199</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>843</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>28</x:v>
@@ -748,7 +748,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2395</x:v>
+        <x:v>2399</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>5143</x:v>
+        <x:v>5149</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>940</x:v>
@@ -774,10 +774,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1014</x:v>
+        <x:v>1015</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>7673</x:v>
+        <x:v>7680</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>5202</x:v>
+        <x:v>5208</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>946</x:v>
@@ -832,10 +832,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1035</x:v>
+        <x:v>1036</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>7768</x:v>
+        <x:v>7775</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -849,7 +849,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>0</x:v>
@@ -864,7 +864,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -907,7 +907,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>0</x:v>
@@ -922,7 +922,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -962,7 +962,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>17</x:v>
@@ -980,7 +980,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>795</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>133</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>326</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1294</x:v>
+        <x:v>1295</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,7 +1020,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>985</x:v>
+        <x:v>987</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>1121</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2394</x:v>
+        <x:v>2396</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,7 +1078,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1049</x:v>
+        <x:v>1051</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1162</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2512</x:v>
+        <x:v>2514</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4961</x:v>
+        <x:v>4964</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2661</x:v>
+        <x:v>2664</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>152</x:v>
@@ -513,10 +513,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2819</x:v>
+        <x:v>2820</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>11147</x:v>
+        <x:v>11154</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>5365</x:v>
+        <x:v>5368</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2827</x:v>
+        <x:v>2830</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>162</x:v>
@@ -571,10 +571,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2979</x:v>
+        <x:v>2980</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>11916</x:v>
+        <x:v>11923</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>920</x:v>
+        <x:v>921</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>527</x:v>
@@ -690,7 +690,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1720</x:v>
+        <x:v>1721</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1199</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>844</x:v>
@@ -748,7 +748,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2399</x:v>
+        <x:v>2400</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,13 +759,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>5149</x:v>
+        <x:v>5154</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>940</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>264</x:v>
@@ -774,10 +774,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1015</x:v>
+        <x:v>1017</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>7680</x:v>
+        <x:v>7688</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,13 +817,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>5208</x:v>
+        <x:v>5213</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>946</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>272</x:v>
@@ -832,10 +832,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1036</x:v>
+        <x:v>1038</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>7775</x:v>
+        <x:v>7783</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>601</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>116</x:v>
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>242</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>988</x:v>
+        <x:v>992</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>796</x:v>
+        <x:v>798</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>133</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>326</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1295</x:v>
+        <x:v>1299</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,10 +1020,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>987</x:v>
+        <x:v>988</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1121</x:v>
+        <x:v>1123</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>66</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2396</x:v>
+        <x:v>2399</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1051</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1162</x:v>
+        <x:v>1164</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>68</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2514</x:v>
+        <x:v>2517</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4964</x:v>
+        <x:v>4962</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2664</x:v>
+        <x:v>2665</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>152</x:v>
@@ -513,10 +513,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2820</x:v>
+        <x:v>2822</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>11154</x:v>
+        <x:v>11155</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>5368</x:v>
+        <x:v>5366</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2830</x:v>
+        <x:v>2831</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>162</x:v>
@@ -571,10 +571,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2980</x:v>
+        <x:v>2982</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>11923</x:v>
+        <x:v>11924</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>5154</x:v>
+        <x:v>5156</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>940</x:v>
@@ -768,7 +768,7 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>16</x:v>
@@ -777,7 +777,7 @@
         <x:v>1017</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>7688</x:v>
+        <x:v>7689</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>5213</x:v>
+        <x:v>5215</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>946</x:v>
@@ -826,7 +826,7 @@
         <x:v>297</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>17</x:v>
@@ -835,7 +835,7 @@
         <x:v>1038</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>7783</x:v>
+        <x:v>7784</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4962</x:v>
+        <x:v>4968</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2665</x:v>
+        <x:v>2668</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>152</x:v>
@@ -513,10 +513,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2822</x:v>
+        <x:v>2823</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>11155</x:v>
+        <x:v>11165</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>5366</x:v>
+        <x:v>5372</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2831</x:v>
+        <x:v>2834</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>162</x:v>
@@ -571,10 +571,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2982</x:v>
+        <x:v>2983</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>11924</x:v>
+        <x:v>11934</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -585,7 +585,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>27</x:v>
@@ -603,7 +603,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -643,7 +643,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>75</x:v>
@@ -661,7 +661,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>921</x:v>
+        <x:v>927</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>21</x:v>
@@ -690,7 +690,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1721</x:v>
+        <x:v>1728</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1200</x:v>
+        <x:v>1206</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>844</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>28</x:v>
@@ -748,7 +748,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2400</x:v>
+        <x:v>2407</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>5156</x:v>
+        <x:v>5164</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>940</x:v>
@@ -774,10 +774,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1017</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>7689</x:v>
+        <x:v>7700</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>5215</x:v>
+        <x:v>5223</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>946</x:v>
@@ -832,10 +832,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1038</x:v>
+        <x:v>1041</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>7784</x:v>
+        <x:v>7795</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -846,7 +846,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>16</x:v>
@@ -864,7 +864,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -904,7 +904,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>16</x:v>
@@ -922,7 +922,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>992</x:v>
+        <x:v>993</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1299</x:v>
+        <x:v>1300</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4968</x:v>
+        <x:v>4976</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2668</x:v>
+        <x:v>2672</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2823</x:v>
+        <x:v>2824</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>11165</x:v>
+        <x:v>11181</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>5372</x:v>
+        <x:v>5380</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2834</x:v>
+        <x:v>2838</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>570</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2983</x:v>
+        <x:v>2984</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>11934</x:v>
+        <x:v>11950</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>927</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>528</x:v>
@@ -690,7 +690,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1728</x:v>
+        <x:v>1731</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,7 +701,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>317</x:v>
@@ -719,7 +719,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>679</x:v>
+        <x:v>680</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1206</x:v>
+        <x:v>1210</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>845</x:v>
@@ -748,7 +748,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2407</x:v>
+        <x:v>2411</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>5164</x:v>
+        <x:v>5167</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>940</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>297</x:v>
@@ -774,10 +774,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1020</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>7700</x:v>
+        <x:v>7707</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>5223</x:v>
+        <x:v>5226</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>946</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>297</x:v>
@@ -832,10 +832,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1041</x:v>
+        <x:v>1044</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>7795</x:v>
+        <x:v>7802</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>603</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>116</x:v>
@@ -951,7 +951,7 @@
         <x:v>245</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>993</x:v>
+        <x:v>995</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,7 +962,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>17</x:v>
@@ -980,7 +980,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>798</x:v>
+        <x:v>801</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>133</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>329</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1300</x:v>
+        <x:v>1303</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,16 +498,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4976</x:v>
+        <x:v>4980</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2672</x:v>
+        <x:v>2674</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>542</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>13</x:v>
@@ -516,7 +516,7 @@
         <x:v>2824</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>11181</x:v>
+        <x:v>11190</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>166</x:v>
@@ -545,7 +545,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>769</x:v>
+        <x:v>770</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,16 +556,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>5380</x:v>
+        <x:v>5385</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2838</x:v>
+        <x:v>2840</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>571</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>13</x:v>
@@ -574,7 +574,7 @@
         <x:v>2984</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>11950</x:v>
+        <x:v>11960</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -600,10 +600,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -658,10 +658,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,16 +672,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>930</x:v>
+        <x:v>938</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>1</x:v>
@@ -690,7 +690,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1731</x:v>
+        <x:v>1743</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,7 +701,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>317</x:v>
@@ -719,7 +719,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>680</x:v>
+        <x:v>681</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,16 +730,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1210</x:v>
+        <x:v>1219</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>845</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>28</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>1</x:v>
@@ -748,7 +748,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2411</x:v>
+        <x:v>2424</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,16 +759,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>5167</x:v>
+        <x:v>5173</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>941</x:v>
+        <x:v>942</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>297</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>16</x:v>
@@ -777,7 +777,7 @@
         <x:v>1023</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>7707</x:v>
+        <x:v>7715</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,16 +817,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>5226</x:v>
+        <x:v>5232</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>947</x:v>
+        <x:v>948</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>297</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>17</x:v>
@@ -835,7 +835,7 @@
         <x:v>1044</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>7802</x:v>
+        <x:v>7810</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>605</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>116</x:v>
@@ -942,7 +942,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>0</x:v>
@@ -951,7 +951,7 @@
         <x:v>245</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>995</x:v>
+        <x:v>1000</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,16 +962,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
@@ -980,7 +980,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,16 +991,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>801</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>15</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>0</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>329</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1303</x:v>
+        <x:v>1321</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,7 +1020,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>988</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>1123</x:v>
@@ -1029,7 +1029,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>1</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2399</x:v>
+        <x:v>2401</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,7 +1078,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1052</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1164</x:v>
@@ -1087,7 +1087,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>1</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2517</x:v>
+        <x:v>2519</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>4980</x:v>
+        <x:v>5990</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>2674</x:v>
+        <x:v>3170</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>544</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>2824</x:v>
+        <x:v>3357</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>11190</x:v>
+        <x:v>13358</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,25 +527,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>405</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>770</x:v>
+        <x:v>864</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>5385</x:v>
+        <x:v>6439</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>2840</x:v>
+        <x:v>3369</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>573</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>2984</x:v>
+        <x:v>3527</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>11960</x:v>
+        <x:v>14222</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -585,13 +585,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
         <x:v>1</x:v>
@@ -600,10 +600,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -614,13 +614,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>2</x:v>
@@ -629,10 +629,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -643,13 +643,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>3</x:v>
@@ -658,10 +658,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,25 +672,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>938</x:v>
+        <x:v>1148</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>529</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>1743</x:v>
+        <x:v>2122</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,25 +701,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>281</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>681</x:v>
+        <x:v>724</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,25 +730,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1219</x:v>
+        <x:v>1442</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>846</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2424</x:v>
+        <x:v>2846</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,25 +759,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>5173</x:v>
+        <x:v>6042</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>942</x:v>
+        <x:v>1110</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>297</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1023</x:v>
+        <x:v>1230</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>7715</x:v>
+        <x:v>9064</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,10 +788,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>0</x:v>
@@ -803,10 +803,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>5232</x:v>
+        <x:v>6115</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>948</x:v>
+        <x:v>1117</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>297</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1044</x:v>
+        <x:v>1257</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>7810</x:v>
+        <x:v>9180</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -846,25 +846,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -904,25 +904,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -933,25 +933,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>609</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>245</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1000</x:v>
+        <x:v>1303</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,25 +962,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,25 +991,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>810</x:v>
+        <x:v>1054</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>329</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1321</x:v>
+        <x:v>1697</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,25 +1020,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>989</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1123</x:v>
+        <x:v>1262</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2401</x:v>
+        <x:v>2748</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1049,13 +1049,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
         <x:v>0</x:v>
@@ -1064,10 +1064,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,25 +1078,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1053</x:v>
+        <x:v>1235</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1164</x:v>
+        <x:v>1316</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2519</x:v>
+        <x:v>2907</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>5990</x:v>
+        <x:v>5991</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3170</x:v>
+        <x:v>3171</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>197</x:v>
@@ -516,7 +516,7 @@
         <x:v>3357</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>13358</x:v>
+        <x:v>13360</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>6439</x:v>
+        <x:v>6440</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3369</x:v>
+        <x:v>3370</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>207</x:v>
@@ -574,7 +574,7 @@
         <x:v>3527</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>14222</x:v>
+        <x:v>14224</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1148</x:v>
+        <x:v>1149</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>644</x:v>
@@ -690,7 +690,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2122</x:v>
+        <x:v>2123</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1442</x:v>
+        <x:v>1443</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>980</x:v>
@@ -748,7 +748,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2846</x:v>
+        <x:v>2847</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6042</x:v>
+        <x:v>6046</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>1110</x:v>
@@ -774,10 +774,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1230</x:v>
+        <x:v>1232</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>9064</x:v>
+        <x:v>9070</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>6115</x:v>
+        <x:v>6119</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1117</x:v>
@@ -832,10 +832,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1257</x:v>
+        <x:v>1259</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>9180</x:v>
+        <x:v>9186</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>1152</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1262</x:v>
+        <x:v>1265</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>69</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2748</x:v>
+        <x:v>2751</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>1235</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1316</x:v>
+        <x:v>1319</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>72</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2907</x:v>
+        <x:v>2910</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>5991</x:v>
+        <x:v>5997</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3171</x:v>
+        <x:v>3174</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>197</x:v>
@@ -513,10 +513,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3357</x:v>
+        <x:v>3359</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>13360</x:v>
+        <x:v>13371</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>6440</x:v>
+        <x:v>6446</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3370</x:v>
+        <x:v>3373</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>207</x:v>
@@ -571,10 +571,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3527</x:v>
+        <x:v>3529</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>14224</x:v>
+        <x:v>14235</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6046</x:v>
+        <x:v>6052</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1110</x:v>
+        <x:v>1111</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>355</x:v>
@@ -771,13 +771,13 @@
         <x:v>310</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1232</x:v>
+        <x:v>1233</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>9070</x:v>
+        <x:v>9077</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>6119</x:v>
+        <x:v>6125</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1117</x:v>
+        <x:v>1118</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>355</x:v>
@@ -829,13 +829,13 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1259</x:v>
+        <x:v>1260</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>9186</x:v>
+        <x:v>9193</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>802</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>143</x:v>
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1303</x:v>
+        <x:v>1306</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1054</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>171</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1697</x:v>
+        <x:v>1700</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>1152</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1265</x:v>
+        <x:v>1266</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>69</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2751</x:v>
+        <x:v>2752</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>1235</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1319</x:v>
+        <x:v>1320</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>72</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2910</x:v>
+        <x:v>2911</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,13 +498,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>5997</x:v>
+        <x:v>6008</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3174</x:v>
+        <x:v>3179</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>630</x:v>
@@ -513,10 +513,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3359</x:v>
+        <x:v>3361</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>13371</x:v>
+        <x:v>13390</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,13 +556,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>6446</x:v>
+        <x:v>6457</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3373</x:v>
+        <x:v>3378</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
         <x:v>666</x:v>
@@ -571,10 +571,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3529</x:v>
+        <x:v>3531</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>14235</x:v>
+        <x:v>14254</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1149</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>644</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>26</x:v>
@@ -687,10 +687,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2123</x:v>
+        <x:v>2128</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -704,7 +704,7 @@
         <x:v>294</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>336</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>10</x:v>
@@ -719,7 +719,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>724</x:v>
+        <x:v>727</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1443</x:v>
+        <x:v>1444</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>980</x:v>
+        <x:v>986</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>36</x:v>
@@ -745,10 +745,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2847</x:v>
+        <x:v>2855</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6052</x:v>
+        <x:v>6060</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>1111</x:v>
@@ -774,10 +774,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1233</x:v>
+        <x:v>1234</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>9077</x:v>
+        <x:v>9086</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>6125</x:v>
+        <x:v>6133</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1118</x:v>
@@ -832,10 +832,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1260</x:v>
+        <x:v>1261</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>9193</x:v>
+        <x:v>9202</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>803</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>143</x:v>
@@ -951,7 +951,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1306</x:v>
+        <x:v>1311</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1055</x:v>
+        <x:v>1060</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>171</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1700</x:v>
+        <x:v>1705</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,13 +1020,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1152</x:v>
+        <x:v>1154</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1266</x:v>
+        <x:v>1269</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>135</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2752</x:v>
+        <x:v>2758</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,13 +1078,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1235</x:v>
+        <x:v>1237</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1320</x:v>
+        <x:v>1323</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>135</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2911</x:v>
+        <x:v>2917</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6008</x:v>
+        <x:v>6012</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3179</x:v>
+        <x:v>3178</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>198</x:v>
@@ -513,10 +513,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3361</x:v>
+        <x:v>3366</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>13390</x:v>
+        <x:v>13398</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>6457</x:v>
+        <x:v>6461</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3378</x:v>
+        <x:v>3377</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>208</x:v>
@@ -571,10 +571,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3531</x:v>
+        <x:v>3536</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>14254</x:v>
+        <x:v>14262</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1150</x:v>
+        <x:v>1151</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>26</x:v>
@@ -687,10 +687,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2128</x:v>
+        <x:v>2131</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,7 +701,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>339</x:v>
@@ -716,10 +716,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>727</x:v>
+        <x:v>729</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1444</x:v>
+        <x:v>1446</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>986</x:v>
+        <x:v>987</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>36</x:v>
@@ -745,10 +745,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2855</x:v>
+        <x:v>2860</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,13 +759,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6060</x:v>
+        <x:v>6064</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>1111</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>310</x:v>
@@ -774,10 +774,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1234</x:v>
+        <x:v>1235</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>9086</x:v>
+        <x:v>9093</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,13 +817,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>6133</x:v>
+        <x:v>6137</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1118</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>318</x:v>
@@ -832,10 +832,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1261</x:v>
+        <x:v>1262</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>9202</x:v>
+        <x:v>9209</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>808</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>143</x:v>
@@ -951,7 +951,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1311</x:v>
+        <x:v>1314</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1060</x:v>
+        <x:v>1063</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>171</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1705</x:v>
+        <x:v>1708</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>1154</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1269</x:v>
+        <x:v>1270</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>70</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2758</x:v>
+        <x:v>2759</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>1237</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1323</x:v>
+        <x:v>1324</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>73</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2917</x:v>
+        <x:v>2918</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6012</x:v>
+        <x:v>6020</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3178</x:v>
+        <x:v>3181</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>198</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3366</x:v>
+        <x:v>3367</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>13398</x:v>
+        <x:v>13411</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>6461</x:v>
+        <x:v>6469</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3377</x:v>
+        <x:v>3380</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>208</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3536</x:v>
+        <x:v>3537</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>14262</x:v>
+        <x:v>14275</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1151</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>648</x:v>
@@ -690,7 +690,7 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2131</x:v>
+        <x:v>2132</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -704,7 +704,7 @@
         <x:v>295</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>10</x:v>
@@ -719,7 +719,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>729</x:v>
+        <x:v>730</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1446</x:v>
+        <x:v>1447</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>987</x:v>
+        <x:v>988</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>36</x:v>
@@ -748,7 +748,7 @@
         <x:v>290</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2860</x:v>
+        <x:v>2862</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,13 +759,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6064</x:v>
+        <x:v>6073</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1111</x:v>
+        <x:v>1113</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>310</x:v>
@@ -777,7 +777,7 @@
         <x:v>1235</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>9093</x:v>
+        <x:v>9103</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,13 +817,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>6137</x:v>
+        <x:v>6146</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1118</x:v>
+        <x:v>1120</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>318</x:v>
@@ -835,7 +835,7 @@
         <x:v>1262</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>9209</x:v>
+        <x:v>9219</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>811</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>143</x:v>
@@ -951,7 +951,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1314</x:v>
+        <x:v>1316</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1063</x:v>
+        <x:v>1065</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>171</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1708</x:v>
+        <x:v>1710</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,10 +1020,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1154</x:v>
+        <x:v>1156</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1270</x:v>
+        <x:v>1272</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>70</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2759</x:v>
+        <x:v>2763</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1237</x:v>
+        <x:v>1239</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1324</x:v>
+        <x:v>1326</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>73</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2918</x:v>
+        <x:v>2922</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6020</x:v>
+        <x:v>6029</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3181</x:v>
+        <x:v>3183</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>198</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3367</x:v>
+        <x:v>3368</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>13411</x:v>
+        <x:v>13424</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>6469</x:v>
+        <x:v>6478</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3380</x:v>
+        <x:v>3382</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>208</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3537</x:v>
+        <x:v>3538</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>14275</x:v>
+        <x:v>14288</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -600,10 +600,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -658,10 +658,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1152</x:v>
+        <x:v>1150</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>648</x:v>
@@ -690,7 +690,7 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2132</x:v>
+        <x:v>2130</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,7 +701,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>340</x:v>
@@ -719,7 +719,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>730</x:v>
+        <x:v>731</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1447</x:v>
+        <x:v>1446</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>988</x:v>
@@ -748,7 +748,7 @@
         <x:v>290</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2862</x:v>
+        <x:v>2861</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6073</x:v>
+        <x:v>6078</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>1113</x:v>
@@ -774,10 +774,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1235</x:v>
+        <x:v>1234</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>9103</x:v>
+        <x:v>9107</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>6146</x:v>
+        <x:v>6151</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1120</x:v>
@@ -832,10 +832,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1262</x:v>
+        <x:v>1261</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>9219</x:v>
+        <x:v>9223</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -849,7 +849,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>2</x:v>
@@ -864,7 +864,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -907,7 +907,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>2</x:v>
@@ -922,7 +922,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>813</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>143</x:v>
@@ -951,7 +951,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1316</x:v>
+        <x:v>1318</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1065</x:v>
+        <x:v>1067</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>171</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1710</x:v>
+        <x:v>1712</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,7 +1020,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1156</x:v>
+        <x:v>1157</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>1272</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2763</x:v>
+        <x:v>2764</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,7 +1078,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1239</x:v>
+        <x:v>1240</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1326</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2922</x:v>
+        <x:v>2923</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6029</x:v>
+        <x:v>6037</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3183</x:v>
+        <x:v>3184</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>198</x:v>
@@ -513,10 +513,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3368</x:v>
+        <x:v>3369</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>13424</x:v>
+        <x:v>13434</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,10 +527,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>449</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>10</x:v>
@@ -545,7 +545,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>864</x:v>
+        <x:v>867</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>6478</x:v>
+        <x:v>6488</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3382</x:v>
+        <x:v>3384</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>208</x:v>
@@ -571,10 +571,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3538</x:v>
+        <x:v>3539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>14288</x:v>
+        <x:v>14301</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1150</x:v>
+        <x:v>1151</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>26</x:v>
@@ -690,7 +690,7 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2130</x:v>
+        <x:v>2132</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1446</x:v>
+        <x:v>1447</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>988</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>36</x:v>
@@ -748,7 +748,7 @@
         <x:v>290</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2861</x:v>
+        <x:v>2863</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6078</x:v>
+        <x:v>6086</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1113</x:v>
+        <x:v>1114</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>356</x:v>
@@ -777,7 +777,7 @@
         <x:v>1234</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>9107</x:v>
+        <x:v>9116</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>6151</x:v>
+        <x:v>6159</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1120</x:v>
+        <x:v>1121</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>356</x:v>
@@ -835,7 +835,7 @@
         <x:v>1261</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>9223</x:v>
+        <x:v>9232</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>815</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>143</x:v>
@@ -951,7 +951,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1318</x:v>
+        <x:v>1321</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1067</x:v>
+        <x:v>1070</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>171</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1712</x:v>
+        <x:v>1715</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6037</x:v>
+        <x:v>6044</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3184</x:v>
+        <x:v>3186</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>198</x:v>
@@ -516,7 +516,7 @@
         <x:v>3369</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>13434</x:v>
+        <x:v>13443</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>6488</x:v>
+        <x:v>6495</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3384</x:v>
+        <x:v>3386</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>208</x:v>
@@ -574,7 +574,7 @@
         <x:v>3539</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>14301</x:v>
+        <x:v>14310</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1151</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>649</x:v>
@@ -690,7 +690,7 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2132</x:v>
+        <x:v>2133</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -710,7 +710,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>0</x:v>
@@ -719,7 +719,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>731</x:v>
+        <x:v>732</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1447</x:v>
+        <x:v>1448</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>989</x:v>
@@ -739,7 +739,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>1</x:v>
@@ -748,7 +748,7 @@
         <x:v>290</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2863</x:v>
+        <x:v>2865</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6086</x:v>
+        <x:v>6088</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>1114</x:v>
@@ -777,7 +777,7 @@
         <x:v>1234</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>9116</x:v>
+        <x:v>9118</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>6159</x:v>
+        <x:v>6161</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1121</x:v>
@@ -835,7 +835,7 @@
         <x:v>1261</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>9232</x:v>
+        <x:v>9234</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1321</x:v>
+        <x:v>1323</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1715</x:v>
+        <x:v>1717</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6044</x:v>
+        <x:v>6047</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>3186</x:v>
@@ -507,16 +507,16 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>632</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3369</x:v>
+        <x:v>3368</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>13443</x:v>
+        <x:v>13448</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>200</x:v>
@@ -545,7 +545,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>867</x:v>
+        <x:v>868</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,7 +556,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>6495</x:v>
+        <x:v>6499</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>3386</x:v>
@@ -565,16 +565,16 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>668</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3539</x:v>
+        <x:v>3538</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>14310</x:v>
+        <x:v>14316</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -759,25 +759,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6088</x:v>
+        <x:v>6094</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1114</x:v>
+        <x:v>1113</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>356</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1234</x:v>
+        <x:v>1235</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>9118</x:v>
+        <x:v>9125</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>6161</x:v>
+        <x:v>6167</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1121</x:v>
+        <x:v>1120</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>356</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1261</x:v>
+        <x:v>1262</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>9234</x:v>
+        <x:v>9241</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -846,7 +846,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>21</x:v>
@@ -864,7 +864,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -904,7 +904,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>21</x:v>
@@ -922,7 +922,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>1157</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1272</x:v>
+        <x:v>1274</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>70</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2764</x:v>
+        <x:v>2766</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>1240</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1326</x:v>
+        <x:v>1328</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>73</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2923</x:v>
+        <x:v>2925</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6047</x:v>
+        <x:v>6051</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3186</x:v>
+        <x:v>3188</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>198</x:v>
@@ -513,10 +513,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3368</x:v>
+        <x:v>3370</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>13448</x:v>
+        <x:v>13456</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>6499</x:v>
+        <x:v>6503</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3386</x:v>
+        <x:v>3388</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>208</x:v>
@@ -571,10 +571,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3538</x:v>
+        <x:v>3540</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>14316</x:v>
+        <x:v>14324</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6094</x:v>
+        <x:v>6103</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1113</x:v>
+        <x:v>1114</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>356</x:v>
@@ -777,7 +777,7 @@
         <x:v>1235</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>9125</x:v>
+        <x:v>9135</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>6167</x:v>
+        <x:v>6176</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1120</x:v>
+        <x:v>1121</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>356</x:v>
@@ -835,7 +835,7 @@
         <x:v>1262</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>9241</x:v>
+        <x:v>9251</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -852,7 +852,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>4</x:v>
@@ -864,7 +864,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -910,7 +910,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>4</x:v>
@@ -922,7 +922,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -933,10 +933,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>818</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>20</x:v>
@@ -951,7 +951,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1323</x:v>
+        <x:v>1325</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,10 +991,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1070</x:v>
+        <x:v>1071</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>23</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>415</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1717</x:v>
+        <x:v>1719</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>1157</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1274</x:v>
+        <x:v>1276</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>70</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2766</x:v>
+        <x:v>2768</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1052,7 +1052,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>3</x:v>
@@ -1067,7 +1067,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>1240</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1328</x:v>
+        <x:v>1331</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>73</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2925</x:v>
+        <x:v>2928</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6051</x:v>
+        <x:v>6058</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3188</x:v>
+        <x:v>3191</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>198</x:v>
@@ -513,10 +513,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3370</x:v>
+        <x:v>3371</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>13456</x:v>
+        <x:v>13467</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>6503</x:v>
+        <x:v>6510</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3388</x:v>
+        <x:v>3391</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>208</x:v>
@@ -571,10 +571,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3540</x:v>
+        <x:v>3541</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>14324</x:v>
+        <x:v>14335</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -600,10 +600,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -658,10 +658,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,16 +672,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1152</x:v>
+        <x:v>1158</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>649</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>26</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>1</x:v>
@@ -690,7 +690,7 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2133</x:v>
+        <x:v>2143</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,16 +730,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1448</x:v>
+        <x:v>1454</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>989</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>1</x:v>
@@ -748,7 +748,7 @@
         <x:v>290</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2865</x:v>
+        <x:v>2875</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,25 +759,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6103</x:v>
+        <x:v>6106</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1114</x:v>
+        <x:v>1113</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>356</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1235</x:v>
+        <x:v>1236</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>9135</x:v>
+        <x:v>9141</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,7 +788,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>7</x:v>
@@ -806,7 +806,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>6176</x:v>
+        <x:v>6180</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1121</x:v>
+        <x:v>1120</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>356</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1262</x:v>
+        <x:v>1263</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>9251</x:v>
+        <x:v>9258</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>819</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>144</x:v>
@@ -951,7 +951,7 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1325</x:v>
+        <x:v>1326</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1071</x:v>
+        <x:v>1072</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>172</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>415</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1719</x:v>
+        <x:v>1720</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,7 +1020,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1157</x:v>
+        <x:v>1159</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>1276</x:v>
@@ -1029,7 +1029,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>1</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2768</x:v>
+        <x:v>2771</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,7 +1078,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1240</x:v>
+        <x:v>1242</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1331</x:v>
@@ -1087,7 +1087,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>1</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2928</x:v>
+        <x:v>2931</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6058</x:v>
+        <x:v>6922</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3191</x:v>
+        <x:v>3612</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>635</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3371</x:v>
+        <x:v>3728</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>13467</x:v>
+        <x:v>15242</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,25 +527,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>452</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>868</x:v>
+        <x:v>965</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>6510</x:v>
+        <x:v>7413</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3391</x:v>
+        <x:v>3855</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>671</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3541</x:v>
+        <x:v>3907</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>14335</x:v>
+        <x:v>16207</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -585,10 +585,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>2</x:v>
@@ -600,10 +600,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -614,10 +614,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>3</x:v>
@@ -629,10 +629,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -643,10 +643,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>5</x:v>
@@ -658,10 +658,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>269</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,25 +672,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1158</x:v>
+        <x:v>1378</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>652</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2143</x:v>
+        <x:v>2510</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,25 +701,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>732</x:v>
+        <x:v>777</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,25 +730,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1454</x:v>
+        <x:v>1692</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>992</x:v>
+        <x:v>1085</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>290</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>2875</x:v>
+        <x:v>3287</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,25 +759,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6106</x:v>
+        <x:v>6906</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1113</x:v>
+        <x:v>1273</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1236</x:v>
+        <x:v>1433</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>9141</x:v>
+        <x:v>10405</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,25 +788,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>6180</x:v>
+        <x:v>6992</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1120</x:v>
+        <x:v>1280</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1263</x:v>
+        <x:v>1466</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>9258</x:v>
+        <x:v>10542</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -846,16 +846,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>0</x:v>
@@ -864,7 +864,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -904,16 +904,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>0</x:v>
@@ -922,7 +922,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -933,25 +933,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>820</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1326</x:v>
+        <x:v>1588</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,25 +962,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>394</x:v>
+        <x:v>489</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,25 +991,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1072</x:v>
+        <x:v>1300</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1720</x:v>
+        <x:v>2077</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,25 +1020,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1159</x:v>
+        <x:v>1345</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1276</x:v>
+        <x:v>1418</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2771</x:v>
+        <x:v>3160</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1049,16 +1049,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>0</x:v>
@@ -1067,7 +1067,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,25 +1078,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1242</x:v>
+        <x:v>1444</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1331</x:v>
+        <x:v>1497</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2931</x:v>
+        <x:v>3362</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6922</x:v>
+        <x:v>6937</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3612</x:v>
+        <x:v>3619</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>226</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>738</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3728</x:v>
+        <x:v>3735</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>15242</x:v>
+        <x:v>15273</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -542,10 +542,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>965</x:v>
+        <x:v>967</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>7413</x:v>
+        <x:v>7428</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3855</x:v>
+        <x:v>3862</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>237</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>779</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3907</x:v>
+        <x:v>3916</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>16207</x:v>
+        <x:v>16240</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1378</x:v>
+        <x:v>1381</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>731</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>31</x:v>
@@ -687,10 +687,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2510</x:v>
+        <x:v>2517</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,10 +701,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>12</x:v>
@@ -716,10 +716,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>777</x:v>
+        <x:v>780</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1692</x:v>
+        <x:v>1696</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1085</x:v>
+        <x:v>1089</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>43</x:v>
@@ -745,10 +745,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>339</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3287</x:v>
+        <x:v>3297</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,25 +759,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6906</x:v>
+        <x:v>6923</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1273</x:v>
+        <x:v>1275</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1433</x:v>
+        <x:v>1441</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>10405</x:v>
+        <x:v>10437</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -803,10 +803,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>6992</x:v>
+        <x:v>7009</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1280</x:v>
+        <x:v>1282</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1466</x:v>
+        <x:v>1475</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>10542</x:v>
+        <x:v>10575</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>980</x:v>
+        <x:v>982</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>173</x:v>
@@ -951,7 +951,7 @@
         <x:v>382</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1588</x:v>
+        <x:v>1590</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -977,10 +977,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1300</x:v>
+        <x:v>1302</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>202</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2077</x:v>
+        <x:v>2080</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,10 +1020,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1345</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1418</x:v>
+        <x:v>1422</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>87</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3160</x:v>
+        <x:v>3169</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1444</x:v>
+        <x:v>1449</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1497</x:v>
+        <x:v>1501</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>91</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3362</x:v>
+        <x:v>3371</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6937</x:v>
+        <x:v>6961</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3619</x:v>
+        <x:v>3631</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>740</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3735</x:v>
+        <x:v>3744</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>15273</x:v>
+        <x:v>15320</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,10 +527,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>243</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>11</x:v>
@@ -542,10 +542,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>967</x:v>
+        <x:v>971</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>7428</x:v>
+        <x:v>7453</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3862</x:v>
+        <x:v>3876</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>781</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3916</x:v>
+        <x:v>3926</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>16240</x:v>
+        <x:v>16291</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -600,10 +600,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -658,10 +658,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1381</x:v>
+        <x:v>1386</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>734</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>31</x:v>
@@ -687,10 +687,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2517</x:v>
+        <x:v>2527</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -716,10 +716,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>780</x:v>
+        <x:v>782</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1696</x:v>
+        <x:v>1701</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1089</x:v>
+        <x:v>1091</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>43</x:v>
@@ -745,10 +745,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>341</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3297</x:v>
+        <x:v>3309</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,25 +759,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6923</x:v>
+        <x:v>6977</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1275</x:v>
+        <x:v>1283</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>413</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1441</x:v>
+        <x:v>1465</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>10437</x:v>
+        <x:v>10524</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7009</x:v>
+        <x:v>7063</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1282</x:v>
+        <x:v>1290</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>414</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1475</x:v>
+        <x:v>1499</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>10575</x:v>
+        <x:v>10662</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,10 +933,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>982</x:v>
+        <x:v>988</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>24</x:v>
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>382</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1590</x:v>
+        <x:v>1601</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -965,7 +965,7 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>6</x:v>
@@ -977,10 +977,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>490</x:v>
+        <x:v>499</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,10 +991,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1302</x:v>
+        <x:v>1308</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>30</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>500</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2080</x:v>
+        <x:v>2100</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,16 +1020,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1350</x:v>
+        <x:v>1351</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1422</x:v>
+        <x:v>1428</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>87</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>2</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3169</x:v>
+        <x:v>3178</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,16 +1078,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1449</x:v>
+        <x:v>1450</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1501</x:v>
+        <x:v>1507</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>91</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>2</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3371</x:v>
+        <x:v>3380</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6961</x:v>
+        <x:v>6963</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>3631</x:v>
@@ -516,7 +516,7 @@
         <x:v>3744</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>15320</x:v>
+        <x:v>15322</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -530,7 +530,7 @@
         <x:v>492</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>245</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>11</x:v>
@@ -545,7 +545,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>971</x:v>
+        <x:v>973</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>7453</x:v>
+        <x:v>7455</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3876</x:v>
+        <x:v>3878</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>238</x:v>
@@ -574,7 +574,7 @@
         <x:v>3926</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>16291</x:v>
+        <x:v>16295</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -600,10 +600,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -658,10 +658,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,16 +672,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1386</x:v>
+        <x:v>1388</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>736</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>31</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>6</x:v>
@@ -690,7 +690,7 @@
         <x:v>266</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2527</x:v>
+        <x:v>2534</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,16 +730,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1701</x:v>
+        <x:v>1703</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1091</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>43</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>6</x:v>
@@ -748,7 +748,7 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3309</x:v>
+        <x:v>3316</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6977</x:v>
+        <x:v>6979</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>1283</x:v>
@@ -774,10 +774,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1465</x:v>
+        <x:v>1467</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>10524</x:v>
+        <x:v>10528</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7063</x:v>
+        <x:v>7065</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1290</x:v>
@@ -832,10 +832,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1499</x:v>
+        <x:v>1501</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>10662</x:v>
+        <x:v>10666</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -846,7 +846,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>23</x:v>
@@ -864,7 +864,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -904,7 +904,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>23</x:v>
@@ -922,7 +922,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>1351</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1428</x:v>
+        <x:v>1434</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>87</x:v>
@@ -1035,10 +1035,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3178</x:v>
+        <x:v>3183</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>1450</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1507</x:v>
+        <x:v>1513</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>91</x:v>
@@ -1093,10 +1093,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3380</x:v>
+        <x:v>3385</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6963</x:v>
+        <x:v>6972</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3631</x:v>
+        <x:v>3637</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>227</x:v>
@@ -513,10 +513,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3744</x:v>
+        <x:v>3745</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>15322</x:v>
+        <x:v>15338</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>7455</x:v>
+        <x:v>7464</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3878</x:v>
+        <x:v>3884</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>238</x:v>
@@ -571,10 +571,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3926</x:v>
+        <x:v>3927</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>16295</x:v>
+        <x:v>16311</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1388</x:v>
+        <x:v>1390</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>740</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>31</x:v>
@@ -690,7 +690,7 @@
         <x:v>266</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2534</x:v>
+        <x:v>2537</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -704,7 +704,7 @@
         <x:v>315</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>12</x:v>
@@ -719,7 +719,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>782</x:v>
+        <x:v>783</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1703</x:v>
+        <x:v>1705</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1095</x:v>
+        <x:v>1097</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>43</x:v>
@@ -748,7 +748,7 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3316</x:v>
+        <x:v>3320</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6979</x:v>
+        <x:v>6987</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1283</x:v>
+        <x:v>1286</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>413</x:v>
@@ -774,10 +774,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1467</x:v>
+        <x:v>1471</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>10528</x:v>
+        <x:v>10543</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7065</x:v>
+        <x:v>7073</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1290</x:v>
+        <x:v>1293</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>414</x:v>
@@ -832,10 +832,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1501</x:v>
+        <x:v>1505</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>10666</x:v>
+        <x:v>10681</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>988</x:v>
+        <x:v>989</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>175</x:v>
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1601</x:v>
+        <x:v>1603</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,7 +962,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>30</x:v>
@@ -980,7 +980,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1308</x:v>
+        <x:v>1310</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>205</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2100</x:v>
+        <x:v>2103</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,10 +1020,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1351</x:v>
+        <x:v>1354</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1434</x:v>
+        <x:v>1437</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>87</x:v>
@@ -1035,10 +1035,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3183</x:v>
+        <x:v>3193</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1450</x:v>
+        <x:v>1453</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1513</x:v>
+        <x:v>1516</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>91</x:v>
@@ -1093,10 +1093,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3385</x:v>
+        <x:v>3395</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6972</x:v>
+        <x:v>6979</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3637</x:v>
+        <x:v>3638</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>227</x:v>
@@ -513,10 +513,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3745</x:v>
+        <x:v>3746</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>15338</x:v>
+        <x:v>15347</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>7464</x:v>
+        <x:v>7471</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3884</x:v>
+        <x:v>3885</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>238</x:v>
@@ -571,10 +571,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3927</x:v>
+        <x:v>3928</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>16311</x:v>
+        <x:v>16320</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1390</x:v>
+        <x:v>1392</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>741</x:v>
@@ -690,7 +690,7 @@
         <x:v>266</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2537</x:v>
+        <x:v>2539</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1705</x:v>
+        <x:v>1707</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>1097</x:v>
@@ -748,7 +748,7 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3320</x:v>
+        <x:v>3322</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6987</x:v>
+        <x:v>6992</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1286</x:v>
+        <x:v>1287</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>413</x:v>
@@ -771,13 +771,13 @@
         <x:v>367</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
         <x:v>1471</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>10543</x:v>
+        <x:v>10550</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7073</x:v>
+        <x:v>7078</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1293</x:v>
+        <x:v>1294</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>414</x:v>
@@ -829,13 +829,13 @@
         <x:v>376</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
         <x:v>1505</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>10681</x:v>
+        <x:v>10688</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>989</x:v>
+        <x:v>990</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>175</x:v>
@@ -951,7 +951,7 @@
         <x:v>386</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1603</x:v>
+        <x:v>1604</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1310</x:v>
+        <x:v>1311</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>205</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>512</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2103</x:v>
+        <x:v>2104</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,10 +1020,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1354</x:v>
+        <x:v>1357</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1437</x:v>
+        <x:v>1439</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>87</x:v>
@@ -1035,10 +1035,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3193</x:v>
+        <x:v>3199</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1453</x:v>
+        <x:v>1456</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1516</x:v>
+        <x:v>1518</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>91</x:v>
@@ -1093,10 +1093,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3395</x:v>
+        <x:v>3401</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6979</x:v>
+        <x:v>6985</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>3638</x:v>
@@ -513,10 +513,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3746</x:v>
+        <x:v>3745</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>15347</x:v>
+        <x:v>15352</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,7 +556,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>7471</x:v>
+        <x:v>7477</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>3885</x:v>
@@ -571,10 +571,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3928</x:v>
+        <x:v>3927</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>16320</x:v>
+        <x:v>16325</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1392</x:v>
+        <x:v>1393</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>741</x:v>
@@ -681,7 +681,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>6</x:v>
@@ -690,7 +690,7 @@
         <x:v>266</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2539</x:v>
+        <x:v>2541</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1707</x:v>
+        <x:v>1708</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>1097</x:v>
@@ -739,7 +739,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>6</x:v>
@@ -748,7 +748,7 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3322</x:v>
+        <x:v>3324</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6992</x:v>
+        <x:v>6997</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>1287</x:v>
@@ -777,7 +777,7 @@
         <x:v>1471</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>10550</x:v>
+        <x:v>10555</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7078</x:v>
+        <x:v>7083</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1294</x:v>
@@ -835,7 +835,7 @@
         <x:v>1505</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>10688</x:v>
+        <x:v>10693</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>386</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1604</x:v>
+        <x:v>1608</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,7 +962,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>30</x:v>
@@ -980,7 +980,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>500</x:v>
+        <x:v>502</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1311</x:v>
+        <x:v>1313</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>205</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>512</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2104</x:v>
+        <x:v>2110</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>1357</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1439</x:v>
+        <x:v>1440</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>87</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3199</x:v>
+        <x:v>3200</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1049,7 +1049,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>79</x:v>
@@ -1067,7 +1067,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1456</x:v>
+        <x:v>1460</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1518</x:v>
+        <x:v>1519</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>91</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3401</x:v>
+        <x:v>3406</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6985</x:v>
+        <x:v>6987</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3638</x:v>
+        <x:v>3645</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>741</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3745</x:v>
+        <x:v>3746</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>15352</x:v>
+        <x:v>15364</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>492</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>247</x:v>
@@ -545,7 +545,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>973</x:v>
+        <x:v>975</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>7477</x:v>
+        <x:v>7481</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3885</x:v>
+        <x:v>3892</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>782</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3927</x:v>
+        <x:v>3928</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>16325</x:v>
+        <x:v>16339</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -585,7 +585,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>55</x:v>
@@ -603,7 +603,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -643,7 +643,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>123</x:v>
@@ -661,7 +661,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,13 +672,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1393</x:v>
+        <x:v>1395</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>741</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>104</x:v>
@@ -690,7 +690,7 @@
         <x:v>266</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2541</x:v>
+        <x:v>2547</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -716,10 +716,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>783</x:v>
+        <x:v>784</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,13 +730,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1708</x:v>
+        <x:v>1710</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1097</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>124</x:v>
@@ -745,10 +745,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3324</x:v>
+        <x:v>3331</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,13 +759,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>6997</x:v>
+        <x:v>7001</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>1287</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>367</x:v>
@@ -777,7 +777,7 @@
         <x:v>1471</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>10555</x:v>
+        <x:v>10558</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,7 +788,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>7</x:v>
@@ -806,7 +806,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,13 +817,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7083</x:v>
+        <x:v>7088</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1294</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>376</x:v>
@@ -835,7 +835,7 @@
         <x:v>1505</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>10693</x:v>
+        <x:v>10697</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1608</x:v>
+        <x:v>1609</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -977,10 +977,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>502</x:v>
+        <x:v>504</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>516</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2110</x:v>
+        <x:v>2113</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>1357</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1440</x:v>
+        <x:v>1442</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>87</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3200</x:v>
+        <x:v>3202</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>1460</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1519</x:v>
+        <x:v>1521</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>91</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3406</x:v>
+        <x:v>3408</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6987</x:v>
+        <x:v>7007</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3645</x:v>
+        <x:v>3643</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>228</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>742</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3746</x:v>
+        <x:v>3753</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>15364</x:v>
+        <x:v>15390</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,10 +527,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>494</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>11</x:v>
@@ -545,7 +545,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>975</x:v>
+        <x:v>978</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>7481</x:v>
+        <x:v>7503</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3892</x:v>
+        <x:v>3891</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>239</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>783</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3928</x:v>
+        <x:v>3935</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>16339</x:v>
+        <x:v>16368</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -617,7 +617,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>3</x:v>
@@ -632,7 +632,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -646,7 +646,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>5</x:v>
@@ -661,7 +661,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,16 +672,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1395</x:v>
+        <x:v>1403</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>744</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>6</x:v>
@@ -690,7 +690,7 @@
         <x:v>266</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2547</x:v>
+        <x:v>2557</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,7 +701,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>356</x:v>
@@ -719,7 +719,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>784</x:v>
+        <x:v>785</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,16 +730,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1710</x:v>
+        <x:v>1719</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1100</x:v>
+        <x:v>1101</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>44</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>6</x:v>
@@ -748,7 +748,7 @@
         <x:v>347</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3331</x:v>
+        <x:v>3342</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,25 +759,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>7001</x:v>
+        <x:v>7014</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1287</x:v>
+        <x:v>1290</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>412</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1471</x:v>
+        <x:v>1470</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>10558</x:v>
+        <x:v>10575</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7088</x:v>
+        <x:v>7101</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1294</x:v>
+        <x:v>1297</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>413</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>376</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1505</x:v>
+        <x:v>1504</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>10697</x:v>
+        <x:v>10714</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -855,7 +855,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>0</x:v>
@@ -864,7 +864,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -913,7 +913,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>0</x:v>
@@ -922,7 +922,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -933,13 +933,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>990</x:v>
+        <x:v>992</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>175</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>29</x:v>
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1609</x:v>
+        <x:v>1613</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,7 +962,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>30</x:v>
@@ -980,7 +980,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,13 +991,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1313</x:v>
+        <x:v>1316</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>205</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>46</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2113</x:v>
+        <x:v>2118</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,25 +1020,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1357</x:v>
+        <x:v>1362</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1442</x:v>
+        <x:v>1444</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>87</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3202</x:v>
+        <x:v>3210</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1049,7 +1049,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>79</x:v>
@@ -1067,7 +1067,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,25 +1078,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1460</x:v>
+        <x:v>1466</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1521</x:v>
+        <x:v>1523</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>91</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3408</x:v>
+        <x:v>3417</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>7007</x:v>
+        <x:v>7019</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3643</x:v>
+        <x:v>3644</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>228</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>743</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3753</x:v>
+        <x:v>3752</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>15390</x:v>
+        <x:v>15403</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>248</x:v>
@@ -545,7 +545,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>978</x:v>
+        <x:v>979</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>7503</x:v>
+        <x:v>7516</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3891</x:v>
+        <x:v>3892</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>239</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>784</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3935</x:v>
+        <x:v>3934</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>16368</x:v>
+        <x:v>16382</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -614,7 +614,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>69</x:v>
@@ -632,7 +632,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -643,7 +643,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>124</x:v>
@@ -661,7 +661,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>311</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,13 +672,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1403</x:v>
+        <x:v>1402</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>745</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>105</x:v>
@@ -690,7 +690,7 @@
         <x:v>266</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2557</x:v>
+        <x:v>2562</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,13 +730,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1719</x:v>
+        <x:v>1718</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1101</x:v>
+        <x:v>1108</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>125</x:v>
@@ -748,7 +748,7 @@
         <x:v>347</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3342</x:v>
+        <x:v>3347</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,13 +759,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>7014</x:v>
+        <x:v>7020</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1290</x:v>
+        <x:v>1292</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>369</x:v>
@@ -774,10 +774,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1470</x:v>
+        <x:v>1473</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>10575</x:v>
+        <x:v>10587</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,7 +788,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>7</x:v>
@@ -806,7 +806,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,13 +817,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7101</x:v>
+        <x:v>7108</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1297</x:v>
+        <x:v>1299</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>378</x:v>
@@ -832,10 +832,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1504</x:v>
+        <x:v>1507</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>10714</x:v>
+        <x:v>10727</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -846,7 +846,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>23</x:v>
@@ -864,7 +864,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -904,7 +904,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>23</x:v>
@@ -922,7 +922,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1613</x:v>
+        <x:v>1614</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,10 +962,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>6</x:v>
@@ -991,10 +991,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1316</x:v>
+        <x:v>1315</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>31</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2118</x:v>
+        <x:v>2119</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,7 +1020,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1362</x:v>
+        <x:v>1361</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>1444</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3210</x:v>
+        <x:v>3209</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,7 +1078,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1466</x:v>
+        <x:v>1465</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1523</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3417</x:v>
+        <x:v>3416</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>7019</x:v>
+        <x:v>7025</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3644</x:v>
+        <x:v>3646</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>228</x:v>
@@ -516,7 +516,7 @@
         <x:v>3752</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>15403</x:v>
+        <x:v>15411</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>248</x:v>
@@ -545,7 +545,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>979</x:v>
+        <x:v>980</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>7516</x:v>
+        <x:v>7523</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3892</x:v>
+        <x:v>3894</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>239</x:v>
@@ -574,7 +574,7 @@
         <x:v>3934</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>16382</x:v>
+        <x:v>16391</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1402</x:v>
+        <x:v>1403</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>752</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>31</x:v>
@@ -687,10 +687,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>266</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2562</x:v>
+        <x:v>2564</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1718</x:v>
+        <x:v>1719</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1108</x:v>
+        <x:v>1107</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>43</x:v>
@@ -745,10 +745,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3347</x:v>
+        <x:v>3349</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>7020</x:v>
+        <x:v>7026</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1292</x:v>
+        <x:v>1294</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>413</x:v>
@@ -777,7 +777,7 @@
         <x:v>1473</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>10587</x:v>
+        <x:v>10595</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7108</x:v>
+        <x:v>7114</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1299</x:v>
+        <x:v>1301</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>414</x:v>
@@ -835,7 +835,7 @@
         <x:v>1507</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>10727</x:v>
+        <x:v>10735</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>992</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>175</x:v>
@@ -951,7 +951,7 @@
         <x:v>393</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1614</x:v>
+        <x:v>1615</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1315</x:v>
+        <x:v>1316</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>206</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>521</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2119</x:v>
+        <x:v>2120</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>1361</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1444</x:v>
+        <x:v>1443</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>87</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3209</x:v>
+        <x:v>3208</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1058,7 +1058,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>0</x:v>
@@ -1067,7 +1067,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1081,13 +1081,13 @@
         <x:v>1465</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1523</x:v>
+        <x:v>1522</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>91</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>2</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>7025</x:v>
+        <x:v>7032</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3646</x:v>
+        <x:v>3649</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>228</x:v>
@@ -513,10 +513,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3752</x:v>
+        <x:v>3751</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>15411</x:v>
+        <x:v>15420</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,10 +527,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>498</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>11</x:v>
@@ -545,7 +545,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>980</x:v>
+        <x:v>983</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>7523</x:v>
+        <x:v>7532</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3894</x:v>
+        <x:v>3898</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>239</x:v>
@@ -571,10 +571,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3934</x:v>
+        <x:v>3933</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>16391</x:v>
+        <x:v>16403</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1403</x:v>
+        <x:v>1404</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>751</x:v>
@@ -690,7 +690,7 @@
         <x:v>268</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2564</x:v>
+        <x:v>2565</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1719</x:v>
+        <x:v>1720</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>1107</x:v>
@@ -748,7 +748,7 @@
         <x:v>349</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3349</x:v>
+        <x:v>3350</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>7026</x:v>
+        <x:v>7028</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1294</x:v>
+        <x:v>1295</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>413</x:v>
@@ -777,7 +777,7 @@
         <x:v>1473</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>10595</x:v>
+        <x:v>10598</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7114</x:v>
+        <x:v>7116</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1301</x:v>
+        <x:v>1302</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>414</x:v>
@@ -835,7 +835,7 @@
         <x:v>1507</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>10735</x:v>
+        <x:v>10738</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -936,7 +936,7 @@
         <x:v>993</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>25</x:v>
@@ -948,10 +948,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1615</x:v>
+        <x:v>1617</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -977,10 +977,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>505</x:v>
+        <x:v>506</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -994,7 +994,7 @@
         <x:v>1316</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>31</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>521</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2120</x:v>
+        <x:v>2123</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>7032</x:v>
+        <x:v>7868</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3649</x:v>
+        <x:v>4077</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>744</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>3751</x:v>
+        <x:v>4348</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>15420</x:v>
+        <x:v>17422</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,25 +527,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>500</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>182</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>983</x:v>
+        <x:v>1119</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>7532</x:v>
+        <x:v>8428</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3898</x:v>
+        <x:v>4348</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>239</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>785</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>3933</x:v>
+        <x:v>4574</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>16403</x:v>
+        <x:v>18541</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -585,25 +585,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -614,10 +614,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>3</x:v>
@@ -629,10 +629,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -643,25 +643,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,25 +672,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1404</x:v>
+        <x:v>1588</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>751</x:v>
+        <x:v>838</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>268</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2565</x:v>
+        <x:v>2883</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,25 +701,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>785</x:v>
+        <x:v>860</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,25 +730,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1720</x:v>
+        <x:v>1939</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1107</x:v>
+        <x:v>1225</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3350</x:v>
+        <x:v>3743</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,25 +759,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>7028</x:v>
+        <x:v>7828</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1295</x:v>
+        <x:v>1459</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1473</x:v>
+        <x:v>1654</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>10598</x:v>
+        <x:v>11825</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,13 +788,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>9</x:v>
@@ -803,10 +803,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7116</x:v>
+        <x:v>7921</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1302</x:v>
+        <x:v>1466</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>378</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1507</x:v>
+        <x:v>1689</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>10738</x:v>
+        <x:v>11972</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -846,10 +846,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>4</x:v>
@@ -864,7 +864,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -904,10 +904,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>4</x:v>
@@ -922,7 +922,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -933,25 +933,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>993</x:v>
+        <x:v>1113</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>394</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1617</x:v>
+        <x:v>1800</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,25 +962,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>506</x:v>
+        <x:v>570</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,25 +991,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1316</x:v>
+        <x:v>1480</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>523</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2123</x:v>
+        <x:v>2370</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,25 +1020,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1361</x:v>
+        <x:v>1524</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1443</x:v>
+        <x:v>1583</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3208</x:v>
+        <x:v>3569</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1049,25 +1049,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,25 +1078,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1465</x:v>
+        <x:v>1647</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1522</x:v>
+        <x:v>1674</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3416</x:v>
+        <x:v>3811</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>7868</x:v>
+        <x:v>7871</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4077</x:v>
@@ -507,16 +507,16 @@
         <x:v>261</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>850</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>4348</x:v>
+        <x:v>4351</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>17422</x:v>
+        <x:v>17429</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,10 +527,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>560</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>11</x:v>
@@ -545,7 +545,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1119</x:v>
+        <x:v>1121</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>8428</x:v>
+        <x:v>8432</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4348</x:v>
+        <x:v>4349</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>272</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>900</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>4574</x:v>
+        <x:v>4577</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>18541</x:v>
+        <x:v>18550</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,10 +672,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1588</x:v>
+        <x:v>1591</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>838</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>33</x:v>
@@ -690,7 +690,7 @@
         <x:v>286</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2883</x:v>
+        <x:v>2889</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,7 +701,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>387</x:v>
@@ -719,7 +719,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>860</x:v>
+        <x:v>861</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1939</x:v>
+        <x:v>1943</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1225</x:v>
+        <x:v>1228</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>46</x:v>
@@ -748,7 +748,7 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3743</x:v>
+        <x:v>3750</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>7828</x:v>
+        <x:v>7844</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1459</x:v>
+        <x:v>1462</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>451</x:v>
@@ -774,10 +774,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1654</x:v>
+        <x:v>1658</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>11825</x:v>
+        <x:v>11848</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7921</x:v>
+        <x:v>7937</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1466</x:v>
+        <x:v>1469</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>453</x:v>
@@ -832,10 +832,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1689</x:v>
+        <x:v>1693</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>11972</x:v>
+        <x:v>11995</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1020,16 +1020,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1524</x:v>
+        <x:v>1526</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1583</x:v>
+        <x:v>1595</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>2</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3569</x:v>
+        <x:v>3587</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,16 +1078,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1647</x:v>
+        <x:v>1649</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1674</x:v>
+        <x:v>1686</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>2</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>209</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3811</x:v>
+        <x:v>3829</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,16 +498,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>7871</x:v>
+        <x:v>7874</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4077</x:v>
+        <x:v>4079</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>261</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>851</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>18</x:v>
@@ -516,7 +516,7 @@
         <x:v>4351</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>17429</x:v>
+        <x:v>17435</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>272</x:v>
@@ -545,7 +545,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1121</x:v>
+        <x:v>1124</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,16 +556,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>8432</x:v>
+        <x:v>8438</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4349</x:v>
+        <x:v>4351</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>272</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>901</x:v>
+        <x:v>902</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>19</x:v>
@@ -574,7 +574,7 @@
         <x:v>4577</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>18550</x:v>
+        <x:v>18559</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -701,10 +701,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>352</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>13</x:v>
@@ -719,7 +719,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>861</x:v>
+        <x:v>864</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1943</x:v>
+        <x:v>1945</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1228</x:v>
+        <x:v>1229</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>46</x:v>
@@ -748,7 +748,7 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3750</x:v>
+        <x:v>3753</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>7844</x:v>
+        <x:v>7852</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1462</x:v>
+        <x:v>1463</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>451</x:v>
@@ -774,10 +774,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1658</x:v>
+        <x:v>1661</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>11848</x:v>
+        <x:v>11860</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7937</x:v>
+        <x:v>7945</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1469</x:v>
+        <x:v>1470</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>453</x:v>
@@ -832,10 +832,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1693</x:v>
+        <x:v>1696</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>11995</x:v>
+        <x:v>12007</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -962,7 +962,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>32</x:v>
@@ -980,7 +980,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>570</x:v>
+        <x:v>571</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1480</x:v>
+        <x:v>1481</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>226</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>574</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2370</x:v>
+        <x:v>2371</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,7 +1020,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1526</x:v>
+        <x:v>1525</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>1595</x:v>
@@ -1035,10 +1035,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3587</x:v>
+        <x:v>3588</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,7 +1078,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1649</x:v>
+        <x:v>1648</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1686</x:v>
@@ -1093,10 +1093,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3829</x:v>
+        <x:v>3830</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -501,13 +501,13 @@
         <x:v>7874</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4079</x:v>
+        <x:v>4081</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>261</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>852</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>18</x:v>
@@ -516,7 +516,7 @@
         <x:v>4351</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>17435</x:v>
+        <x:v>17438</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>564</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>272</x:v>
@@ -545,7 +545,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1124</x:v>
+        <x:v>1126</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,16 +556,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>8438</x:v>
+        <x:v>8440</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4351</x:v>
+        <x:v>4353</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>272</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>902</x:v>
+        <x:v>903</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>19</x:v>
@@ -574,7 +574,7 @@
         <x:v>4577</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>18559</x:v>
+        <x:v>18564</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1591</x:v>
+        <x:v>1592</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>841</x:v>
@@ -690,7 +690,7 @@
         <x:v>286</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2889</x:v>
+        <x:v>2890</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,7 +701,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>354</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>388</x:v>
@@ -716,7 +716,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
         <x:v>864</x:v>
@@ -745,10 +745,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3753</x:v>
+        <x:v>3754</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>7852</x:v>
+        <x:v>7858</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>1463</x:v>
@@ -774,10 +774,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1661</x:v>
+        <x:v>1662</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>11860</x:v>
+        <x:v>11867</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -794,7 +794,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>9</x:v>
@@ -803,10 +803,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,13 +817,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7945</x:v>
+        <x:v>7951</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1470</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>421</x:v>
@@ -832,10 +832,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1696</x:v>
+        <x:v>1698</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>12007</x:v>
+        <x:v>12016</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,13 +933,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>1113</x:v>
+        <x:v>1115</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>194</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>33</x:v>
@@ -948,10 +948,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1800</x:v>
+        <x:v>1804</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,7 +962,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>32</x:v>
@@ -980,7 +980,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>571</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,13 +991,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1481</x:v>
+        <x:v>1484</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>226</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>52</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2371</x:v>
+        <x:v>2376</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1035,10 +1035,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3588</x:v>
+        <x:v>3589</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1093,10 +1093,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3830</x:v>
+        <x:v>3831</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>7874</x:v>
+        <x:v>7879</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4081</x:v>
+        <x:v>4082</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>261</x:v>
@@ -513,10 +513,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>4351</x:v>
+        <x:v>4352</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>17438</x:v>
+        <x:v>17445</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>8440</x:v>
+        <x:v>8445</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4353</x:v>
+        <x:v>4354</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>272</x:v>
@@ -571,10 +571,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>4577</x:v>
+        <x:v>4578</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>18564</x:v>
+        <x:v>18571</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>7858</x:v>
+        <x:v>7861</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1463</x:v>
+        <x:v>1464</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>451</x:v>
@@ -774,10 +774,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1662</x:v>
+        <x:v>1663</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>11867</x:v>
+        <x:v>11872</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7951</x:v>
+        <x:v>7954</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1470</x:v>
+        <x:v>1471</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>454</x:v>
@@ -832,10 +832,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1698</x:v>
+        <x:v>1699</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>12016</x:v>
+        <x:v>12021</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1035,10 +1035,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3589</x:v>
+        <x:v>3592</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1093,10 +1093,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3831</x:v>
+        <x:v>3834</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>7879</x:v>
+        <x:v>7906</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4082</x:v>
+        <x:v>4097</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>261</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>853</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>4352</x:v>
+        <x:v>4365</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>17445</x:v>
+        <x:v>17503</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>566</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>272</x:v>
@@ -542,10 +542,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1126</x:v>
+        <x:v>1133</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>8445</x:v>
+        <x:v>8477</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4354</x:v>
+        <x:v>4369</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>272</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>903</x:v>
+        <x:v>906</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>4578</x:v>
+        <x:v>4593</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>18571</x:v>
+        <x:v>18636</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -600,10 +600,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -658,10 +658,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1592</x:v>
+        <x:v>1598</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>841</x:v>
@@ -681,16 +681,16 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>286</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2890</x:v>
+        <x:v>2899</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,7 +701,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>353</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>388</x:v>
@@ -716,10 +716,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>864</x:v>
+        <x:v>873</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1945</x:v>
+        <x:v>1954</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>1229</x:v>
@@ -739,16 +739,16 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>375</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3754</x:v>
+        <x:v>3772</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,25 +759,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>7861</x:v>
+        <x:v>7901</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1464</x:v>
+        <x:v>1467</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>451</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1663</x:v>
+        <x:v>1674</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>11872</x:v>
+        <x:v>11927</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,10 +788,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>3</x:v>
@@ -806,7 +806,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7954</x:v>
+        <x:v>7996</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1471</x:v>
+        <x:v>1475</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>454</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1699</x:v>
+        <x:v>1710</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>12021</x:v>
+        <x:v>12079</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -846,7 +846,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>24</x:v>
@@ -864,7 +864,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -904,7 +904,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>24</x:v>
@@ -922,7 +922,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>1115</x:v>
+        <x:v>1118</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>194</x:v>
@@ -948,10 +948,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1804</x:v>
+        <x:v>1808</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,7 +962,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>32</x:v>
@@ -977,10 +977,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>572</x:v>
+        <x:v>576</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1484</x:v>
+        <x:v>1489</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>226</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>575</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2376</x:v>
+        <x:v>2384</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,25 +1020,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1525</x:v>
+        <x:v>1529</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1595</x:v>
+        <x:v>1598</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>91</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3592</x:v>
+        <x:v>3602</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1049,7 +1049,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>91</x:v>
@@ -1067,7 +1067,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>242</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,25 +1078,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1648</x:v>
+        <x:v>1654</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1686</x:v>
+        <x:v>1689</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>96</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3834</x:v>
+        <x:v>3846</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>7906</x:v>
+        <x:v>7909</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4097</x:v>
+        <x:v>4099</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>261</x:v>
@@ -513,10 +513,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>4365</x:v>
+        <x:v>4366</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>17503</x:v>
+        <x:v>17509</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>571</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>272</x:v>
@@ -545,7 +545,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1133</x:v>
+        <x:v>1132</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>8477</x:v>
+        <x:v>8479</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4369</x:v>
+        <x:v>4371</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>272</x:v>
@@ -571,10 +571,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>4593</x:v>
+        <x:v>4594</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>18636</x:v>
+        <x:v>18641</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -704,7 +704,7 @@
         <x:v>356</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>13</x:v>
@@ -719,7 +719,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>873</x:v>
+        <x:v>874</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -733,7 +733,7 @@
         <x:v>1954</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1229</x:v>
+        <x:v>1230</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>46</x:v>
@@ -748,7 +748,7 @@
         <x:v>383</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3772</x:v>
+        <x:v>3773</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,13 +759,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>7901</x:v>
+        <x:v>7905</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>1467</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
         <x:v>413</x:v>
@@ -777,7 +777,7 @@
         <x:v>1674</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>11927</x:v>
+        <x:v>11932</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,13 +817,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>7996</x:v>
+        <x:v>8000</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1475</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>422</x:v>
@@ -835,7 +835,7 @@
         <x:v>1710</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>12079</x:v>
+        <x:v>12084</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,7 +498,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>7909</x:v>
+        <x:v>7913</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>4099</x:v>
@@ -513,10 +513,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>4366</x:v>
+        <x:v>4369</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>17509</x:v>
+        <x:v>17516</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,7 +556,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>8479</x:v>
+        <x:v>8483</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>4371</x:v>
@@ -571,10 +571,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>4594</x:v>
+        <x:v>4597</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>18641</x:v>
+        <x:v>18648</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1598</x:v>
+        <x:v>1599</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>841</x:v>
@@ -690,7 +690,7 @@
         <x:v>288</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2899</x:v>
+        <x:v>2900</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1954</x:v>
+        <x:v>1955</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>1230</x:v>
@@ -748,7 +748,7 @@
         <x:v>383</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3773</x:v>
+        <x:v>3774</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>7905</x:v>
+        <x:v>7908</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>1467</x:v>
@@ -777,7 +777,7 @@
         <x:v>1674</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>11932</x:v>
+        <x:v>11935</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>8000</x:v>
+        <x:v>8003</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1475</x:v>
@@ -835,7 +835,7 @@
         <x:v>1710</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>12084</x:v>
+        <x:v>12087</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1023,7 +1023,7 @@
         <x:v>1529</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1598</x:v>
+        <x:v>1599</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>91</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3602</x:v>
+        <x:v>3603</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1081,7 +1081,7 @@
         <x:v>1654</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1689</x:v>
+        <x:v>1690</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>96</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3846</x:v>
+        <x:v>3847</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>7913</x:v>
+        <x:v>8767</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4099</x:v>
+        <x:v>4537</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>261</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>856</x:v>
+        <x:v>964</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>4369</x:v>
+        <x:v>4812</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>17516</x:v>
+        <x:v>19385</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,25 +527,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>570</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1132</x:v>
+        <x:v>1290</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>8483</x:v>
+        <x:v>9416</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4371</x:v>
+        <x:v>4846</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>906</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>4597</x:v>
+        <x:v>5071</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>18648</x:v>
+        <x:v>20675</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -585,25 +585,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -614,10 +614,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>3</x:v>
@@ -629,10 +629,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -643,25 +643,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>352</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,25 +672,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1599</x:v>
+        <x:v>1750</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>841</x:v>
+        <x:v>949</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>2900</x:v>
+        <x:v>3204</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,25 +701,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>874</x:v>
+        <x:v>972</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,25 +730,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1955</x:v>
+        <x:v>2147</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1230</x:v>
+        <x:v>1382</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>383</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>3774</x:v>
+        <x:v>4176</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,25 +759,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>7908</x:v>
+        <x:v>8701</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1467</x:v>
+        <x:v>1616</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>452</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1674</x:v>
+        <x:v>1830</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>11935</x:v>
+        <x:v>13127</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,25 +788,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>8003</x:v>
+        <x:v>8806</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1475</x:v>
+        <x:v>1625</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>455</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>422</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1710</x:v>
+        <x:v>1870</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>12087</x:v>
+        <x:v>13296</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -846,25 +846,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -904,25 +904,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -933,25 +933,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>1118</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>431</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>1808</x:v>
+        <x:v>2005</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,25 +962,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>701</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,25 +991,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1489</x:v>
+        <x:v>1703</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>578</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2384</x:v>
+        <x:v>2706</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,25 +1020,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1529</x:v>
+        <x:v>1663</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1599</x:v>
+        <x:v>1758</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3603</x:v>
+        <x:v>3951</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1049,13 +1049,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
         <x:v>3</x:v>
@@ -1064,10 +1064,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>244</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,25 +1078,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1654</x:v>
+        <x:v>1797</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1690</x:v>
+        <x:v>1863</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3847</x:v>
+        <x:v>4224</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>8767</x:v>
+        <x:v>8782</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4537</x:v>
+        <x:v>4546</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>286</x:v>
@@ -513,10 +513,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>4812</x:v>
+        <x:v>4813</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>19385</x:v>
+        <x:v>19410</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,7 +527,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>649</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>309</x:v>
@@ -536,16 +536,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1290</x:v>
+        <x:v>1295</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>9416</x:v>
+        <x:v>9434</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4846</x:v>
+        <x:v>4855</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>299</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1023</x:v>
+        <x:v>1024</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>5071</x:v>
+        <x:v>5073</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>20675</x:v>
+        <x:v>20705</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1750</x:v>
+        <x:v>1753</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>949</x:v>
@@ -690,7 +690,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>3204</x:v>
+        <x:v>3207</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,10 +701,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>14</x:v>
@@ -719,7 +719,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>972</x:v>
+        <x:v>974</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,10 +730,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2147</x:v>
+        <x:v>2151</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1382</x:v>
+        <x:v>1383</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>51</x:v>
@@ -748,7 +748,7 @@
         <x:v>422</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>4176</x:v>
+        <x:v>4181</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>8701</x:v>
+        <x:v>8711</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1616</x:v>
+        <x:v>1617</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>495</x:v>
@@ -774,10 +774,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1830</x:v>
+        <x:v>1833</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>13127</x:v>
+        <x:v>13141</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>8806</x:v>
+        <x:v>8816</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1625</x:v>
+        <x:v>1626</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>498</x:v>
@@ -832,10 +832,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1870</x:v>
+        <x:v>1873</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>13296</x:v>
+        <x:v>13310</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>1251</x:v>
+        <x:v>1252</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>229</x:v>
@@ -951,7 +951,7 @@
         <x:v>453</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>2005</x:v>
+        <x:v>2006</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1703</x:v>
+        <x:v>1704</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>272</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>626</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2706</x:v>
+        <x:v>2707</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,10 +1020,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1663</x:v>
+        <x:v>1665</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1758</x:v>
+        <x:v>1759</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>99</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>222</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3951</x:v>
+        <x:v>3954</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1797</x:v>
+        <x:v>1799</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1863</x:v>
+        <x:v>1864</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>106</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>246</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4224</x:v>
+        <x:v>4227</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>8782</x:v>
+        <x:v>8800</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4546</x:v>
+        <x:v>4557</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>286</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>964</x:v>
+        <x:v>965</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>4813</x:v>
+        <x:v>4811</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>19410</x:v>
+        <x:v>19438</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,16 +527,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>1</x:v>
@@ -545,7 +545,7 @@
         <x:v>260</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1295</x:v>
+        <x:v>1304</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>9434</x:v>
+        <x:v>9453</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4855</x:v>
+        <x:v>4873</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>299</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1024</x:v>
+        <x:v>1026</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>5073</x:v>
+        <x:v>5071</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>20705</x:v>
+        <x:v>20742</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,13 +672,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1753</x:v>
+        <x:v>1756</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>949</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>143</x:v>
@@ -687,10 +687,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>3207</x:v>
+        <x:v>3214</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,10 +701,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>398</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>14</x:v>
@@ -719,7 +719,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>974</x:v>
+        <x:v>977</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,13 +730,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2151</x:v>
+        <x:v>2156</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1383</x:v>
+        <x:v>1386</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>166</x:v>
@@ -745,10 +745,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>4181</x:v>
+        <x:v>4191</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,10 +759,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>8711</x:v>
+        <x:v>8721</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1617</x:v>
+        <x:v>1621</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>495</x:v>
@@ -774,10 +774,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1833</x:v>
+        <x:v>1838</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>13141</x:v>
+        <x:v>13160</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,7 +788,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>9</x:v>
@@ -806,7 +806,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,10 +817,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>8816</x:v>
+        <x:v>8827</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1626</x:v>
+        <x:v>1630</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>498</x:v>
@@ -832,10 +832,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1873</x:v>
+        <x:v>1878</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>13310</x:v>
+        <x:v>13330</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,10 +933,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>1252</x:v>
+        <x:v>1253</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>33</x:v>
@@ -948,10 +948,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>453</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>2006</x:v>
+        <x:v>2012</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,7 +962,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>452</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>43</x:v>
@@ -977,10 +977,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>701</x:v>
+        <x:v>708</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,10 +991,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1704</x:v>
+        <x:v>1707</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>41</x:v>
@@ -1006,10 +1006,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>626</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2707</x:v>
+        <x:v>2720</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,10 +1020,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1665</x:v>
+        <x:v>1670</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1759</x:v>
+        <x:v>1762</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>99</x:v>
@@ -1035,10 +1035,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3954</x:v>
+        <x:v>3963</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1052,7 +1052,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>7</x:v>
@@ -1064,10 +1064,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,10 +1078,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1799</x:v>
+        <x:v>1804</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1864</x:v>
+        <x:v>1868</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>106</x:v>
@@ -1093,10 +1093,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>246</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4227</x:v>
+        <x:v>4238</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,10 +498,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>8800</x:v>
+        <x:v>8803</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4557</x:v>
+        <x:v>4558</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>286</x:v>
@@ -513,10 +513,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>4811</x:v>
+        <x:v>4813</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>19438</x:v>
+        <x:v>19444</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,10 +556,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>9453</x:v>
+        <x:v>9456</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4873</x:v>
+        <x:v>4874</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>299</x:v>
@@ -571,10 +571,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>5071</x:v>
+        <x:v>5073</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>20742</x:v>
+        <x:v>20748</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1756</x:v>
+        <x:v>1757</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>951</x:v>
@@ -690,7 +690,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>3214</x:v>
+        <x:v>3215</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2156</x:v>
+        <x:v>2157</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>1386</x:v>
@@ -748,7 +748,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>4191</x:v>
+        <x:v>4192</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>8721</x:v>
+        <x:v>8723</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>1621</x:v>
@@ -768,16 +768,16 @@
         <x:v>495</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1838</x:v>
+        <x:v>1840</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>13160</x:v>
+        <x:v>13165</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -803,10 +803,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>8827</x:v>
+        <x:v>8829</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1630</x:v>
@@ -826,16 +826,16 @@
         <x:v>498</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>24</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1878</x:v>
+        <x:v>1881</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>13330</x:v>
+        <x:v>13336</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,7 +933,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>1253</x:v>
+        <x:v>1254</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>230</x:v>
@@ -951,7 +951,7 @@
         <x:v>457</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>2012</x:v>
+        <x:v>2013</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1707</x:v>
+        <x:v>1708</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>273</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>635</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2720</x:v>
+        <x:v>2721</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,13 +1020,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1670</x:v>
+        <x:v>1679</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1762</x:v>
+        <x:v>1764</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>207</x:v>
@@ -1035,10 +1035,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3963</x:v>
+        <x:v>3981</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1049,7 +1049,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>106</x:v>
@@ -1067,7 +1067,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,13 +1078,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1804</x:v>
+        <x:v>1814</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1868</x:v>
+        <x:v>1870</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>210</x:v>
@@ -1093,10 +1093,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4238</x:v>
+        <x:v>4257</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,16 +498,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>8803</x:v>
+        <x:v>8811</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4558</x:v>
+        <x:v>4559</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>286</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>965</x:v>
+        <x:v>966</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>19</x:v>
@@ -516,7 +516,7 @@
         <x:v>4813</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>19444</x:v>
+        <x:v>19454</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -556,16 +556,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>9456</x:v>
+        <x:v>9464</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4874</x:v>
+        <x:v>4875</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>299</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1026</x:v>
+        <x:v>1027</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>20</x:v>
@@ -574,7 +574,7 @@
         <x:v>5073</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>20748</x:v>
+        <x:v>20758</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -617,7 +617,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>3</x:v>
@@ -632,7 +632,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -646,7 +646,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>5</x:v>
@@ -661,7 +661,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,7 +672,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1757</x:v>
+        <x:v>1758</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>951</x:v>
@@ -681,16 +681,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>3215</x:v>
+        <x:v>3219</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -710,7 +710,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>0</x:v>
@@ -719,7 +719,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>977</x:v>
+        <x:v>978</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,7 +730,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2157</x:v>
+        <x:v>2158</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>1386</x:v>
@@ -739,16 +739,16 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>423</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>4192</x:v>
+        <x:v>4197</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,7 +759,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>8723</x:v>
+        <x:v>8726</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>1621</x:v>
@@ -768,7 +768,7 @@
         <x:v>495</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>23</x:v>
@@ -777,7 +777,7 @@
         <x:v>1840</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>13165</x:v>
+        <x:v>13169</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -817,7 +817,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>8829</x:v>
+        <x:v>8832</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>1630</x:v>
@@ -826,7 +826,7 @@
         <x:v>498</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>24</x:v>
@@ -835,7 +835,7 @@
         <x:v>1881</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>13336</x:v>
+        <x:v>13340</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -933,13 +933,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>1254</x:v>
+        <x:v>1255</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>230</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>38</x:v>
@@ -951,7 +951,7 @@
         <x:v>457</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>2013</x:v>
+        <x:v>2015</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,7 +962,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>43</x:v>
@@ -980,7 +980,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,13 +991,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1708</x:v>
+        <x:v>1710</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>273</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>63</x:v>
@@ -1009,7 +1009,7 @@
         <x:v>635</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2721</x:v>
+        <x:v>2724</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,16 +1020,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1679</x:v>
+        <x:v>1683</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1764</x:v>
+        <x:v>1768</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>101</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>2</x:v>
@@ -1038,7 +1038,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3981</x:v>
+        <x:v>3990</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,16 +1078,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1814</x:v>
+        <x:v>1818</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1870</x:v>
+        <x:v>1874</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>2</x:v>
@@ -1096,7 +1096,7 @@
         <x:v>253</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4257</x:v>
+        <x:v>4266</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>8811</x:v>
+        <x:v>8837</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4559</x:v>
+        <x:v>4567</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>286</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>966</x:v>
+        <x:v>971</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>4813</x:v>
+        <x:v>4826</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>19454</x:v>
+        <x:v>19506</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -530,7 +530,7 @@
         <x:v>653</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>13</x:v>
@@ -542,7 +542,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
         <x:v>1304</x:v>
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>9464</x:v>
+        <x:v>9490</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4875</x:v>
+        <x:v>4884</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>299</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1027</x:v>
+        <x:v>1032</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>5073</x:v>
+        <x:v>5085</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>20758</x:v>
+        <x:v>20810</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -614,16 +614,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G6" s="1" t="n">
         <x:v>0</x:v>
@@ -632,7 +632,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -643,16 +643,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>0</x:v>
@@ -661,7 +661,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>386</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,25 +672,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1758</x:v>
+        <x:v>1763</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>951</x:v>
+        <x:v>955</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>3219</x:v>
+        <x:v>3232</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,16 +701,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>400</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>0</x:v>
@@ -719,7 +719,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>978</x:v>
+        <x:v>985</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,25 +730,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2158</x:v>
+        <x:v>2167</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1386</x:v>
+        <x:v>1392</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>52</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>425</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>4197</x:v>
+        <x:v>4217</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,25 +759,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>8726</x:v>
+        <x:v>8748</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1621</x:v>
+        <x:v>1625</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>495</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>464</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1840</x:v>
+        <x:v>1846</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>13169</x:v>
+        <x:v>13203</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -803,10 +803,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>8832</x:v>
+        <x:v>8854</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1630</x:v>
+        <x:v>1634</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>498</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>475</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>24</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1881</x:v>
+        <x:v>1889</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>13340</x:v>
+        <x:v>13376</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -861,10 +861,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -919,10 +919,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -933,13 +933,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>1255</x:v>
+        <x:v>1254</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>230</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>38</x:v>
@@ -948,10 +948,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>2015</x:v>
+        <x:v>2016</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,7 +962,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>455</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>43</x:v>
@@ -971,7 +971,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
@@ -980,7 +980,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>709</x:v>
+        <x:v>712</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,25 +991,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1710</x:v>
+        <x:v>1711</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>273</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2724</x:v>
+        <x:v>2728</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,25 +1020,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1683</x:v>
+        <x:v>1687</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1768</x:v>
+        <x:v>1770</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>101</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3990</x:v>
+        <x:v>3999</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1078,25 +1078,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1818</x:v>
+        <x:v>1822</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1874</x:v>
+        <x:v>1876</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>108</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4266</x:v>
+        <x:v>4275</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -498,25 +498,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>8837</x:v>
+        <x:v>9543</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>4567</x:v>
+        <x:v>4906</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>286</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>971</x:v>
+        <x:v>1069</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>4826</x:v>
+        <x:v>5374</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>19506</x:v>
+        <x:v>21223</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -527,25 +527,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>653</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F3" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G3" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1304</x:v>
+        <x:v>1419</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -556,25 +556,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>9490</x:v>
+        <x:v>10252</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>4884</x:v>
+        <x:v>5251</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>299</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>1032</x:v>
+        <x:v>1134</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>5085</x:v>
+        <x:v>5659</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>20810</x:v>
+        <x:v>22642</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -585,10 +585,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>2</x:v>
@@ -603,7 +603,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -614,10 +614,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>3</x:v>
@@ -632,7 +632,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -643,10 +643,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>182</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>5</x:v>
@@ -661,7 +661,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>393</x:v>
+        <x:v>418</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -672,25 +672,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1763</x:v>
+        <x:v>1884</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>955</x:v>
+        <x:v>1035</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>3232</x:v>
+        <x:v>3477</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -701,25 +701,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>404</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>437</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>985</x:v>
+        <x:v>1072</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -730,25 +730,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2167</x:v>
+        <x:v>2327</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1392</x:v>
+        <x:v>1510</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>4217</x:v>
+        <x:v>4549</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -759,25 +759,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>8748</x:v>
+        <x:v>9580</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>1625</x:v>
+        <x:v>1799</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>495</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>466</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1846</x:v>
+        <x:v>2046</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>13203</x:v>
+        <x:v>14499</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -788,7 +788,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>9</x:v>
@@ -797,16 +797,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -817,25 +817,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>8854</x:v>
+        <x:v>9697</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>1634</x:v>
+        <x:v>1808</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>498</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>477</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>1889</x:v>
+        <x:v>2093</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>13376</x:v>
+        <x:v>14688</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -846,16 +846,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>0</x:v>
@@ -864,7 +864,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -904,16 +904,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>0</x:v>
@@ -922,7 +922,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -933,25 +933,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>1254</x:v>
+        <x:v>1357</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>458</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>2016</x:v>
+        <x:v>2192</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -962,25 +962,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>457</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>712</x:v>
+        <x:v>769</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -991,25 +991,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1711</x:v>
+        <x:v>1850</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>636</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>2728</x:v>
+        <x:v>2961</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1020,25 +1020,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1687</x:v>
+        <x:v>1838</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>1770</x:v>
+        <x:v>1917</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>210</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3999</x:v>
+        <x:v>4359</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1049,10 +1049,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>7</x:v>
@@ -1064,10 +1064,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1078,25 +1078,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1822</x:v>
+        <x:v>1975</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1876</x:v>
+        <x:v>2028</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>213</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4275</x:v>
+        <x:v>4645</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Group B Arrests" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Group B Arrests" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Offense Category</x:t>
   </x:si>
@@ -49,28 +49,361 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
+    <x:t>9611</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4941</x:t>
+  </x:si>
+  <x:si>
+    <x:t>312</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21341</x:t>
+  </x:si>
+  <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
+    <x:t>715</x:t>
+  </x:si>
+  <x:si>
+    <x:t>347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>289</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1433</x:t>
+  </x:si>
+  <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
+    <x:t>10326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5674</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22774</x:t>
+  </x:si>
+  <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
   </x:si>
   <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>422</x:t>
+  </x:si>
+  <x:si>
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
+    <x:t>1897</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>468</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4601</x:t>
+  </x:si>
+  <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
+    <x:t>9656</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1810</x:t>
+  </x:si>
+  <x:si>
+    <x:t>544</x:t>
+  </x:si>
+  <x:si>
+    <x:t>510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14629</x:t>
+  </x:si>
+  <x:si>
+    <x:t>118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9774</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>547</x:t>
+  </x:si>
+  <x:si>
+    <x:t>522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14820</x:t>
+  </x:si>
+  <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
   </x:si>
   <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
+    <x:t>1365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>492</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>494</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>775</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1859</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2981</x:t>
+  </x:si>
+  <x:si>
     <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1863</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1943</x:t>
+  </x:si>
+  <x:si>
+    <x:t>234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2057</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>237</x:t>
+  </x:si>
+  <x:si>
+    <x:t>299</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4718</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -79,7 +412,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,###,##0"/>
+    <x:numFmt numFmtId="164" formatCode="#,###,##0"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -129,13 +462,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -144,7 +477,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -152,7 +485,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -447,7 +780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -497,26 +830,26 @@
       <x:c r="B2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="n">
-        <x:v>9543</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="n">
-        <x:v>4906</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="n">
-        <x:v>311</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="n">
-        <x:v>1069</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="n">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="n">
-        <x:v>5374</x:v>
-      </x:c>
-      <x:c r="I2" s="1" t="n">
-        <x:v>21223</x:v>
+      <x:c r="C2" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -524,28 +857,28 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="n">
-        <x:v>709</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="n">
-        <x:v>345</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="n">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="n">
-        <x:v>285</x:v>
-      </x:c>
-      <x:c r="I3" s="1" t="n">
-        <x:v>1419</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -553,550 +886,550 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="n">
-        <x:v>10252</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="n">
-        <x:v>5251</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="n">
-        <x:v>325</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="n">
-        <x:v>1134</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="n">
-        <x:v>5659</x:v>
-      </x:c>
-      <x:c r="I4" s="1" t="n">
-        <x:v>22642</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="I4" s="1" t="s">
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C5" s="1" t="n">
+      <x:c r="C5" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H5" s="1" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D5" s="1" t="n">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H5" s="1" t="n">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I5" s="1" t="n">
-        <x:v>149</x:v>
+      <x:c r="I5" s="1" t="s">
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="n">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="n">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F6" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H6" s="1" t="n">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I6" s="1" t="n">
-        <x:v>269</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H6" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I6" s="1" t="s">
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="n">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="n">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="E7" s="1" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F7" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H7" s="1" t="n">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I7" s="1" t="n">
-        <x:v>418</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H7" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I7" s="1" t="s">
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C8" s="1" t="n">
-        <x:v>1884</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="n">
-        <x:v>1035</x:v>
-      </x:c>
-      <x:c r="E8" s="1" t="n">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F8" s="1" t="n">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="H8" s="1" t="n">
-        <x:v>344</x:v>
-      </x:c>
-      <x:c r="I8" s="1" t="n">
-        <x:v>3477</x:v>
+      <x:c r="C8" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G8" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H8" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I8" s="1" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="n">
-        <x:v>443</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="n">
-        <x:v>475</x:v>
-      </x:c>
-      <x:c r="E9" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F9" s="1" t="n">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H9" s="1" t="n">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="I9" s="1" t="n">
-        <x:v>1072</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G9" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="I9" s="1" t="s">
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="n">
-        <x:v>2327</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="n">
-        <x:v>1510</x:v>
-      </x:c>
-      <x:c r="E10" s="1" t="n">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F10" s="1" t="n">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="G10" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="H10" s="1" t="n">
-        <x:v>457</x:v>
-      </x:c>
-      <x:c r="I10" s="1" t="n">
-        <x:v>4549</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F10" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G10" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H10" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I10" s="1" t="s">
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C11" s="1" t="n">
-        <x:v>9580</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="n">
-        <x:v>1799</x:v>
-      </x:c>
-      <x:c r="E11" s="1" t="n">
-        <x:v>542</x:v>
-      </x:c>
-      <x:c r="F11" s="1" t="n">
-        <x:v>506</x:v>
-      </x:c>
-      <x:c r="G11" s="1" t="n">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H11" s="1" t="n">
-        <x:v>2046</x:v>
-      </x:c>
-      <x:c r="I11" s="1" t="n">
-        <x:v>14499</x:v>
+      <x:c r="C11" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F11" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G11" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H11" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I11" s="1" t="s">
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C12" s="1" t="n">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D12" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E12" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F12" s="1" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G12" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H12" s="1" t="n">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="I12" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F12" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G12" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H12" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="I12" s="1" t="s">
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="n">
-        <x:v>9697</x:v>
-      </x:c>
-      <x:c r="D13" s="1" t="n">
-        <x:v>1808</x:v>
-      </x:c>
-      <x:c r="E13" s="1" t="n">
-        <x:v>545</x:v>
-      </x:c>
-      <x:c r="F13" s="1" t="n">
-        <x:v>518</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="n">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H13" s="1" t="n">
-        <x:v>2093</x:v>
-      </x:c>
-      <x:c r="I13" s="1" t="n">
-        <x:v>14688</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="F13" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="G13" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H13" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="I13" s="1" t="s">
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C14" s="1" t="n">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D14" s="1" t="n">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E14" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F14" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G14" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H14" s="1" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I14" s="1" t="n">
-        <x:v>116</x:v>
+      <x:c r="C14" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="F14" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G14" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H14" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="I14" s="1" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C15" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D15" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E15" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F15" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H15" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I15" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C15" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F15" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G15" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H15" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I15" s="1" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C16" s="1" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C16" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="n">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E16" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F16" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G16" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H16" s="1" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I16" s="1" t="n">
-        <x:v>117</x:v>
+      <x:c r="E16" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="F16" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G16" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="I16" s="1" t="s">
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C17" s="1" t="n">
-        <x:v>1357</x:v>
-      </x:c>
-      <x:c r="D17" s="1" t="n">
-        <x:v>258</x:v>
-      </x:c>
-      <x:c r="E17" s="1" t="n">
+      <x:c r="C17" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F17" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="G17" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="F17" s="1" t="n">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G17" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H17" s="1" t="n">
-        <x:v>488</x:v>
-      </x:c>
-      <x:c r="I17" s="1" t="n">
-        <x:v>2192</x:v>
+      <x:c r="H17" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="I17" s="1" t="s">
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C18" s="1" t="n">
-        <x:v>493</x:v>
-      </x:c>
-      <x:c r="D18" s="1" t="n">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E18" s="1" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F18" s="1" t="n">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G18" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H18" s="1" t="n">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="I18" s="1" t="n">
-        <x:v>769</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F18" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H18" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="I18" s="1" t="s">
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C19" s="1" t="n">
-        <x:v>1850</x:v>
-      </x:c>
-      <x:c r="D19" s="1" t="n">
-        <x:v>303</x:v>
-      </x:c>
-      <x:c r="E19" s="1" t="n">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="F19" s="1" t="n">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G19" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H19" s="1" t="n">
-        <x:v>679</x:v>
-      </x:c>
-      <x:c r="I19" s="1" t="n">
-        <x:v>2961</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C19" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F19" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="G19" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H19" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I19" s="1" t="s">
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C20" s="1" t="n">
-        <x:v>1838</x:v>
-      </x:c>
-      <x:c r="D20" s="1" t="n">
-        <x:v>1917</x:v>
-      </x:c>
-      <x:c r="E20" s="1" t="n">
+      <x:c r="C20" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="F20" s="1" t="n">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="G20" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H20" s="1" t="n">
-        <x:v>266</x:v>
-      </x:c>
-      <x:c r="I20" s="1" t="n">
-        <x:v>4359</x:v>
+      <x:c r="D20" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F20" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H20" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="I20" s="1" t="s">
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C21" s="1" t="n">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="D21" s="1" t="n">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E21" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F21" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G21" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H21" s="1" t="n">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="n">
-        <x:v>286</x:v>
+      <x:c r="C21" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E21" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="F21" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G21" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H21" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="I21" s="1" t="s">
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C22" s="1" t="n">
-        <x:v>1975</x:v>
-      </x:c>
-      <x:c r="D22" s="1" t="n">
-        <x:v>2028</x:v>
-      </x:c>
-      <x:c r="E22" s="1" t="n">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="n">
-        <x:v>225</x:v>
-      </x:c>
-      <x:c r="G22" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H22" s="1" t="n">
-        <x:v>294</x:v>
-      </x:c>
-      <x:c r="I22" s="1" t="n">
-        <x:v>4645</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C22" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="F22" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="G22" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H22" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="I22" s="1" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,25 +49,25 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>9611</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4941</x:t>
+    <x:t>9615</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4944</x:t>
   </x:si>
   <x:si>
     <x:t>312</x:t>
   </x:si>
   <x:si>
-    <x:t>1072</x:t>
+    <x:t>1071</x:t>
   </x:si>
   <x:si>
     <x:t>20</x:t>
   </x:si>
   <x:si>
-    <x:t>5385</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21341</x:t>
+    <x:t>5387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21349</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,25 +97,25 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>10326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5288</x:t>
+    <x:t>10330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5291</x:t>
   </x:si>
   <x:si>
     <x:t>326</x:t>
   </x:si>
   <x:si>
-    <x:t>1139</x:t>
+    <x:t>1138</x:t>
   </x:si>
   <x:si>
     <x:t>21</x:t>
   </x:si>
   <x:si>
-    <x:t>5674</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22774</x:t>
+    <x:t>5676</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22782</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -175,7 +175,7 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>1897</x:t>
+    <x:t>1898</x:t>
   </x:si>
   <x:si>
     <x:t>1040</x:t>
@@ -184,7 +184,7 @@
     <x:t>45</x:t>
   </x:si>
   <x:si>
-    <x:t>163</x:t>
+    <x:t>164</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
@@ -193,13 +193,13 @@
     <x:t>352</x:t>
   </x:si>
   <x:si>
-    <x:t>3506</x:t>
+    <x:t>3508</x:t>
   </x:si>
   <x:si>
     <x:t>450</x:t>
   </x:si>
   <x:si>
-    <x:t>482</x:t>
+    <x:t>483</x:t>
   </x:si>
   <x:si>
     <x:t>15</x:t>
@@ -208,169 +208,166 @@
     <x:t>32</x:t>
   </x:si>
   <x:si>
+    <x:t>118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1098</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2348</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>470</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4606</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Driving Under the Influence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9662</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1810</x:t>
+  </x:si>
+  <x:si>
+    <x:t>544</x:t>
+  </x:si>
+  <x:si>
+    <x:t>510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14635</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9780</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>547</x:t>
+  </x:si>
+  <x:si>
+    <x:t>522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14826</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Family Offenses, Nonviolent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liquor Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>495</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>779</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1862</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>692</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1864</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1943</x:t>
+  </x:si>
+  <x:si>
     <x:t>116</x:t>
   </x:si>
   <x:si>
-    <x:t>1095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2347</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>468</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4601</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Driving Under the Influence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9656</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1810</x:t>
-  </x:si>
-  <x:si>
-    <x:t>544</x:t>
-  </x:si>
-  <x:si>
-    <x:t>510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14629</x:t>
-  </x:si>
-  <x:si>
-    <x:t>118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9774</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1819</x:t>
-  </x:si>
-  <x:si>
-    <x:t>547</x:t>
-  </x:si>
-  <x:si>
-    <x:t>522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14820</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Family Offenses, Nonviolent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liquor Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1365</x:t>
-  </x:si>
-  <x:si>
-    <x:t>258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>492</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2206</x:t>
-  </x:si>
-  <x:si>
-    <x:t>494</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>775</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1859</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>686</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2981</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trespass of Real Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1863</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1943</x:t>
-  </x:si>
-  <x:si>
     <x:t>234</x:t>
   </x:si>
   <x:si>
     <x:t>270</x:t>
   </x:si>
   <x:si>
-    <x:t>4428</x:t>
+    <x:t>4429</x:t>
   </x:si>
   <x:si>
     <x:t>137</x:t>
@@ -388,7 +385,7 @@
     <x:t>290</x:t>
   </x:si>
   <x:si>
-    <x:t>2000</x:t>
+    <x:t>2001</x:t>
   </x:si>
   <x:si>
     <x:t>2057</x:t>
@@ -403,7 +400,7 @@
     <x:t>299</x:t>
   </x:si>
   <x:si>
-    <x:t>4718</x:t>
+    <x:t>4719</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1121,7 +1118,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
         <x:v>57</x:v>
@@ -1130,16 +1127,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="I12" s="1" t="s">
         <x:v>82</x:v>
-      </x:c>
-      <x:c r="I12" s="1" t="s">
-        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -1150,59 +1147,59 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="E13" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>86</x:v>
-      </x:c>
-      <x:c r="F13" s="1" t="s">
-        <x:v>87</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I13" s="1" t="s">
         <x:v>88</x:v>
-      </x:c>
-      <x:c r="I13" s="1" t="s">
-        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="F14" s="1" t="s">
         <x:v>92</x:v>
-      </x:c>
-      <x:c r="F14" s="1" t="s">
-        <x:v>93</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>18</x:v>
@@ -1231,71 +1228,71 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="F16" s="1" t="s">
         <x:v>92</x:v>
-      </x:c>
-      <x:c r="F16" s="1" t="s">
-        <x:v>93</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="D17" s="1" t="s">
+      <x:c r="E17" s="1" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="E17" s="1" t="s">
+      <x:c r="F17" s="1" t="s">
         <x:v>99</x:v>
-      </x:c>
-      <x:c r="F17" s="1" t="s">
-        <x:v>100</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="I17" s="1" t="s">
         <x:v>101</x:v>
-      </x:c>
-      <x:c r="I17" s="1" t="s">
-        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
         <x:v>55</x:v>
@@ -1304,91 +1301,91 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="D19" s="1" t="s">
+      <x:c r="F19" s="1" t="s">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="E19" s="1" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="F19" s="1" t="s">
-        <x:v>110</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
+      <x:c r="F20" s="1" t="s">
         <x:v>115</x:v>
-      </x:c>
-      <x:c r="E20" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="F20" s="1" t="s">
-        <x:v>116</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I20" s="1" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="I20" s="1" t="s">
-        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="E21" s="1" t="s">
         <x:v>120</x:v>
-      </x:c>
-      <x:c r="E21" s="1" t="s">
-        <x:v>121</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
         <x:v>38</x:v>
@@ -1397,39 +1394,39 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="I21" s="1" t="s">
         <x:v>122</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="s">
-        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
+      <x:c r="F22" s="1" t="s">
         <x:v>126</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>127</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="I22" s="1" t="s">
         <x:v>128</x:v>
-      </x:c>
-      <x:c r="I22" s="1" t="s">
-        <x:v>129</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,31 +49,31 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>9615</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4944</x:t>
+    <x:t>9622</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4946</x:t>
   </x:si>
   <x:si>
     <x:t>312</x:t>
   </x:si>
   <x:si>
-    <x:t>1071</x:t>
+    <x:t>1076</x:t>
   </x:si>
   <x:si>
     <x:t>20</x:t>
   </x:si>
   <x:si>
-    <x:t>5387</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21349</x:t>
+    <x:t>5391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21367</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
-    <x:t>715</x:t>
+    <x:t>717</x:t>
   </x:si>
   <x:si>
     <x:t>347</x:t>
@@ -82,7 +82,7 @@
     <x:t>14</x:t>
   </x:si>
   <x:si>
-    <x:t>67</x:t>
+    <x:t>68</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -91,31 +91,31 @@
     <x:t>289</x:t>
   </x:si>
   <x:si>
-    <x:t>1433</x:t>
+    <x:t>1436</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>10330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5291</x:t>
+    <x:t>10339</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5293</x:t>
   </x:si>
   <x:si>
     <x:t>326</x:t>
   </x:si>
   <x:si>
-    <x:t>1138</x:t>
+    <x:t>1144</x:t>
   </x:si>
   <x:si>
     <x:t>21</x:t>
   </x:si>
   <x:si>
-    <x:t>5676</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22782</x:t>
+    <x:t>5680</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22803</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -175,10 +175,10 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>1898</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1040</x:t>
+    <x:t>1900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1041</x:t>
   </x:si>
   <x:si>
     <x:t>45</x:t>
@@ -190,127 +190,133 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3508</x:t>
-  </x:si>
-  <x:si>
-    <x:t>450</x:t>
-  </x:si>
-  <x:si>
-    <x:t>483</x:t>
+    <x:t>353</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>485</x:t>
   </x:si>
   <x:si>
     <x:t>15</x:t>
   </x:si>
   <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>472</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Driving Under the Influence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9676</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1811</x:t>
+  </x:si>
+  <x:si>
+    <x:t>544</x:t>
+  </x:si>
+  <x:si>
+    <x:t>511</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14653</x:t>
+  </x:si>
+  <x:si>
+    <x:t>118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1820</x:t>
+  </x:si>
+  <x:si>
+    <x:t>547</x:t>
+  </x:si>
+  <x:si>
+    <x:t>523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Family Offenses, Nonviolent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1098</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2348</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>196</x:t>
-  </x:si>
-  <x:si>
-    <x:t>470</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4606</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Driving Under the Influence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9662</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1810</x:t>
-  </x:si>
-  <x:si>
-    <x:t>544</x:t>
-  </x:si>
-  <x:si>
-    <x:t>510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14635</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9780</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1819</x:t>
-  </x:si>
-  <x:si>
-    <x:t>547</x:t>
-  </x:si>
-  <x:si>
-    <x:t>522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14826</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Family Offenses, Nonviolent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>8</x:t>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
   </x:si>
   <x:si>
     <x:t>63</x:t>
   </x:si>
   <x:si>
-    <x:t>119</x:t>
+    <x:t>121</x:t>
   </x:si>
   <x:si>
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>1367</x:t>
+    <x:t>1372</x:t>
   </x:si>
   <x:si>
     <x:t>258</x:t>
   </x:si>
   <x:si>
-    <x:t>38</x:t>
+    <x:t>39</x:t>
   </x:si>
   <x:si>
     <x:t>51</x:t>
@@ -319,43 +325,37 @@
     <x:t>495</x:t>
   </x:si>
   <x:si>
-    <x:t>2211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
+    <x:t>2217</x:t>
   </x:si>
   <x:si>
     <x:t>197</x:t>
   </x:si>
   <x:si>
-    <x:t>779</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1862</x:t>
+    <x:t>780</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1867</x:t>
   </x:si>
   <x:si>
     <x:t>303</x:t>
   </x:si>
   <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
+    <x:t>85</x:t>
   </x:si>
   <x:si>
     <x:t>692</x:t>
   </x:si>
   <x:si>
-    <x:t>2990</x:t>
+    <x:t>2997</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
   </x:si>
   <x:si>
-    <x:t>1864</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1943</x:t>
+    <x:t>1865</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1949</x:t>
   </x:si>
   <x:si>
     <x:t>116</x:t>
@@ -367,7 +367,7 @@
     <x:t>270</x:t>
   </x:si>
   <x:si>
-    <x:t>4429</x:t>
+    <x:t>4436</x:t>
   </x:si>
   <x:si>
     <x:t>137</x:t>
@@ -385,10 +385,10 @@
     <x:t>290</x:t>
   </x:si>
   <x:si>
-    <x:t>2001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2057</x:t>
+    <x:t>2002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2063</x:t>
   </x:si>
   <x:si>
     <x:t>123</x:t>
@@ -400,7 +400,7 @@
     <x:t>299</x:t>
   </x:si>
   <x:si>
-    <x:t>4719</x:t>
+    <x:t>4726</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1069,56 +1069,56 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="I10" s="1" t="s">
         <x:v>70</x:v>
-      </x:c>
-      <x:c r="I10" s="1" t="s">
-        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="D11" s="1" t="s">
+      <x:c r="E11" s="1" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="E11" s="1" t="s">
+      <x:c r="F11" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="F11" s="1" t="s">
+      <x:c r="G11" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="G11" s="1" t="s">
+      <x:c r="H11" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="H11" s="1" t="s">
+      <x:c r="I11" s="1" t="s">
         <x:v>78</x:v>
-      </x:c>
-      <x:c r="I11" s="1" t="s">
-        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
         <x:v>57</x:v>
@@ -1141,7 +1141,7 @@
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>26</x:v>
@@ -1179,22 +1179,22 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -1234,65 +1234,65 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
         <x:v>55</x:v>
@@ -1301,33 +1301,33 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
         <x:v>108</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>9622</x:t>
+    <x:t>9650</x:t>
   </x:si>
   <x:si>
     <x:t>4946</x:t>
@@ -58,25 +58,25 @@
     <x:t>312</x:t>
   </x:si>
   <x:si>
-    <x:t>1076</x:t>
+    <x:t>1077</x:t>
   </x:si>
   <x:si>
     <x:t>20</x:t>
   </x:si>
   <x:si>
-    <x:t>5391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21367</x:t>
+    <x:t>5394</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21399</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
-    <x:t>717</x:t>
-  </x:si>
-  <x:si>
-    <x:t>347</x:t>
+    <x:t>720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>348</x:t>
   </x:si>
   <x:si>
     <x:t>14</x:t>
@@ -88,34 +88,34 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>289</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1436</x:t>
+    <x:t>291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1442</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>10339</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5293</x:t>
+    <x:t>10370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5294</x:t>
   </x:si>
   <x:si>
     <x:t>326</x:t>
   </x:si>
   <x:si>
-    <x:t>1144</x:t>
+    <x:t>1145</x:t>
   </x:si>
   <x:si>
     <x:t>21</x:t>
   </x:si>
   <x:si>
-    <x:t>5680</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22803</x:t>
+    <x:t>5685</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22841</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -184,16 +184,16 @@
     <x:t>45</x:t>
   </x:si>
   <x:si>
-    <x:t>164</x:t>
+    <x:t>166</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>353</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3512</x:t>
+    <x:t>355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3516</x:t>
   </x:si>
   <x:si>
     <x:t>451</x:t>
@@ -223,34 +223,37 @@
     <x:t>60</x:t>
   </x:si>
   <x:si>
-    <x:t>472</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4616</x:t>
+    <x:t>200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>474</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4620</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>9676</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1811</x:t>
+    <x:t>9681</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1812</x:t>
   </x:si>
   <x:si>
     <x:t>544</x:t>
   </x:si>
   <x:si>
-    <x:t>511</x:t>
+    <x:t>510</x:t>
   </x:si>
   <x:si>
     <x:t>26</x:t>
   </x:si>
   <x:si>
-    <x:t>2085</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14653</x:t>
+    <x:t>2086</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14659</x:t>
   </x:si>
   <x:si>
     <x:t>118</x:t>
@@ -265,22 +268,22 @@
     <x:t>191</x:t>
   </x:si>
   <x:si>
-    <x:t>9794</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1820</x:t>
+    <x:t>9799</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1821</x:t>
   </x:si>
   <x:si>
     <x:t>547</x:t>
   </x:si>
   <x:si>
-    <x:t>523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14844</x:t>
+    <x:t>522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14850</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -1069,56 +1072,56 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I10" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I11" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
         <x:v>57</x:v>
@@ -1127,62 +1130,62 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I12" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I13" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
         <x:v>57</x:v>
@@ -1191,15 +1194,15 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>18</x:v>
@@ -1228,19 +1231,19 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
         <x:v>57</x:v>
@@ -1249,50 +1252,50 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
         <x:v>55</x:v>
@@ -1307,85 +1310,85 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
         <x:v>38</x:v>
@@ -1394,39 +1397,39 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>9650</x:t>
+    <x:t>9651</x:t>
   </x:si>
   <x:si>
     <x:t>4946</x:t>
@@ -64,16 +64,16 @@
     <x:t>20</x:t>
   </x:si>
   <x:si>
-    <x:t>5394</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21399</x:t>
+    <x:t>5395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21401</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
-    <x:t>720</x:t>
+    <x:t>721</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
@@ -82,7 +82,7 @@
     <x:t>14</x:t>
   </x:si>
   <x:si>
-    <x:t>68</x:t>
+    <x:t>69</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -91,13 +91,13 @@
     <x:t>291</x:t>
   </x:si>
   <x:si>
-    <x:t>1442</x:t>
+    <x:t>1444</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>10370</x:t>
+    <x:t>10372</x:t>
   </x:si>
   <x:si>
     <x:t>5294</x:t>
@@ -106,16 +106,16 @@
     <x:t>326</x:t>
   </x:si>
   <x:si>
-    <x:t>1145</x:t>
+    <x:t>1146</x:t>
   </x:si>
   <x:si>
     <x:t>21</x:t>
   </x:si>
   <x:si>
-    <x:t>5685</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22841</x:t>
+    <x:t>5686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22845</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -175,7 +175,7 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>1900</x:t>
+    <x:t>1902</x:t>
   </x:si>
   <x:si>
     <x:t>1041</x:t>
@@ -193,7 +193,7 @@
     <x:t>355</x:t>
   </x:si>
   <x:si>
-    <x:t>3516</x:t>
+    <x:t>3518</x:t>
   </x:si>
   <x:si>
     <x:t>451</x:t>
@@ -214,7 +214,7 @@
     <x:t>1104</x:t>
   </x:si>
   <x:si>
-    <x:t>2351</x:t>
+    <x:t>2353</x:t>
   </x:si>
   <x:si>
     <x:t>1526</x:t>
@@ -229,13 +229,13 @@
     <x:t>474</x:t>
   </x:si>
   <x:si>
-    <x:t>4620</x:t>
+    <x:t>4622</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>9681</x:t>
+    <x:t>9684</x:t>
   </x:si>
   <x:si>
     <x:t>1812</x:t>
@@ -244,7 +244,7 @@
     <x:t>544</x:t>
   </x:si>
   <x:si>
-    <x:t>510</x:t>
+    <x:t>511</x:t>
   </x:si>
   <x:si>
     <x:t>26</x:t>
@@ -253,7 +253,7 @@
     <x:t>2086</x:t>
   </x:si>
   <x:si>
-    <x:t>14659</x:t>
+    <x:t>14663</x:t>
   </x:si>
   <x:si>
     <x:t>118</x:t>
@@ -268,7 +268,7 @@
     <x:t>191</x:t>
   </x:si>
   <x:si>
-    <x:t>9799</x:t>
+    <x:t>9802</x:t>
   </x:si>
   <x:si>
     <x:t>1821</x:t>
@@ -277,13 +277,13 @@
     <x:t>547</x:t>
   </x:si>
   <x:si>
-    <x:t>522</x:t>
+    <x:t>523</x:t>
   </x:si>
   <x:si>
     <x:t>2134</x:t>
   </x:si>
   <x:si>
-    <x:t>14850</x:t>
+    <x:t>14854</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,361 +49,373 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>9651</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4946</x:t>
-  </x:si>
-  <x:si>
-    <x:t>312</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5395</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21401</x:t>
+    <x:t>10340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5898</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23141</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
-    <x:t>721</x:t>
+    <x:t>767</x:t>
+  </x:si>
+  <x:si>
+    <x:t>371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1537</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5741</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
   </x:si>
   <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1444</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10372</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1146</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5686</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22845</x:t>
+    <x:t>1252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24678</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75</x:t>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>198</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155</x:t>
+    <x:t>281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>168</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Disorderly Conduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3766</x:t>
+  </x:si>
+  <x:si>
+    <x:t>473</x:t>
+  </x:si>
+  <x:si>
+    <x:t>507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2494</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1625</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4919</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Driving Under the Influence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10475</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1961</x:t>
+  </x:si>
+  <x:si>
+    <x:t>585</x:t>
+  </x:si>
+  <x:si>
+    <x:t>551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15852</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10603</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1970</x:t>
+  </x:si>
+  <x:si>
+    <x:t>588</x:t>
+  </x:si>
+  <x:si>
+    <x:t>563</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Family Offenses, Nonviolent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liquor Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1439</x:t>
+  </x:si>
+  <x:si>
+    <x:t>273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>548</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>521</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>812</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1960</x:t>
+  </x:si>
+  <x:si>
+    <x:t>319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>747</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4863</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>422</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Disorderly Conduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1902</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1041</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>355</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3518</x:t>
-  </x:si>
-  <x:si>
-    <x:t>451</x:t>
-  </x:si>
-  <x:si>
-    <x:t>485</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2353</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>474</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4622</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Driving Under the Influence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9684</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1812</x:t>
-  </x:si>
-  <x:si>
-    <x:t>544</x:t>
-  </x:si>
-  <x:si>
-    <x:t>511</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2086</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14663</x:t>
-  </x:si>
-  <x:si>
-    <x:t>118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9802</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1821</x:t>
-  </x:si>
-  <x:si>
-    <x:t>547</x:t>
-  </x:si>
-  <x:si>
-    <x:t>523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14854</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Family Offenses, Nonviolent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liquor Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1372</x:t>
-  </x:si>
-  <x:si>
-    <x:t>258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>495</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>197</x:t>
-  </x:si>
-  <x:si>
-    <x:t>780</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1867</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>692</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2997</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trespass of Real Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1865</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1949</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>270</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4436</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>290</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2063</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>237</x:t>
-  </x:si>
-  <x:si>
-    <x:t>299</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4726</x:t>
+    <x:t>308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5171</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -953,19 +965,19 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I6" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -976,233 +988,233 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G7" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I7" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I8" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G9" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I9" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I10" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I11" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I12" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I13" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>18</x:v>
@@ -1231,205 +1243,205 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F16" s="1" t="s">
         <x:v>96</x:v>
-      </x:c>
-      <x:c r="D16" s="1" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="E16" s="1" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="F16" s="1" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
-        <x:v>126</x:v>
-      </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,31 +49,31 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10340</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5370</x:t>
+    <x:t>10352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5376</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
   </x:si>
   <x:si>
-    <x:t>1177</x:t>
+    <x:t>1178</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>5898</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23141</x:t>
+    <x:t>5899</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23161</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
-    <x:t>767</x:t>
+    <x:t>768</x:t>
   </x:si>
   <x:si>
     <x:t>371</x:t>
@@ -91,31 +91,31 @@
     <x:t>309</x:t>
   </x:si>
   <x:si>
-    <x:t>1537</x:t>
+    <x:t>1538</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5741</x:t>
+    <x:t>11120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5747</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
   </x:si>
   <x:si>
-    <x:t>1252</x:t>
+    <x:t>1253</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>6207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24678</x:t>
+    <x:t>6208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24699</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -178,7 +178,7 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>2021</x:t>
+    <x:t>2022</x:t>
   </x:si>
   <x:si>
     <x:t>1118</x:t>
@@ -196,13 +196,13 @@
     <x:t>385</x:t>
   </x:si>
   <x:si>
-    <x:t>3766</x:t>
+    <x:t>3767</x:t>
   </x:si>
   <x:si>
     <x:t>473</x:t>
   </x:si>
   <x:si>
-    <x:t>507</x:t>
+    <x:t>509</x:t>
   </x:si>
   <x:si>
     <x:t>15</x:t>
@@ -214,13 +214,13 @@
     <x:t>124</x:t>
   </x:si>
   <x:si>
-    <x:t>1153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2494</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1625</x:t>
+    <x:t>1155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2495</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1627</x:t>
   </x:si>
   <x:si>
     <x:t>63</x:t>
@@ -229,25 +229,22 @@
     <x:t>218</x:t>
   </x:si>
   <x:si>
-    <x:t>509</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4919</x:t>
+    <x:t>4922</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10475</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1961</x:t>
+    <x:t>10479</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1962</x:t>
   </x:si>
   <x:si>
     <x:t>585</x:t>
   </x:si>
   <x:si>
-    <x:t>551</x:t>
+    <x:t>552</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
@@ -256,7 +253,7 @@
     <x:t>2252</x:t>
   </x:si>
   <x:si>
-    <x:t>15852</x:t>
+    <x:t>15858</x:t>
   </x:si>
   <x:si>
     <x:t>128</x:t>
@@ -274,16 +271,16 @@
     <x:t>204</x:t>
   </x:si>
   <x:si>
-    <x:t>10603</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1970</x:t>
+    <x:t>10607</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1971</x:t>
   </x:si>
   <x:si>
     <x:t>588</x:t>
   </x:si>
   <x:si>
-    <x:t>563</x:t>
+    <x:t>564</x:t>
   </x:si>
   <x:si>
     <x:t>29</x:t>
@@ -292,37 +289,34 @@
     <x:t>2303</x:t>
   </x:si>
   <x:si>
-    <x:t>16056</x:t>
+    <x:t>16062</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
   </x:si>
   <x:si>
-    <x:t>67</x:t>
+    <x:t>68</x:t>
   </x:si>
   <x:si>
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
     <x:t>16</x:t>
   </x:si>
   <x:si>
-    <x:t>133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
+    <x:t>135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>136</x:t>
   </x:si>
   <x:si>
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>1439</x:t>
+    <x:t>1442</x:t>
   </x:si>
   <x:si>
     <x:t>273</x:t>
@@ -337,10 +331,10 @@
     <x:t>548</x:t>
   </x:si>
   <x:si>
-    <x:t>2360</x:t>
-  </x:si>
-  <x:si>
-    <x:t>521</x:t>
+    <x:t>2363</x:t>
+  </x:si>
+  <x:si>
+    <x:t>525</x:t>
   </x:si>
   <x:si>
     <x:t>46</x:t>
@@ -352,10 +346,10 @@
     <x:t>199</x:t>
   </x:si>
   <x:si>
-    <x:t>812</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1960</x:t>
+    <x:t>816</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1967</x:t>
   </x:si>
   <x:si>
     <x:t>319</x:t>
@@ -367,16 +361,16 @@
     <x:t>747</x:t>
   </x:si>
   <x:si>
-    <x:t>3172</x:t>
+    <x:t>3179</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
   </x:si>
   <x:si>
-    <x:t>2017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2153</x:t>
+    <x:t>2023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2159</x:t>
   </x:si>
   <x:si>
     <x:t>140</x:t>
@@ -388,7 +382,7 @@
     <x:t>293</x:t>
   </x:si>
   <x:si>
-    <x:t>4863</x:t>
+    <x:t>4875</x:t>
   </x:si>
   <x:si>
     <x:t>146</x:t>
@@ -400,22 +394,22 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>308</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2273</x:t>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2279</x:t>
   </x:si>
   <x:si>
     <x:t>263</x:t>
   </x:si>
   <x:si>
-    <x:t>324</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5171</x:t>
+    <x:t>325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5184</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1090,131 +1084,131 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I10" s="1" t="s">
         <x:v>71</x:v>
-      </x:c>
-      <x:c r="I10" s="1" t="s">
-        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D11" s="1" t="s">
+      <x:c r="E11" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="E11" s="1" t="s">
+      <x:c r="F11" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="F11" s="1" t="s">
+      <x:c r="G11" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="G11" s="1" t="s">
+      <x:c r="H11" s="1" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="H11" s="1" t="s">
+      <x:c r="I11" s="1" t="s">
         <x:v>79</x:v>
-      </x:c>
-      <x:c r="I11" s="1" t="s">
-        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="D12" s="1" t="s">
-        <x:v>82</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="I12" s="1" t="s">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="I12" s="1" t="s">
-        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="E13" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="F13" s="1" t="s">
+      <x:c r="G13" s="1" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="G13" s="1" t="s">
+      <x:c r="H13" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="H13" s="1" t="s">
+      <x:c r="I13" s="1" t="s">
         <x:v>91</x:v>
-      </x:c>
-      <x:c r="I13" s="1" t="s">
-        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
         <x:v>94</x:v>
-      </x:c>
-      <x:c r="D14" s="1" t="s">
-        <x:v>95</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>18</x:v>
@@ -1243,164 +1237,164 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D17" s="1" t="s">
+      <x:c r="F17" s="1" t="s">
         <x:v>103</x:v>
-      </x:c>
-      <x:c r="E17" s="1" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="F17" s="1" t="s">
-        <x:v>105</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E18" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F18" s="1" t="s">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="D18" s="1" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E18" s="1" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="F18" s="1" t="s">
-        <x:v>110</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="F19" s="1" t="s">
         <x:v>113</x:v>
-      </x:c>
-      <x:c r="D19" s="1" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="E19" s="1" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F19" s="1" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
+      <x:c r="F20" s="1" t="s">
         <x:v>120</x:v>
-      </x:c>
-      <x:c r="E20" s="1" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="F20" s="1" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E21" s="1" t="s">
         <x:v>125</x:v>
-      </x:c>
-      <x:c r="D21" s="1" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E21" s="1" t="s">
-        <x:v>127</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
         <x:v>49</x:v>
@@ -1409,39 +1403,39 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="F22" s="1" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="D22" s="1" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E22" s="1" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>131</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -64,10 +64,10 @@
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>5899</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23161</x:t>
+    <x:t>5900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23162</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -112,10 +112,10 @@
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>6208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24699</x:t>
+    <x:t>6209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24700</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -178,7 +178,7 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>2022</x:t>
+    <x:t>2023</x:t>
   </x:si>
   <x:si>
     <x:t>1118</x:t>
@@ -196,7 +196,7 @@
     <x:t>385</x:t>
   </x:si>
   <x:si>
-    <x:t>3767</x:t>
+    <x:t>3768</x:t>
   </x:si>
   <x:si>
     <x:t>473</x:t>
@@ -217,7 +217,7 @@
     <x:t>1155</x:t>
   </x:si>
   <x:si>
-    <x:t>2495</x:t>
+    <x:t>2496</x:t>
   </x:si>
   <x:si>
     <x:t>1627</x:t>
@@ -229,7 +229,7 @@
     <x:t>218</x:t>
   </x:si>
   <x:si>
-    <x:t>4922</x:t>
+    <x:t>4923</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
@@ -365,9 +365,6 @@
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023</x:t>
   </x:si>
   <x:si>
     <x:t>2159</x:t>
@@ -1359,25 +1356,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
+      <x:c r="E20" s="1" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="E20" s="1" t="s">
+      <x:c r="F20" s="1" t="s">
         <x:v>119</x:v>
-      </x:c>
-      <x:c r="F20" s="1" t="s">
-        <x:v>120</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="I20" s="1" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="I20" s="1" t="s">
-        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1388,13 +1385,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="E21" s="1" t="s">
         <x:v>124</x:v>
-      </x:c>
-      <x:c r="E21" s="1" t="s">
-        <x:v>125</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
         <x:v>49</x:v>
@@ -1403,7 +1400,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
         <x:v>24</x:v>
@@ -1417,25 +1414,25 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="F22" s="1" t="s">
         <x:v>128</x:v>
-      </x:c>
-      <x:c r="E22" s="1" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>129</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="I22" s="1" t="s">
         <x:v>130</x:v>
-      </x:c>
-      <x:c r="I22" s="1" t="s">
-        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,31 +49,31 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10352</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5376</x:t>
+    <x:t>10380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5383</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
   </x:si>
   <x:si>
-    <x:t>1178</x:t>
+    <x:t>1179</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>5900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23162</x:t>
+    <x:t>5911</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23209</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
-    <x:t>768</x:t>
+    <x:t>769</x:t>
   </x:si>
   <x:si>
     <x:t>371</x:t>
@@ -91,31 +91,31 @@
     <x:t>309</x:t>
   </x:si>
   <x:si>
-    <x:t>1538</x:t>
+    <x:t>1539</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5747</x:t>
+    <x:t>11149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5754</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
   </x:si>
   <x:si>
-    <x:t>1253</x:t>
+    <x:t>1254</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>6209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24700</x:t>
+    <x:t>6220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24748</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -145,7 +145,7 @@
     <x:t>161</x:t>
   </x:si>
   <x:si>
-    <x:t>87</x:t>
+    <x:t>84</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
@@ -154,13 +154,13 @@
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>281</x:t>
+    <x:t>278</x:t>
   </x:si>
   <x:si>
     <x:t>202</x:t>
   </x:si>
   <x:si>
-    <x:t>168</x:t>
+    <x:t>165</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -172,13 +172,13 @@
     <x:t>58</x:t>
   </x:si>
   <x:si>
-    <x:t>440</x:t>
+    <x:t>437</x:t>
   </x:si>
   <x:si>
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>2023</x:t>
+    <x:t>2028</x:t>
   </x:si>
   <x:si>
     <x:t>1118</x:t>
@@ -193,49 +193,49 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>385</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3768</x:t>
+    <x:t>388</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3776</x:t>
   </x:si>
   <x:si>
     <x:t>473</x:t>
   </x:si>
   <x:si>
-    <x:t>509</x:t>
+    <x:t>512</x:t>
   </x:si>
   <x:si>
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>34</x:t>
+    <x:t>35</x:t>
   </x:si>
   <x:si>
     <x:t>124</x:t>
   </x:si>
   <x:si>
-    <x:t>1155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2496</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1627</x:t>
+    <x:t>1159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1630</x:t>
   </x:si>
   <x:si>
     <x:t>63</x:t>
   </x:si>
   <x:si>
-    <x:t>218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4923</x:t>
+    <x:t>219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4935</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10479</x:t>
+    <x:t>10504</x:t>
   </x:si>
   <x:si>
     <x:t>1962</x:t>
@@ -250,10 +250,10 @@
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>2252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15858</x:t>
+    <x:t>2267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15898</x:t>
   </x:si>
   <x:si>
     <x:t>128</x:t>
@@ -265,109 +265,112 @@
     <x:t>12</x:t>
   </x:si>
   <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10632</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1971</x:t>
+  </x:si>
+  <x:si>
+    <x:t>588</x:t>
+  </x:si>
+  <x:si>
+    <x:t>564</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Family Offenses, Nonviolent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liquor Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1443</x:t>
+  </x:si>
+  <x:si>
+    <x:t>274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>548</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>525</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>816</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1968</x:t>
+  </x:si>
+  <x:si>
+    <x:t>320</x:t>
+  </x:si>
+  <x:si>
     <x:t>51</x:t>
   </x:si>
   <x:si>
-    <x:t>204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10607</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1971</x:t>
-  </x:si>
-  <x:si>
-    <x:t>588</x:t>
-  </x:si>
-  <x:si>
-    <x:t>564</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16062</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Family Offenses, Nonviolent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liquor Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1442</x:t>
-  </x:si>
-  <x:si>
-    <x:t>273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>548</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2363</x:t>
-  </x:si>
-  <x:si>
-    <x:t>525</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>816</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1967</x:t>
-  </x:si>
-  <x:si>
-    <x:t>319</x:t>
-  </x:si>
-  <x:si>
     <x:t>93</x:t>
   </x:si>
   <x:si>
     <x:t>747</x:t>
   </x:si>
   <x:si>
-    <x:t>3179</x:t>
+    <x:t>3181</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
   </x:si>
   <x:si>
-    <x:t>2159</x:t>
+    <x:t>2025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2163</x:t>
   </x:si>
   <x:si>
     <x:t>140</x:t>
@@ -376,10 +379,10 @@
     <x:t>258</x:t>
   </x:si>
   <x:si>
-    <x:t>293</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4875</x:t>
+    <x:t>294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4882</x:t>
   </x:si>
   <x:si>
     <x:t>146</x:t>
@@ -394,19 +397,19 @@
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>2169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2279</x:t>
+    <x:t>2171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2283</x:t>
   </x:si>
   <x:si>
     <x:t>263</x:t>
   </x:si>
   <x:si>
-    <x:t>325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5184</x:t>
+    <x:t>326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5191</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1185,7 +1188,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>38</x:v>
@@ -1197,10 +1200,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="I14" s="1" t="s">
         <x:v>95</x:v>
-      </x:c>
-      <x:c r="I14" s="1" t="s">
-        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -1240,10 +1243,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>38</x:v>
@@ -1255,85 +1258,85 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="D17" s="1" t="s">
+      <x:c r="E17" s="1" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="E17" s="1" t="s">
+      <x:c r="F17" s="1" t="s">
         <x:v>102</x:v>
-      </x:c>
-      <x:c r="F17" s="1" t="s">
-        <x:v>103</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I17" s="1" t="s">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="I17" s="1" t="s">
-        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
         <x:v>106</x:v>
-      </x:c>
-      <x:c r="D18" s="1" t="s">
-        <x:v>107</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="I18" s="1" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="I18" s="1" t="s">
-        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D19" s="1" t="s">
+      <x:c r="E19" s="1" t="s">
         <x:v>112</x:v>
-      </x:c>
-      <x:c r="E19" s="1" t="s">
-        <x:v>83</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
         <x:v>113</x:v>
@@ -1356,25 +1359,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1385,13 +1388,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
         <x:v>49</x:v>
@@ -1400,7 +1403,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
         <x:v>24</x:v>
@@ -1414,25 +1417,25 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10380</x:t>
+    <x:t>10384</x:t>
   </x:si>
   <x:si>
     <x:t>5383</x:t>
@@ -58,22 +58,22 @@
     <x:t>334</x:t>
   </x:si>
   <x:si>
-    <x:t>1179</x:t>
+    <x:t>1180</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>5911</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23209</x:t>
+    <x:t>5913</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23216</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
-    <x:t>769</x:t>
+    <x:t>770</x:t>
   </x:si>
   <x:si>
     <x:t>371</x:t>
@@ -91,13 +91,13 @@
     <x:t>309</x:t>
   </x:si>
   <x:si>
-    <x:t>1539</x:t>
+    <x:t>1540</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11149</x:t>
+    <x:t>11154</x:t>
   </x:si>
   <x:si>
     <x:t>5754</x:t>
@@ -106,16 +106,16 @@
     <x:t>348</x:t>
   </x:si>
   <x:si>
-    <x:t>1254</x:t>
+    <x:t>1255</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>6220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24748</x:t>
+    <x:t>6222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24756</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -181,7 +181,7 @@
     <x:t>2028</x:t>
   </x:si>
   <x:si>
-    <x:t>1118</x:t>
+    <x:t>1117</x:t>
   </x:si>
   <x:si>
     <x:t>48</x:t>
@@ -196,7 +196,7 @@
     <x:t>388</x:t>
   </x:si>
   <x:si>
-    <x:t>3776</x:t>
+    <x:t>3775</x:t>
   </x:si>
   <x:si>
     <x:t>473</x:t>
@@ -208,96 +208,99 @@
     <x:t>15</x:t>
   </x:si>
   <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1629</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4935</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Driving Under the Influence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1963</x:t>
+  </x:si>
+  <x:si>
+    <x:t>585</x:t>
+  </x:si>
+  <x:si>
+    <x:t>552</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15902</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10633</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1972</x:t>
+  </x:si>
+  <x:si>
+    <x:t>588</x:t>
+  </x:si>
+  <x:si>
+    <x:t>564</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Family Offenses, Nonviolent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1630</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4935</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Driving Under the Influence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10504</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1962</x:t>
-  </x:si>
-  <x:si>
-    <x:t>585</x:t>
-  </x:si>
-  <x:si>
-    <x:t>552</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2267</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15898</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10632</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1971</x:t>
-  </x:si>
-  <x:si>
-    <x:t>588</x:t>
-  </x:si>
-  <x:si>
-    <x:t>564</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2319</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Family Offenses, Nonviolent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
     <x:t>17</x:t>
   </x:si>
   <x:si>
@@ -313,10 +316,10 @@
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>1443</x:t>
-  </x:si>
-  <x:si>
-    <x:t>274</x:t>
+    <x:t>1448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276</x:t>
   </x:si>
   <x:si>
     <x:t>42</x:t>
@@ -325,13 +328,13 @@
     <x:t>56</x:t>
   </x:si>
   <x:si>
-    <x:t>548</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2365</x:t>
-  </x:si>
-  <x:si>
-    <x:t>525</x:t>
+    <x:t>549</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2373</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526</x:t>
   </x:si>
   <x:si>
     <x:t>46</x:t>
@@ -343,13 +346,13 @@
     <x:t>199</x:t>
   </x:si>
   <x:si>
-    <x:t>816</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1968</x:t>
-  </x:si>
-  <x:si>
-    <x:t>320</x:t>
+    <x:t>817</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1974</x:t>
+  </x:si>
+  <x:si>
+    <x:t>322</x:t>
   </x:si>
   <x:si>
     <x:t>51</x:t>
@@ -358,10 +361,10 @@
     <x:t>93</x:t>
   </x:si>
   <x:si>
-    <x:t>747</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3181</x:t>
+    <x:t>748</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3190</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
@@ -1188,7 +1191,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>38</x:v>
@@ -1200,10 +1203,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -1243,10 +1246,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>38</x:v>
@@ -1258,143 +1261,143 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
         <x:v>49</x:v>
@@ -1403,7 +1406,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
         <x:v>24</x:v>
@@ -1411,31 +1414,31 @@
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,25 +49,25 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10384</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5383</x:t>
+    <x:t>10390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5386</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
   </x:si>
   <x:si>
-    <x:t>1180</x:t>
+    <x:t>1181</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>5913</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23216</x:t>
+    <x:t>5915</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23228</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -88,319 +88,322 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
+    <x:t>307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1538</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>348</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24766</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Disorderly Conduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>388</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3777</x:t>
+  </x:si>
+  <x:si>
+    <x:t>473</x:t>
+  </x:si>
+  <x:si>
+    <x:t>512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1630</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4937</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Driving Under the Influence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10511</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1966</x:t>
+  </x:si>
+  <x:si>
+    <x:t>585</x:t>
+  </x:si>
+  <x:si>
+    <x:t>552</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15912</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10639</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1975</x:t>
+  </x:si>
+  <x:si>
+    <x:t>588</x:t>
+  </x:si>
+  <x:si>
+    <x:t>564</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Family Offenses, Nonviolent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liquor Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>816</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1974</x:t>
+  </x:si>
+  <x:si>
+    <x:t>322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>749</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
     <x:t>309</x:t>
   </x:si>
   <x:si>
-    <x:t>1540</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5754</x:t>
-  </x:si>
-  <x:si>
-    <x:t>348</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1255</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>437</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Disorderly Conduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>388</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3775</x:t>
-  </x:si>
-  <x:si>
-    <x:t>473</x:t>
-  </x:si>
-  <x:si>
-    <x:t>512</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1629</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4935</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Driving Under the Influence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10505</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1963</x:t>
-  </x:si>
-  <x:si>
-    <x:t>585</x:t>
-  </x:si>
-  <x:si>
-    <x:t>552</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2269</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15902</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10633</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1972</x:t>
-  </x:si>
-  <x:si>
-    <x:t>588</x:t>
-  </x:si>
-  <x:si>
-    <x:t>564</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Family Offenses, Nonviolent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liquor Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1448</x:t>
-  </x:si>
-  <x:si>
-    <x:t>276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>549</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2373</x:t>
-  </x:si>
-  <x:si>
-    <x:t>526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>817</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1974</x:t>
-  </x:si>
-  <x:si>
-    <x:t>322</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>748</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trespass of Real Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4882</x:t>
-  </x:si>
-  <x:si>
-    <x:t>146</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2171</x:t>
+    <x:t>2172</x:t>
   </x:si>
   <x:si>
     <x:t>2283</x:t>
@@ -412,7 +415,7 @@
     <x:t>326</x:t>
   </x:si>
   <x:si>
-    <x:t>5191</x:t>
+    <x:t>5192</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1409,7 +1412,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1420,25 +1423,25 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
         <x:v>124</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,31 +49,31 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10390</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5386</x:t>
+    <x:t>10399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5390</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
   </x:si>
   <x:si>
-    <x:t>1181</x:t>
+    <x:t>1182</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>5915</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23228</x:t>
+    <x:t>5922</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23249</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
-    <x:t>770</x:t>
+    <x:t>771</x:t>
   </x:si>
   <x:si>
     <x:t>371</x:t>
@@ -82,7 +82,7 @@
     <x:t>14</x:t>
   </x:si>
   <x:si>
-    <x:t>75</x:t>
+    <x:t>76</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -91,31 +91,31 @@
     <x:t>307</x:t>
   </x:si>
   <x:si>
-    <x:t>1538</x:t>
+    <x:t>1540</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5757</x:t>
+    <x:t>11170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5761</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
   </x:si>
   <x:si>
-    <x:t>1256</x:t>
+    <x:t>1258</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>6222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24766</x:t>
+    <x:t>6229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24789</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -145,7 +145,7 @@
     <x:t>161</x:t>
   </x:si>
   <x:si>
-    <x:t>84</x:t>
+    <x:t>85</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
@@ -154,13 +154,13 @@
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>278</x:t>
+    <x:t>279</x:t>
   </x:si>
   <x:si>
     <x:t>202</x:t>
   </x:si>
   <x:si>
-    <x:t>165</x:t>
+    <x:t>166</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -172,13 +172,13 @@
     <x:t>58</x:t>
   </x:si>
   <x:si>
-    <x:t>437</x:t>
+    <x:t>438</x:t>
   </x:si>
   <x:si>
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>2029</x:t>
+    <x:t>2030</x:t>
   </x:si>
   <x:si>
     <x:t>1118</x:t>
@@ -193,13 +193,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>388</x:t>
+    <x:t>387</x:t>
   </x:si>
   <x:si>
     <x:t>3777</x:t>
   </x:si>
   <x:si>
-    <x:t>473</x:t>
+    <x:t>475</x:t>
   </x:si>
   <x:si>
     <x:t>512</x:t>
@@ -214,10 +214,10 @@
     <x:t>124</x:t>
   </x:si>
   <x:si>
-    <x:t>1160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2502</x:t>
+    <x:t>1162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2505</x:t>
   </x:si>
   <x:si>
     <x:t>1630</x:t>
@@ -229,163 +229,166 @@
     <x:t>220</x:t>
   </x:si>
   <x:si>
-    <x:t>4937</x:t>
+    <x:t>511</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4939</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10511</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1966</x:t>
+    <x:t>10527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1968</x:t>
   </x:si>
   <x:si>
     <x:t>585</x:t>
   </x:si>
   <x:si>
-    <x:t>552</x:t>
+    <x:t>554</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>2270</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15912</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
+    <x:t>2277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15939</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10656</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1976</x:t>
+  </x:si>
+  <x:si>
+    <x:t>588</x:t>
+  </x:si>
+  <x:si>
+    <x:t>566</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Family Offenses, Nonviolent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liquor Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1449</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10639</x:t>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>816</x:t>
   </x:si>
   <x:si>
     <x:t>1975</x:t>
   </x:si>
   <x:si>
-    <x:t>588</x:t>
-  </x:si>
-  <x:si>
-    <x:t>564</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2322</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Family Offenses, Nonviolent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liquor Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1448</x:t>
-  </x:si>
-  <x:si>
-    <x:t>276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>551</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2376</x:t>
-  </x:si>
-  <x:si>
-    <x:t>526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>198</x:t>
-  </x:si>
-  <x:si>
-    <x:t>816</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1974</x:t>
-  </x:si>
-  <x:si>
     <x:t>322</x:t>
   </x:si>
   <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
     <x:t>94</x:t>
   </x:si>
   <x:si>
     <x:t>749</x:t>
   </x:si>
   <x:si>
-    <x:t>3192</x:t>
+    <x:t>3193</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
   </x:si>
   <x:si>
-    <x:t>2026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
+    <x:t>2164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
   </x:si>
   <x:si>
     <x:t>258</x:t>
   </x:si>
   <x:si>
-    <x:t>294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4883</x:t>
+    <x:t>295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4890</x:t>
   </x:si>
   <x:si>
     <x:t>146</x:t>
@@ -403,19 +406,22 @@
     <x:t>309</x:t>
   </x:si>
   <x:si>
-    <x:t>2172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2283</x:t>
+    <x:t>2176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2284</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
   </x:si>
   <x:si>
     <x:t>263</x:t>
   </x:si>
   <x:si>
-    <x:t>326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5192</x:t>
+    <x:t>327</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5199</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1090,131 +1096,131 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I10" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I11" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I12" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I13" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>18</x:v>
@@ -1243,164 +1249,164 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
         <x:v>49</x:v>
@@ -1409,39 +1415,39 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -52,22 +52,22 @@
     <x:t>10399</x:t>
   </x:si>
   <x:si>
-    <x:t>5390</x:t>
+    <x:t>5391</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
   </x:si>
   <x:si>
-    <x:t>1182</x:t>
+    <x:t>1187</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>5922</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23249</x:t>
+    <x:t>5925</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23258</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -100,22 +100,22 @@
     <x:t>11170</x:t>
   </x:si>
   <x:si>
-    <x:t>5761</x:t>
+    <x:t>5762</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
   </x:si>
   <x:si>
-    <x:t>1258</x:t>
+    <x:t>1263</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>6229</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24789</x:t>
+    <x:t>6232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24798</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -178,7 +178,7 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>2030</x:t>
+    <x:t>2031</x:t>
   </x:si>
   <x:si>
     <x:t>1118</x:t>
@@ -196,7 +196,7 @@
     <x:t>387</x:t>
   </x:si>
   <x:si>
-    <x:t>3777</x:t>
+    <x:t>3778</x:t>
   </x:si>
   <x:si>
     <x:t>475</x:t>
@@ -208,16 +208,16 @@
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2505</x:t>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2506</x:t>
   </x:si>
   <x:si>
     <x:t>1630</x:t>
@@ -226,19 +226,16 @@
     <x:t>63</x:t>
   </x:si>
   <x:si>
-    <x:t>220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>511</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4939</x:t>
+    <x:t>222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4943</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10527</x:t>
+    <x:t>10528</x:t>
   </x:si>
   <x:si>
     <x:t>1968</x:t>
@@ -253,10 +250,10 @@
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>2277</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15939</x:t>
+    <x:t>2278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15941</x:t>
   </x:si>
   <x:si>
     <x:t>129</x:t>
@@ -274,7 +271,7 @@
     <x:t>204</x:t>
   </x:si>
   <x:si>
-    <x:t>10656</x:t>
+    <x:t>10657</x:t>
   </x:si>
   <x:si>
     <x:t>1976</x:t>
@@ -289,10 +286,10 @@
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>2328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16143</x:t>
+    <x:t>2329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16145</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -307,16 +304,16 @@
     <x:t>13</x:t>
   </x:si>
   <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
   </x:si>
   <x:si>
     <x:t>69</x:t>
   </x:si>
   <x:si>
-    <x:t>138</x:t>
+    <x:t>139</x:t>
   </x:si>
   <x:si>
     <x:t>Liquor Law Violations</x:t>
@@ -376,19 +373,22 @@
     <x:t>Trespass of Real Property</x:t>
   </x:si>
   <x:si>
-    <x:t>2164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>258</x:t>
+    <x:t>2032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>259</x:t>
   </x:si>
   <x:si>
     <x:t>295</x:t>
   </x:si>
   <x:si>
-    <x:t>4890</x:t>
+    <x:t>4895</x:t>
   </x:si>
   <x:si>
     <x:t>146</x:t>
@@ -406,22 +406,22 @@
     <x:t>309</x:t>
   </x:si>
   <x:si>
-    <x:t>2176</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2284</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>263</x:t>
+    <x:t>2178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264</x:t>
   </x:si>
   <x:si>
     <x:t>327</x:t>
   </x:si>
   <x:si>
-    <x:t>5199</x:t>
+    <x:t>5204</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1096,131 +1096,131 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I10" s="1" t="s">
         <x:v>71</x:v>
-      </x:c>
-      <x:c r="I10" s="1" t="s">
-        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D11" s="1" t="s">
+      <x:c r="E11" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="E11" s="1" t="s">
+      <x:c r="F11" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="F11" s="1" t="s">
+      <x:c r="G11" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="G11" s="1" t="s">
+      <x:c r="H11" s="1" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="H11" s="1" t="s">
+      <x:c r="I11" s="1" t="s">
         <x:v>79</x:v>
-      </x:c>
-      <x:c r="I11" s="1" t="s">
-        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="D12" s="1" t="s">
-        <x:v>82</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="I12" s="1" t="s">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="I12" s="1" t="s">
-        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="E13" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="F13" s="1" t="s">
+      <x:c r="G13" s="1" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="G13" s="1" t="s">
+      <x:c r="H13" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="H13" s="1" t="s">
+      <x:c r="I13" s="1" t="s">
         <x:v>91</x:v>
-      </x:c>
-      <x:c r="I13" s="1" t="s">
-        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
         <x:v>94</x:v>
-      </x:c>
-      <x:c r="D14" s="1" t="s">
-        <x:v>95</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="I14" s="1" t="s">
         <x:v>97</x:v>
-      </x:c>
-      <x:c r="I14" s="1" t="s">
-        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>18</x:v>
@@ -1249,129 +1249,129 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D17" s="1" t="s">
+      <x:c r="E17" s="1" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="E17" s="1" t="s">
+      <x:c r="F17" s="1" t="s">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="F17" s="1" t="s">
-        <x:v>105</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="I17" s="1" t="s">
         <x:v>106</x:v>
-      </x:c>
-      <x:c r="I17" s="1" t="s">
-        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D18" s="1" t="s">
+      <x:c r="E18" s="1" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="E18" s="1" t="s">
+      <x:c r="F18" s="1" t="s">
         <x:v>110</x:v>
-      </x:c>
-      <x:c r="F18" s="1" t="s">
-        <x:v>111</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I18" s="1" t="s">
         <x:v>112</x:v>
-      </x:c>
-      <x:c r="I18" s="1" t="s">
-        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="D19" s="1" t="s">
+      <x:c r="E19" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="F19" s="1" t="s">
         <x:v>115</x:v>
-      </x:c>
-      <x:c r="E19" s="1" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F19" s="1" t="s">
-        <x:v>116</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I19" s="1" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="I19" s="1" t="s">
-        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
         <x:v>120</x:v>
@@ -1394,7 +1394,7 @@
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
@@ -1423,7 +1423,7 @@
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>26</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,34 +49,34 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10399</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5391</x:t>
+    <x:t>10419</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5392</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
   </x:si>
   <x:si>
-    <x:t>1187</x:t>
+    <x:t>1188</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>5925</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23258</x:t>
+    <x:t>5926</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23281</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
-    <x:t>771</x:t>
-  </x:si>
-  <x:si>
-    <x:t>371</x:t>
+    <x:t>774</x:t>
+  </x:si>
+  <x:si>
+    <x:t>372</x:t>
   </x:si>
   <x:si>
     <x:t>14</x:t>
@@ -91,31 +91,31 @@
     <x:t>307</x:t>
   </x:si>
   <x:si>
-    <x:t>1540</x:t>
+    <x:t>1544</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5762</x:t>
+    <x:t>11193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5764</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
   </x:si>
   <x:si>
-    <x:t>1263</x:t>
+    <x:t>1264</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>6232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24798</x:t>
+    <x:t>6233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24825</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -181,7 +181,7 @@
     <x:t>2031</x:t>
   </x:si>
   <x:si>
-    <x:t>1118</x:t>
+    <x:t>1119</x:t>
   </x:si>
   <x:si>
     <x:t>48</x:t>
@@ -196,40 +196,43 @@
     <x:t>387</x:t>
   </x:si>
   <x:si>
-    <x:t>3778</x:t>
+    <x:t>3779</x:t>
   </x:si>
   <x:si>
     <x:t>475</x:t>
   </x:si>
   <x:si>
+    <x:t>513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1632</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222</x:t>
+  </x:si>
+  <x:si>
     <x:t>512</x:t>
   </x:si>
   <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2506</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1630</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4943</x:t>
+    <x:t>4945</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
@@ -244,7 +247,7 @@
     <x:t>585</x:t>
   </x:si>
   <x:si>
-    <x:t>554</x:t>
+    <x:t>557</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
@@ -253,7 +256,7 @@
     <x:t>2278</x:t>
   </x:si>
   <x:si>
-    <x:t>15941</x:t>
+    <x:t>15944</x:t>
   </x:si>
   <x:si>
     <x:t>129</x:t>
@@ -280,7 +283,7 @@
     <x:t>588</x:t>
   </x:si>
   <x:si>
-    <x:t>566</x:t>
+    <x:t>569</x:t>
   </x:si>
   <x:si>
     <x:t>29</x:t>
@@ -289,7 +292,7 @@
     <x:t>2329</x:t>
   </x:si>
   <x:si>
-    <x:t>16145</x:t>
+    <x:t>16148</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -319,7 +322,7 @@
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>1449</x:t>
+    <x:t>1450</x:t>
   </x:si>
   <x:si>
     <x:t>276</x:t>
@@ -334,7 +337,7 @@
     <x:t>551</x:t>
   </x:si>
   <x:si>
-    <x:t>2377</x:t>
+    <x:t>2378</x:t>
   </x:si>
   <x:si>
     <x:t>526</x:t>
@@ -355,9 +358,6 @@
     <x:t>816</x:t>
   </x:si>
   <x:si>
-    <x:t>1975</x:t>
-  </x:si>
-  <x:si>
     <x:t>322</x:t>
   </x:si>
   <x:si>
@@ -367,7 +367,7 @@
     <x:t>749</x:t>
   </x:si>
   <x:si>
-    <x:t>3193</x:t>
+    <x:t>3194</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
@@ -385,16 +385,16 @@
     <x:t>259</x:t>
   </x:si>
   <x:si>
-    <x:t>295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4895</x:t>
+    <x:t>296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4896</x:t>
   </x:si>
   <x:si>
     <x:t>146</x:t>
   </x:si>
   <x:si>
-    <x:t>120</x:t>
+    <x:t>121</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -403,13 +403,13 @@
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>309</x:t>
+    <x:t>310</x:t>
   </x:si>
   <x:si>
     <x:t>2178</x:t>
   </x:si>
   <x:si>
-    <x:t>2285</x:t>
+    <x:t>2286</x:t>
   </x:si>
   <x:si>
     <x:t>148</x:t>
@@ -418,10 +418,10 @@
     <x:t>264</x:t>
   </x:si>
   <x:si>
-    <x:t>327</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5204</x:t>
+    <x:t>328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5206</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1096,131 +1096,131 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I10" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I11" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I12" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I13" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>18</x:v>
@@ -1249,106 +1249,106 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
         <x:v>115</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,10 +49,10 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10419</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5392</x:t>
+    <x:t>10423</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5395</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
@@ -64,16 +64,16 @@
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>5926</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23281</x:t>
+    <x:t>5927</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23289</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
-    <x:t>774</x:t>
+    <x:t>775</x:t>
   </x:si>
   <x:si>
     <x:t>372</x:t>
@@ -91,16 +91,16 @@
     <x:t>307</x:t>
   </x:si>
   <x:si>
-    <x:t>1544</x:t>
+    <x:t>1545</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5764</x:t>
+    <x:t>11198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5767</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
@@ -112,10 +112,10 @@
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>6233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24825</x:t>
+    <x:t>6234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24834</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -178,204 +178,204 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
+    <x:t>2034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3782</x:t>
+  </x:si>
+  <x:si>
+    <x:t>475</x:t>
+  </x:si>
+  <x:si>
+    <x:t>513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1632</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4948</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Driving Under the Influence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10529</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1968</x:t>
+  </x:si>
+  <x:si>
+    <x:t>586</x:t>
+  </x:si>
+  <x:si>
+    <x:t>557</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10658</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1976</x:t>
+  </x:si>
+  <x:si>
+    <x:t>589</x:t>
+  </x:si>
+  <x:si>
+    <x:t>569</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Family Offenses, Nonviolent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liquor Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>551</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2378</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>816</x:t>
+  </x:si>
+  <x:si>
+    <x:t>322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>749</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
     <x:t>2031</x:t>
   </x:si>
   <x:si>
-    <x:t>1119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>387</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3779</x:t>
-  </x:si>
-  <x:si>
-    <x:t>475</x:t>
-  </x:si>
-  <x:si>
-    <x:t>513</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2506</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1632</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>512</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4945</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Driving Under the Influence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10528</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1968</x:t>
-  </x:si>
-  <x:si>
-    <x:t>585</x:t>
-  </x:si>
-  <x:si>
-    <x:t>557</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15944</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10657</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1976</x:t>
-  </x:si>
-  <x:si>
-    <x:t>588</x:t>
-  </x:si>
-  <x:si>
-    <x:t>569</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Family Offenses, Nonviolent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liquor Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1450</x:t>
-  </x:si>
-  <x:si>
-    <x:t>276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>551</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2378</x:t>
-  </x:si>
-  <x:si>
-    <x:t>526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>198</x:t>
-  </x:si>
-  <x:si>
-    <x:t>816</x:t>
-  </x:si>
-  <x:si>
-    <x:t>322</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>749</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trespass of Real Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2032</x:t>
-  </x:si>
-  <x:si>
     <x:t>2165</x:t>
   </x:si>
   <x:si>
@@ -388,7 +388,7 @@
     <x:t>296</x:t>
   </x:si>
   <x:si>
-    <x:t>4896</x:t>
+    <x:t>4895</x:t>
   </x:si>
   <x:si>
     <x:t>146</x:t>
@@ -406,7 +406,7 @@
     <x:t>310</x:t>
   </x:si>
   <x:si>
-    <x:t>2178</x:t>
+    <x:t>2177</x:t>
   </x:si>
   <x:si>
     <x:t>2286</x:t>
@@ -421,7 +421,7 @@
     <x:t>328</x:t>
   </x:si>
   <x:si>
-    <x:t>5206</x:t>
+    <x:t>5205</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,10 +49,10 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5395</x:t>
+    <x:t>10470</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5404</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
@@ -64,10 +64,10 @@
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>5927</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23289</x:t>
+    <x:t>5931</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23349</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,10 +97,10 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11198</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5767</x:t>
+    <x:t>11245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5776</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
@@ -112,10 +112,10 @@
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>6234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24834</x:t>
+    <x:t>6238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24894</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -193,10 +193,10 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>387</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3782</x:t>
+    <x:t>389</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3784</x:t>
   </x:si>
   <x:si>
     <x:t>475</x:t>
@@ -229,22 +229,22 @@
     <x:t>222</x:t>
   </x:si>
   <x:si>
-    <x:t>512</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4948</x:t>
+    <x:t>514</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4950</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10529</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1968</x:t>
-  </x:si>
-  <x:si>
-    <x:t>586</x:t>
+    <x:t>10547</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1969</x:t>
+  </x:si>
+  <x:si>
+    <x:t>585</x:t>
   </x:si>
   <x:si>
     <x:t>557</x:t>
@@ -253,13 +253,13 @@
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>2282</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
+    <x:t>2283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15969</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
@@ -271,16 +271,16 @@
     <x:t>51</x:t>
   </x:si>
   <x:si>
-    <x:t>204</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10658</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1976</x:t>
-  </x:si>
-  <x:si>
-    <x:t>589</x:t>
+    <x:t>206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1977</x:t>
+  </x:si>
+  <x:si>
+    <x:t>588</x:t>
   </x:si>
   <x:si>
     <x:t>569</x:t>
@@ -289,10 +289,10 @@
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>2333</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16154</x:t>
+    <x:t>2334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16175</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -322,10 +322,10 @@
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>1450</x:t>
-  </x:si>
-  <x:si>
-    <x:t>276</x:t>
+    <x:t>1452</x:t>
+  </x:si>
+  <x:si>
+    <x:t>277</x:t>
   </x:si>
   <x:si>
     <x:t>42</x:t>
@@ -334,13 +334,13 @@
     <x:t>57</x:t>
   </x:si>
   <x:si>
-    <x:t>551</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2378</x:t>
-  </x:si>
-  <x:si>
-    <x:t>526</x:t>
+    <x:t>552</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>528</x:t>
   </x:si>
   <x:si>
     <x:t>46</x:t>
@@ -352,22 +352,25 @@
     <x:t>37</x:t>
   </x:si>
   <x:si>
-    <x:t>198</x:t>
-  </x:si>
-  <x:si>
-    <x:t>816</x:t>
-  </x:si>
-  <x:si>
-    <x:t>322</x:t>
+    <x:t>199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1980</x:t>
+  </x:si>
+  <x:si>
+    <x:t>323</x:t>
   </x:si>
   <x:si>
     <x:t>94</x:t>
   </x:si>
   <x:si>
-    <x:t>749</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3194</x:t>
+    <x:t>751</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3201</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
@@ -1342,71 +1345,71 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
         <x:v>49</x:v>
@@ -1415,39 +1418,39 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,10 +49,10 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10470</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5404</x:t>
+    <x:t>10536</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5411</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
@@ -64,16 +64,16 @@
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>5931</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23349</x:t>
+    <x:t>5935</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23426</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
-    <x:t>775</x:t>
+    <x:t>776</x:t>
   </x:si>
   <x:si>
     <x:t>372</x:t>
@@ -82,7 +82,7 @@
     <x:t>14</x:t>
   </x:si>
   <x:si>
-    <x:t>76</x:t>
+    <x:t>77</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -91,31 +91,31 @@
     <x:t>307</x:t>
   </x:si>
   <x:si>
-    <x:t>1545</x:t>
+    <x:t>1547</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5776</x:t>
+    <x:t>11312</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5783</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
   </x:si>
   <x:si>
-    <x:t>1264</x:t>
+    <x:t>1265</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>6238</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24894</x:t>
+    <x:t>6242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24973</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -178,10 +178,10 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>2034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1119</x:t>
+    <x:t>2041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1122</x:t>
   </x:si>
   <x:si>
     <x:t>48</x:t>
@@ -196,13 +196,13 @@
     <x:t>389</x:t>
   </x:si>
   <x:si>
-    <x:t>3784</x:t>
+    <x:t>3794</x:t>
   </x:si>
   <x:si>
     <x:t>475</x:t>
   </x:si>
   <x:si>
-    <x:t>513</x:t>
+    <x:t>516</x:t>
   </x:si>
   <x:si>
     <x:t>15</x:t>
@@ -214,13 +214,13 @@
     <x:t>125</x:t>
   </x:si>
   <x:si>
-    <x:t>1166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2509</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1632</x:t>
+    <x:t>1169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1638</x:t>
   </x:si>
   <x:si>
     <x:t>63</x:t>
@@ -232,16 +232,16 @@
     <x:t>514</x:t>
   </x:si>
   <x:si>
-    <x:t>4950</x:t>
+    <x:t>4963</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10547</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1969</x:t>
+    <x:t>10568</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1970</x:t>
   </x:si>
   <x:si>
     <x:t>585</x:t>
@@ -253,10 +253,10 @@
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>2283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15969</x:t>
+    <x:t>2286</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15994</x:t>
   </x:si>
   <x:si>
     <x:t>131</x:t>
@@ -274,10 +274,10 @@
     <x:t>206</x:t>
   </x:si>
   <x:si>
-    <x:t>10678</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1977</x:t>
+    <x:t>10699</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1978</x:t>
   </x:si>
   <x:si>
     <x:t>588</x:t>
@@ -289,10 +289,10 @@
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>2334</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16175</x:t>
+    <x:t>2337</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16200</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -322,7 +322,7 @@
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>1452</x:t>
+    <x:t>1453</x:t>
   </x:si>
   <x:si>
     <x:t>277</x:t>
@@ -337,10 +337,10 @@
     <x:t>552</x:t>
   </x:si>
   <x:si>
-    <x:t>2382</x:t>
-  </x:si>
-  <x:si>
-    <x:t>528</x:t>
+    <x:t>2383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>530</x:t>
   </x:si>
   <x:si>
     <x:t>46</x:t>
@@ -349,55 +349,52 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>819</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1980</x:t>
+    <x:t>200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>823</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1983</x:t>
   </x:si>
   <x:si>
     <x:t>323</x:t>
   </x:si>
   <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>751</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3201</x:t>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>752</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3206</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
   </x:si>
   <x:si>
-    <x:t>2031</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2165</x:t>
+    <x:t>2030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2174</x:t>
   </x:si>
   <x:si>
     <x:t>142</x:t>
   </x:si>
   <x:si>
-    <x:t>259</x:t>
+    <x:t>260</x:t>
   </x:si>
   <x:si>
     <x:t>296</x:t>
   </x:si>
   <x:si>
-    <x:t>4895</x:t>
-  </x:si>
-  <x:si>
-    <x:t>146</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
+    <x:t>4904</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -406,25 +403,25 @@
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>310</x:t>
+    <x:t>312</x:t>
   </x:si>
   <x:si>
     <x:t>2177</x:t>
   </x:si>
   <x:si>
-    <x:t>2286</x:t>
+    <x:t>2296</x:t>
   </x:si>
   <x:si>
     <x:t>148</x:t>
   </x:si>
   <x:si>
-    <x:t>264</x:t>
+    <x:t>265</x:t>
   </x:si>
   <x:si>
     <x:t>328</x:t>
   </x:si>
   <x:si>
-    <x:t>5205</x:t>
+    <x:t>5216</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1325,16 +1322,16 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="I18" s="1" t="s">
         <x:v>112</x:v>
-      </x:c>
-      <x:c r="I18" s="1" t="s">
-        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1345,71 +1342,71 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="D19" s="1" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="I19" s="1" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="I19" s="1" t="s">
-        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
+      <x:c r="E20" s="1" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="E20" s="1" t="s">
+      <x:c r="F20" s="1" t="s">
         <x:v>122</x:v>
-      </x:c>
-      <x:c r="F20" s="1" t="s">
-        <x:v>123</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I20" s="1" t="s">
         <x:v>124</x:v>
-      </x:c>
-      <x:c r="I20" s="1" t="s">
-        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="E21" s="1" t="s">
         <x:v>127</x:v>
-      </x:c>
-      <x:c r="E21" s="1" t="s">
-        <x:v>128</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
         <x:v>49</x:v>
@@ -1418,39 +1415,39 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="I21" s="1" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="s">
-        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
+      <x:c r="F22" s="1" t="s">
         <x:v>133</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>134</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="I22" s="1" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="I22" s="1" t="s">
-        <x:v>136</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,10 +49,10 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10536</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5411</x:t>
+    <x:t>10540</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5412</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
@@ -64,10 +64,10 @@
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>5935</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23426</x:t>
+    <x:t>5939</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23435</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,10 +97,10 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11312</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5783</x:t>
+    <x:t>11316</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5784</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
@@ -112,10 +112,10 @@
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>6242</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24973</x:t>
+    <x:t>6246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24982</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -178,10 +178,10 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>2041</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1122</x:t>
+    <x:t>2042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1123</x:t>
   </x:si>
   <x:si>
     <x:t>48</x:t>
@@ -196,7 +196,7 @@
     <x:t>389</x:t>
   </x:si>
   <x:si>
-    <x:t>3794</x:t>
+    <x:t>3796</x:t>
   </x:si>
   <x:si>
     <x:t>475</x:t>
@@ -217,10 +217,10 @@
     <x:t>1169</x:t>
   </x:si>
   <x:si>
-    <x:t>2516</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1638</x:t>
+    <x:t>2517</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1639</x:t>
   </x:si>
   <x:si>
     <x:t>63</x:t>
@@ -232,19 +232,19 @@
     <x:t>514</x:t>
   </x:si>
   <x:si>
-    <x:t>4963</x:t>
+    <x:t>4965</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10568</x:t>
+    <x:t>10570</x:t>
   </x:si>
   <x:si>
     <x:t>1970</x:t>
   </x:si>
   <x:si>
-    <x:t>585</x:t>
+    <x:t>586</x:t>
   </x:si>
   <x:si>
     <x:t>557</x:t>
@@ -253,10 +253,10 @@
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>2286</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15994</x:t>
+    <x:t>2287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15998</x:t>
   </x:si>
   <x:si>
     <x:t>131</x:t>
@@ -274,13 +274,13 @@
     <x:t>206</x:t>
   </x:si>
   <x:si>
-    <x:t>10699</x:t>
+    <x:t>10701</x:t>
   </x:si>
   <x:si>
     <x:t>1978</x:t>
   </x:si>
   <x:si>
-    <x:t>588</x:t>
+    <x:t>589</x:t>
   </x:si>
   <x:si>
     <x:t>569</x:t>
@@ -289,10 +289,10 @@
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>2337</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16200</x:t>
+    <x:t>2338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16204</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -334,10 +334,10 @@
     <x:t>57</x:t>
   </x:si>
   <x:si>
-    <x:t>552</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2383</x:t>
+    <x:t>553</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2384</x:t>
   </x:si>
   <x:si>
     <x:t>530</x:t>
@@ -364,19 +364,19 @@
     <x:t>95</x:t>
   </x:si>
   <x:si>
-    <x:t>752</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3206</x:t>
+    <x:t>753</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3207</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
   </x:si>
   <x:si>
-    <x:t>2030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2174</x:t>
+    <x:t>2031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2176</x:t>
   </x:si>
   <x:si>
     <x:t>142</x:t>
@@ -388,7 +388,7 @@
     <x:t>296</x:t>
   </x:si>
   <x:si>
-    <x:t>4904</x:t>
+    <x:t>4908</x:t>
   </x:si>
   <x:si>
     <x:t>147</x:t>
@@ -406,10 +406,10 @@
     <x:t>312</x:t>
   </x:si>
   <x:si>
-    <x:t>2177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2296</x:t>
+    <x:t>2178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2298</x:t>
   </x:si>
   <x:si>
     <x:t>148</x:t>
@@ -421,7 +421,7 @@
     <x:t>328</x:t>
   </x:si>
   <x:si>
-    <x:t>5216</x:t>
+    <x:t>5220</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1383,7 +1383,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
         <x:v>123</x:v>
@@ -1441,7 +1441,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
         <x:v>134</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,10 +49,10 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10540</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5412</x:t>
+    <x:t>10544</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5413</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
@@ -67,7 +67,7 @@
     <x:t>5939</x:t>
   </x:si>
   <x:si>
-    <x:t>23435</x:t>
+    <x:t>23440</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,10 +97,10 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11316</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5784</x:t>
+    <x:t>11320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5785</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
@@ -115,7 +115,7 @@
     <x:t>6246</x:t>
   </x:si>
   <x:si>
-    <x:t>24982</x:t>
+    <x:t>24987</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -178,7 +178,7 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>2042</x:t>
+    <x:t>2045</x:t>
   </x:si>
   <x:si>
     <x:t>1123</x:t>
@@ -193,13 +193,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>389</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3796</x:t>
-  </x:si>
-  <x:si>
-    <x:t>475</x:t>
+    <x:t>391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476</x:t>
   </x:si>
   <x:si>
     <x:t>516</x:t>
@@ -214,10 +214,10 @@
     <x:t>125</x:t>
   </x:si>
   <x:si>
-    <x:t>1169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2517</x:t>
+    <x:t>1170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2521</x:t>
   </x:si>
   <x:si>
     <x:t>1639</x:t>
@@ -229,16 +229,13 @@
     <x:t>222</x:t>
   </x:si>
   <x:si>
-    <x:t>514</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4965</x:t>
+    <x:t>4971</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10570</x:t>
+    <x:t>10571</x:t>
   </x:si>
   <x:si>
     <x:t>1970</x:t>
@@ -256,7 +253,7 @@
     <x:t>2287</x:t>
   </x:si>
   <x:si>
-    <x:t>15998</x:t>
+    <x:t>15999</x:t>
   </x:si>
   <x:si>
     <x:t>131</x:t>
@@ -274,7 +271,7 @@
     <x:t>206</x:t>
   </x:si>
   <x:si>
-    <x:t>10701</x:t>
+    <x:t>10702</x:t>
   </x:si>
   <x:si>
     <x:t>1978</x:t>
@@ -292,7 +289,7 @@
     <x:t>2338</x:t>
   </x:si>
   <x:si>
-    <x:t>16204</x:t>
+    <x:t>16205</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -376,7 +373,7 @@
     <x:t>2031</x:t>
   </x:si>
   <x:si>
-    <x:t>2176</x:t>
+    <x:t>2174</x:t>
   </x:si>
   <x:si>
     <x:t>142</x:t>
@@ -388,7 +385,7 @@
     <x:t>296</x:t>
   </x:si>
   <x:si>
-    <x:t>4908</x:t>
+    <x:t>4906</x:t>
   </x:si>
   <x:si>
     <x:t>147</x:t>
@@ -409,7 +406,7 @@
     <x:t>2178</x:t>
   </x:si>
   <x:si>
-    <x:t>2298</x:t>
+    <x:t>2296</x:t>
   </x:si>
   <x:si>
     <x:t>148</x:t>
@@ -421,7 +418,7 @@
     <x:t>328</x:t>
   </x:si>
   <x:si>
-    <x:t>5220</x:t>
+    <x:t>5218</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1096,131 +1093,131 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I10" s="1" t="s">
         <x:v>71</x:v>
-      </x:c>
-      <x:c r="I10" s="1" t="s">
-        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D11" s="1" t="s">
+      <x:c r="E11" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="E11" s="1" t="s">
+      <x:c r="F11" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="F11" s="1" t="s">
+      <x:c r="G11" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="G11" s="1" t="s">
+      <x:c r="H11" s="1" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="H11" s="1" t="s">
+      <x:c r="I11" s="1" t="s">
         <x:v>79</x:v>
-      </x:c>
-      <x:c r="I11" s="1" t="s">
-        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="D12" s="1" t="s">
-        <x:v>82</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="I12" s="1" t="s">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="I12" s="1" t="s">
-        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="E13" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="F13" s="1" t="s">
+      <x:c r="G13" s="1" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="G13" s="1" t="s">
+      <x:c r="H13" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="H13" s="1" t="s">
+      <x:c r="I13" s="1" t="s">
         <x:v>91</x:v>
-      </x:c>
-      <x:c r="I13" s="1" t="s">
-        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
         <x:v>94</x:v>
-      </x:c>
-      <x:c r="D14" s="1" t="s">
-        <x:v>95</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="I14" s="1" t="s">
         <x:v>97</x:v>
-      </x:c>
-      <x:c r="I14" s="1" t="s">
-        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>18</x:v>
@@ -1249,77 +1246,77 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D17" s="1" t="s">
+      <x:c r="E17" s="1" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="E17" s="1" t="s">
+      <x:c r="F17" s="1" t="s">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="F17" s="1" t="s">
-        <x:v>105</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="I17" s="1" t="s">
         <x:v>106</x:v>
-      </x:c>
-      <x:c r="I17" s="1" t="s">
-        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D18" s="1" t="s">
+      <x:c r="E18" s="1" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="E18" s="1" t="s">
-        <x:v>110</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
         <x:v>64</x:v>
@@ -1328,85 +1325,85 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="I18" s="1" t="s">
         <x:v>111</x:v>
-      </x:c>
-      <x:c r="I18" s="1" t="s">
-        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="D19" s="1" t="s">
+      <x:c r="E19" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="F19" s="1" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="E19" s="1" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F19" s="1" t="s">
-        <x:v>115</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="I19" s="1" t="s">
         <x:v>116</x:v>
-      </x:c>
-      <x:c r="I19" s="1" t="s">
-        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
+      <x:c r="E20" s="1" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="E20" s="1" t="s">
+      <x:c r="F20" s="1" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="F20" s="1" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="I20" s="1" t="s">
         <x:v>123</x:v>
-      </x:c>
-      <x:c r="I20" s="1" t="s">
-        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="E21" s="1" t="s">
         <x:v>126</x:v>
-      </x:c>
-      <x:c r="E21" s="1" t="s">
-        <x:v>127</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
         <x:v>49</x:v>
@@ -1415,39 +1412,39 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="I21" s="1" t="s">
         <x:v>128</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="s">
-        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
+      <x:c r="F22" s="1" t="s">
         <x:v>132</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>133</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="I22" s="1" t="s">
         <x:v>134</x:v>
-      </x:c>
-      <x:c r="I22" s="1" t="s">
-        <x:v>135</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,10 +49,10 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10544</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5413</x:t>
+    <x:t>10548</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5414</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
@@ -64,10 +64,10 @@
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>5939</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23440</x:t>
+    <x:t>5941</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23447</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,10 +97,10 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5785</x:t>
+    <x:t>11324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5786</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
@@ -112,10 +112,10 @@
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>6246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24987</x:t>
+    <x:t>6248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24994</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -178,7 +178,7 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>2045</x:t>
+    <x:t>2047</x:t>
   </x:si>
   <x:si>
     <x:t>1123</x:t>
@@ -187,7 +187,7 @@
     <x:t>48</x:t>
   </x:si>
   <x:si>
-    <x:t>184</x:t>
+    <x:t>185</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -196,7 +196,7 @@
     <x:t>391</x:t>
   </x:si>
   <x:si>
-    <x:t>3801</x:t>
+    <x:t>3804</x:t>
   </x:si>
   <x:si>
     <x:t>476</x:t>
@@ -211,13 +211,13 @@
     <x:t>38</x:t>
   </x:si>
   <x:si>
-    <x:t>125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2521</x:t>
+    <x:t>126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2523</x:t>
   </x:si>
   <x:si>
     <x:t>1639</x:t>
@@ -226,19 +226,22 @@
     <x:t>63</x:t>
   </x:si>
   <x:si>
-    <x:t>222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4971</x:t>
+    <x:t>223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>517</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4975</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10571</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1970</x:t>
+    <x:t>10576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1971</x:t>
   </x:si>
   <x:si>
     <x:t>586</x:t>
@@ -250,10 +253,10 @@
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>2287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15999</x:t>
+    <x:t>2289</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16007</x:t>
   </x:si>
   <x:si>
     <x:t>131</x:t>
@@ -271,10 +274,10 @@
     <x:t>206</x:t>
   </x:si>
   <x:si>
-    <x:t>10702</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1978</x:t>
+    <x:t>10707</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1979</x:t>
   </x:si>
   <x:si>
     <x:t>589</x:t>
@@ -286,10 +289,10 @@
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>2338</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16205</x:t>
+    <x:t>2340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16213</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -370,10 +373,10 @@
     <x:t>Trespass of Real Property</x:t>
   </x:si>
   <x:si>
-    <x:t>2031</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2174</x:t>
+    <x:t>2030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2175</x:t>
   </x:si>
   <x:si>
     <x:t>142</x:t>
@@ -382,10 +385,10 @@
     <x:t>260</x:t>
   </x:si>
   <x:si>
-    <x:t>296</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4906</x:t>
+    <x:t>298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4908</x:t>
   </x:si>
   <x:si>
     <x:t>147</x:t>
@@ -403,10 +406,10 @@
     <x:t>312</x:t>
   </x:si>
   <x:si>
-    <x:t>2178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2296</x:t>
+    <x:t>2177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2297</x:t>
   </x:si>
   <x:si>
     <x:t>148</x:t>
@@ -415,10 +418,10 @@
     <x:t>265</x:t>
   </x:si>
   <x:si>
-    <x:t>328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5218</x:t>
+    <x:t>330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5220</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1093,131 +1096,131 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I10" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I11" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I12" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I13" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>18</x:v>
@@ -1246,77 +1249,77 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
         <x:v>64</x:v>
@@ -1325,85 +1328,85 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
         <x:v>49</x:v>
@@ -1412,39 +1415,39 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10548</x:t>
+    <x:t>10549</x:t>
   </x:si>
   <x:si>
     <x:t>5414</x:t>
@@ -67,7 +67,7 @@
     <x:t>5941</x:t>
   </x:si>
   <x:si>
-    <x:t>23447</x:t>
+    <x:t>23448</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,7 +97,7 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11324</x:t>
+    <x:t>11325</x:t>
   </x:si>
   <x:si>
     <x:t>5786</x:t>
@@ -115,7 +115,7 @@
     <x:t>6248</x:t>
   </x:si>
   <x:si>
-    <x:t>24994</x:t>
+    <x:t>24995</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -178,7 +178,7 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>2047</x:t>
+    <x:t>2048</x:t>
   </x:si>
   <x:si>
     <x:t>1123</x:t>
@@ -196,7 +196,7 @@
     <x:t>391</x:t>
   </x:si>
   <x:si>
-    <x:t>3804</x:t>
+    <x:t>3805</x:t>
   </x:si>
   <x:si>
     <x:t>476</x:t>
@@ -217,7 +217,7 @@
     <x:t>1171</x:t>
   </x:si>
   <x:si>
-    <x:t>2523</x:t>
+    <x:t>2524</x:t>
   </x:si>
   <x:si>
     <x:t>1639</x:t>
@@ -232,16 +232,16 @@
     <x:t>517</x:t>
   </x:si>
   <x:si>
-    <x:t>4975</x:t>
+    <x:t>4976</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10576</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1971</x:t>
+    <x:t>10577</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1972</x:t>
   </x:si>
   <x:si>
     <x:t>586</x:t>
@@ -256,7 +256,7 @@
     <x:t>2289</x:t>
   </x:si>
   <x:si>
-    <x:t>16007</x:t>
+    <x:t>16009</x:t>
   </x:si>
   <x:si>
     <x:t>131</x:t>
@@ -274,10 +274,10 @@
     <x:t>206</x:t>
   </x:si>
   <x:si>
-    <x:t>10707</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1979</x:t>
+    <x:t>10708</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1980</x:t>
   </x:si>
   <x:si>
     <x:t>589</x:t>
@@ -292,7 +292,7 @@
     <x:t>2340</x:t>
   </x:si>
   <x:si>
-    <x:t>16213</x:t>
+    <x:t>16215</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -304,19 +304,16 @@
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
     <x:t>18</x:t>
   </x:si>
   <x:si>
-    <x:t>138</x:t>
+    <x:t>139</x:t>
   </x:si>
   <x:si>
     <x:t>69</x:t>
   </x:si>
   <x:si>
-    <x:t>139</x:t>
+    <x:t>140</x:t>
   </x:si>
   <x:si>
     <x:t>Liquor Law Violations</x:t>
@@ -340,7 +337,7 @@
     <x:t>2384</x:t>
   </x:si>
   <x:si>
-    <x:t>530</x:t>
+    <x:t>534</x:t>
   </x:si>
   <x:si>
     <x:t>46</x:t>
@@ -352,10 +349,10 @@
     <x:t>200</x:t>
   </x:si>
   <x:si>
-    <x:t>823</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1983</x:t>
+    <x:t>827</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1987</x:t>
   </x:si>
   <x:si>
     <x:t>323</x:t>
@@ -367,7 +364,7 @@
     <x:t>753</x:t>
   </x:si>
   <x:si>
-    <x:t>3207</x:t>
+    <x:t>3211</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
@@ -1206,16 +1203,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="I14" s="1" t="s">
         <x:v>97</x:v>
-      </x:c>
-      <x:c r="I14" s="1" t="s">
-        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -1255,7 +1252,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
         <x:v>95</x:v>
@@ -1264,62 +1261,62 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D17" s="1" t="s">
+      <x:c r="E17" s="1" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="E17" s="1" t="s">
+      <x:c r="F17" s="1" t="s">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="F17" s="1" t="s">
-        <x:v>105</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="I17" s="1" t="s">
         <x:v>106</x:v>
-      </x:c>
-      <x:c r="I17" s="1" t="s">
-        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D18" s="1" t="s">
+      <x:c r="E18" s="1" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="E18" s="1" t="s">
-        <x:v>110</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
         <x:v>64</x:v>
@@ -1328,85 +1325,85 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="I18" s="1" t="s">
         <x:v>111</x:v>
-      </x:c>
-      <x:c r="I18" s="1" t="s">
-        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
         <x:v>113</x:v>
-      </x:c>
-      <x:c r="D19" s="1" t="s">
-        <x:v>114</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="I19" s="1" t="s">
         <x:v>116</x:v>
-      </x:c>
-      <x:c r="I19" s="1" t="s">
-        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
+      <x:c r="E20" s="1" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="E20" s="1" t="s">
+      <x:c r="F20" s="1" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="F20" s="1" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="I20" s="1" t="s">
         <x:v>123</x:v>
-      </x:c>
-      <x:c r="I20" s="1" t="s">
-        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="E21" s="1" t="s">
         <x:v>126</x:v>
-      </x:c>
-      <x:c r="E21" s="1" t="s">
-        <x:v>127</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
         <x:v>49</x:v>
@@ -1415,39 +1412,39 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="I21" s="1" t="s">
         <x:v>128</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="s">
-        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
+      <x:c r="F22" s="1" t="s">
         <x:v>132</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>133</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="I22" s="1" t="s">
         <x:v>134</x:v>
-      </x:c>
-      <x:c r="I22" s="1" t="s">
-        <x:v>135</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,31 +49,31 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10549</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5414</x:t>
+    <x:t>10556</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5419</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
   </x:si>
   <x:si>
-    <x:t>1188</x:t>
+    <x:t>1190</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>5941</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23448</x:t>
+    <x:t>5943</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23464</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
-    <x:t>776</x:t>
+    <x:t>777</x:t>
   </x:si>
   <x:si>
     <x:t>372</x:t>
@@ -82,7 +82,7 @@
     <x:t>14</x:t>
   </x:si>
   <x:si>
-    <x:t>77</x:t>
+    <x:t>76</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
@@ -97,25 +97,25 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5786</x:t>
+    <x:t>11333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5791</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
   </x:si>
   <x:si>
-    <x:t>1265</x:t>
+    <x:t>1266</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>6248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24995</x:t>
+    <x:t>6250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25011</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -151,10 +151,10 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>279</x:t>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>280</x:t>
   </x:si>
   <x:si>
     <x:t>202</x:t>
@@ -169,10 +169,10 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>438</x:t>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>439</x:t>
   </x:si>
   <x:si>
     <x:t>Disorderly Conduct</x:t>
@@ -181,22 +181,22 @@
     <x:t>2048</x:t>
   </x:si>
   <x:si>
-    <x:t>1123</x:t>
+    <x:t>1124</x:t>
   </x:si>
   <x:si>
     <x:t>48</x:t>
   </x:si>
   <x:si>
-    <x:t>185</x:t>
+    <x:t>186</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3805</x:t>
+    <x:t>390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3806</x:t>
   </x:si>
   <x:si>
     <x:t>476</x:t>
@@ -220,43 +220,37 @@
     <x:t>2524</x:t>
   </x:si>
   <x:si>
-    <x:t>1639</x:t>
+    <x:t>1640</x:t>
   </x:si>
   <x:si>
     <x:t>63</x:t>
   </x:si>
   <x:si>
-    <x:t>223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>517</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4976</x:t>
+    <x:t>224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4977</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10577</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1972</x:t>
+    <x:t>10582</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1974</x:t>
   </x:si>
   <x:si>
     <x:t>586</x:t>
   </x:si>
   <x:si>
-    <x:t>557</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2289</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16009</x:t>
+    <x:t>561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16021</x:t>
   </x:si>
   <x:si>
     <x:t>131</x:t>
@@ -274,25 +268,25 @@
     <x:t>206</x:t>
   </x:si>
   <x:si>
-    <x:t>10708</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1980</x:t>
+    <x:t>10713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1982</x:t>
   </x:si>
   <x:si>
     <x:t>589</x:t>
   </x:si>
   <x:si>
-    <x:t>569</x:t>
+    <x:t>573</x:t>
   </x:si>
   <x:si>
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>2340</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16215</x:t>
+    <x:t>2341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16227</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -307,13 +301,13 @@
     <x:t>18</x:t>
   </x:si>
   <x:si>
-    <x:t>139</x:t>
+    <x:t>140</x:t>
   </x:si>
   <x:si>
     <x:t>69</x:t>
   </x:si>
   <x:si>
-    <x:t>140</x:t>
+    <x:t>141</x:t>
   </x:si>
   <x:si>
     <x:t>Liquor Law Violations</x:t>
@@ -370,25 +364,25 @@
     <x:t>Trespass of Real Property</x:t>
   </x:si>
   <x:si>
-    <x:t>2030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2175</x:t>
+    <x:t>2031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2178</x:t>
   </x:si>
   <x:si>
     <x:t>142</x:t>
   </x:si>
   <x:si>
-    <x:t>260</x:t>
+    <x:t>261</x:t>
   </x:si>
   <x:si>
     <x:t>298</x:t>
   </x:si>
   <x:si>
-    <x:t>4908</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147</x:t>
+    <x:t>4913</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
   </x:si>
   <x:si>
     <x:t>122</x:t>
@@ -400,25 +394,22 @@
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>312</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>265</x:t>
+    <x:t>313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>266</x:t>
   </x:si>
   <x:si>
     <x:t>330</x:t>
   </x:si>
   <x:si>
-    <x:t>5220</x:t>
+    <x:t>5226</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1093,131 +1084,131 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I10" s="1" t="s">
         <x:v>71</x:v>
-      </x:c>
-      <x:c r="I10" s="1" t="s">
-        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="D11" s="1" t="s">
+      <x:c r="E11" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="E11" s="1" t="s">
+      <x:c r="F11" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="F11" s="1" t="s">
+      <x:c r="G11" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H11" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="G11" s="1" t="s">
+      <x:c r="I11" s="1" t="s">
         <x:v>78</x:v>
-      </x:c>
-      <x:c r="H11" s="1" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="I11" s="1" t="s">
-        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I12" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="G13" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="F13" s="1" t="s">
+      <x:c r="H13" s="1" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="G13" s="1" t="s">
+      <x:c r="I13" s="1" t="s">
         <x:v>90</x:v>
-      </x:c>
-      <x:c r="H13" s="1" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="I13" s="1" t="s">
-        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>18</x:v>
@@ -1246,77 +1237,77 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="D17" s="1" t="s">
+      <x:c r="F17" s="1" t="s">
         <x:v>102</x:v>
-      </x:c>
-      <x:c r="E17" s="1" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="F17" s="1" t="s">
-        <x:v>104</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E18" s="1" t="s">
         <x:v>107</x:v>
-      </x:c>
-      <x:c r="D18" s="1" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="E18" s="1" t="s">
-        <x:v>109</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
         <x:v>64</x:v>
@@ -1325,85 +1316,85 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F19" s="1" t="s">
         <x:v>112</x:v>
-      </x:c>
-      <x:c r="D19" s="1" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="E19" s="1" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F19" s="1" t="s">
-        <x:v>114</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
+      <x:c r="F20" s="1" t="s">
         <x:v>119</x:v>
-      </x:c>
-      <x:c r="E20" s="1" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="F20" s="1" t="s">
-        <x:v>121</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E21" s="1" t="s">
         <x:v>124</x:v>
-      </x:c>
-      <x:c r="D21" s="1" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="E21" s="1" t="s">
-        <x:v>126</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
         <x:v>49</x:v>
@@ -1412,39 +1403,39 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="F22" s="1" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="D22" s="1" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E22" s="1" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>132</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10556</x:t>
+    <x:t>10559</x:t>
   </x:si>
   <x:si>
     <x:t>5419</x:t>
@@ -64,16 +64,16 @@
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>5943</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23464</x:t>
+    <x:t>5944</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23468</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
   </x:si>
   <x:si>
-    <x:t>777</x:t>
+    <x:t>778</x:t>
   </x:si>
   <x:si>
     <x:t>372</x:t>
@@ -91,13 +91,13 @@
     <x:t>307</x:t>
   </x:si>
   <x:si>
-    <x:t>1547</x:t>
+    <x:t>1548</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11333</x:t>
+    <x:t>11337</x:t>
   </x:si>
   <x:si>
     <x:t>5791</x:t>
@@ -112,10 +112,10 @@
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>6250</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25011</x:t>
+    <x:t>6251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25016</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -235,7 +235,7 @@
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10582</x:t>
+    <x:t>10588</x:t>
   </x:si>
   <x:si>
     <x:t>1974</x:t>
@@ -250,7 +250,7 @@
     <x:t>2290</x:t>
   </x:si>
   <x:si>
-    <x:t>16021</x:t>
+    <x:t>16027</x:t>
   </x:si>
   <x:si>
     <x:t>131</x:t>
@@ -268,7 +268,7 @@
     <x:t>206</x:t>
   </x:si>
   <x:si>
-    <x:t>10713</x:t>
+    <x:t>10719</x:t>
   </x:si>
   <x:si>
     <x:t>1982</x:t>
@@ -286,7 +286,7 @@
     <x:t>2341</x:t>
   </x:si>
   <x:si>
-    <x:t>16227</x:t>
+    <x:t>16233</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -364,7 +364,7 @@
     <x:t>Trespass of Real Property</x:t>
   </x:si>
   <x:si>
-    <x:t>2031</x:t>
+    <x:t>2032</x:t>
   </x:si>
   <x:si>
     <x:t>2178</x:t>
@@ -379,7 +379,7 @@
     <x:t>298</x:t>
   </x:si>
   <x:si>
-    <x:t>4913</x:t>
+    <x:t>4914</x:t>
   </x:si>
   <x:si>
     <x:t>148</x:t>
@@ -397,7 +397,7 @@
     <x:t>313</x:t>
   </x:si>
   <x:si>
-    <x:t>2179</x:t>
+    <x:t>2180</x:t>
   </x:si>
   <x:si>
     <x:t>2300</x:t>
@@ -409,7 +409,7 @@
     <x:t>330</x:t>
   </x:si>
   <x:si>
-    <x:t>5226</x:t>
+    <x:t>5227</x:t>
   </x:si>
 </x:sst>
 </file>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,10 +49,10 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5419</x:t>
+    <x:t>10563</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5422</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
@@ -64,10 +64,10 @@
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>5944</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23468</x:t>
+    <x:t>5945</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23476</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,10 +97,10 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11337</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5791</x:t>
+    <x:t>11341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5794</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
@@ -112,10 +112,10 @@
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>6251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25016</x:t>
+    <x:t>6252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25024</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -178,10 +178,10 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>2048</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1124</x:t>
+    <x:t>2049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1125</x:t>
   </x:si>
   <x:si>
     <x:t>48</x:t>
@@ -196,46 +196,49 @@
     <x:t>390</x:t>
   </x:si>
   <x:si>
-    <x:t>3806</x:t>
+    <x:t>3808</x:t>
   </x:si>
   <x:si>
     <x:t>476</x:t>
   </x:si>
   <x:si>
+    <x:t>519</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2525</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1644</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>224</x:t>
+  </x:si>
+  <x:si>
     <x:t>516</x:t>
   </x:si>
   <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1640</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>224</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4977</x:t>
+    <x:t>4982</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10588</x:t>
+    <x:t>10592</x:t>
   </x:si>
   <x:si>
     <x:t>1974</x:t>
@@ -247,10 +250,10 @@
     <x:t>561</x:t>
   </x:si>
   <x:si>
-    <x:t>2290</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16027</x:t>
+    <x:t>2291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16032</x:t>
   </x:si>
   <x:si>
     <x:t>131</x:t>
@@ -268,7 +271,7 @@
     <x:t>206</x:t>
   </x:si>
   <x:si>
-    <x:t>10719</x:t>
+    <x:t>10723</x:t>
   </x:si>
   <x:si>
     <x:t>1982</x:t>
@@ -283,10 +286,10 @@
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>2341</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16233</x:t>
+    <x:t>2342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16238</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -364,10 +367,10 @@
     <x:t>Trespass of Real Property</x:t>
   </x:si>
   <x:si>
-    <x:t>2032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2178</x:t>
+    <x:t>2034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2179</x:t>
   </x:si>
   <x:si>
     <x:t>142</x:t>
@@ -379,7 +382,7 @@
     <x:t>298</x:t>
   </x:si>
   <x:si>
-    <x:t>4914</x:t>
+    <x:t>4917</x:t>
   </x:si>
   <x:si>
     <x:t>148</x:t>
@@ -397,10 +400,10 @@
     <x:t>313</x:t>
   </x:si>
   <x:si>
-    <x:t>2180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2300</x:t>
+    <x:t>2182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2301</x:t>
   </x:si>
   <x:si>
     <x:t>266</x:t>
@@ -409,7 +412,7 @@
     <x:t>330</x:t>
   </x:si>
   <x:si>
-    <x:t>5227</x:t>
+    <x:t>5230</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1084,111 +1087,111 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I10" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I11" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I12" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I13" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>38</x:v>
@@ -1200,15 +1203,15 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>18</x:v>
@@ -1237,16 +1240,16 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
         <x:v>38</x:v>
@@ -1258,56 +1261,56 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G17" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
         <x:v>64</x:v>
@@ -1316,85 +1319,85 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
         <x:v>49</x:v>
@@ -1403,39 +1406,39 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupBByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,10 +49,10 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>10563</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5422</x:t>
+    <x:t>10564</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5425</x:t>
   </x:si>
   <x:si>
     <x:t>334</x:t>
@@ -67,7 +67,7 @@
     <x:t>5945</x:t>
   </x:si>
   <x:si>
-    <x:t>23476</x:t>
+    <x:t>23480</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -97,10 +97,10 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>11341</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5794</x:t>
+    <x:t>11342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5797</x:t>
   </x:si>
   <x:si>
     <x:t>348</x:t>
@@ -115,7 +115,7 @@
     <x:t>6252</x:t>
   </x:si>
   <x:si>
-    <x:t>25024</x:t>
+    <x:t>25028</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -178,7 +178,7 @@
     <x:t>Disorderly Conduct</x:t>
   </x:si>
   <x:si>
-    <x:t>2049</x:t>
+    <x:t>2050</x:t>
   </x:si>
   <x:si>
     <x:t>1125</x:t>
@@ -196,7 +196,7 @@
     <x:t>390</x:t>
   </x:si>
   <x:si>
-    <x:t>3808</x:t>
+    <x:t>3809</x:t>
   </x:si>
   <x:si>
     <x:t>476</x:t>
@@ -217,7 +217,7 @@
     <x:t>1174</x:t>
   </x:si>
   <x:si>
-    <x:t>2525</x:t>
+    <x:t>2526</x:t>
   </x:si>
   <x:si>
     <x:t>1644</x:t>
@@ -232,13 +232,13 @@
     <x:t>516</x:t>
   </x:si>
   <x:si>
-    <x:t>4982</x:t>
+    <x:t>4983</x:t>
   </x:si>
   <x:si>
     <x:t>Driving Under the Influence</x:t>
   </x:si>
   <x:si>
-    <x:t>10592</x:t>
+    <x:t>10597</x:t>
   </x:si>
   <x:si>
     <x:t>1974</x:t>
@@ -253,7 +253,7 @@
     <x:t>2291</x:t>
   </x:si>
   <x:si>
-    <x:t>16032</x:t>
+    <x:t>16037</x:t>
   </x:si>
   <x:si>
     <x:t>131</x:t>
@@ -271,7 +271,7 @@
     <x:t>206</x:t>
   </x:si>
   <x:si>
-    <x:t>10723</x:t>
+    <x:t>10728</x:t>
   </x:si>
   <x:si>
     <x:t>1982</x:t>
@@ -289,7 +289,7 @@
     <x:t>2342</x:t>
   </x:si>
   <x:si>
-    <x:t>16238</x:t>
+    <x:t>16243</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -316,7 +316,7 @@
     <x:t>Liquor Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>1453</x:t>
+    <x:t>1454</x:t>
   </x:si>
   <x:si>
     <x:t>277</x:t>
@@ -331,7 +331,7 @@
     <x:t>553</x:t>
   </x:si>
   <x:si>
-    <x:t>2384</x:t>
+    <x:t>2385</x:t>
   </x:si>
   <x:si>
     <x:t>534</x:t>
@@ -349,7 +349,7 @@
     <x:t>827</x:t>
   </x:si>
   <x:si>
-    <x:t>1987</x:t>
+    <x:t>1988</x:t>
   </x:si>
   <x:si>
     <x:t>323</x:t>
@@ -361,7 +361,7 @@
     <x:t>753</x:t>
   </x:si>
   <x:si>
-    <x:t>3211</x:t>
+    <x:t>3212</x:t>
   </x:si>
   <x:si>
     <x:t>Trespass of Real Property</x:t>
